--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15075" windowHeight="7710" tabRatio="347"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="13740" windowHeight="7710" tabRatio="347"/>
   </bookViews>
   <sheets>
     <sheet name="primary" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="344">
   <si>
     <t>ID</t>
   </si>
@@ -1324,6 +1324,9 @@
   </si>
   <si>
     <t>2014-04-18</t>
+  </si>
+  <si>
+    <t>2014-05-05</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1734,8 +1737,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P683"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3330" ySplit="600" topLeftCell="I10" activePane="bottomRight"/>
+      <selection activeCell="A22" sqref="A22"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,20 +3033,26 @@
       <c r="G27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14">
+        <v>28</v>
+      </c>
       <c r="I27" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14"/>
+        <v>91.868000000000009</v>
+      </c>
+      <c r="J27" s="14">
+        <v>34.5</v>
+      </c>
       <c r="K27" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="2"/>
+        <v>113.19450000000001</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M27" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>264.8776604330709</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>196</v>
@@ -3208,20 +3221,26 @@
       <c r="G31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="13">
+        <v>28</v>
+      </c>
       <c r="I31" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="13"/>
+        <v>91.868000000000009</v>
+      </c>
+      <c r="J31" s="13">
+        <v>24.5</v>
+      </c>
       <c r="K31" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="7"/>
+        <v>80.384500000000003</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="M31" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>249.25408169291339</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>68</v>
@@ -3758,20 +3777,26 @@
       <c r="G43" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="14">
+        <v>19.5</v>
+      </c>
       <c r="I43" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="14"/>
+        <v>63.979500000000002</v>
+      </c>
+      <c r="J43" s="14">
+        <v>18</v>
+      </c>
       <c r="K43" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="2"/>
+        <v>59.058</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M43" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>203.66549212598426</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>196</v>
@@ -3941,20 +3966,26 @@
       <c r="G47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="14">
+        <v>18</v>
+      </c>
       <c r="I47" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14"/>
+        <v>59.058</v>
+      </c>
+      <c r="J47" s="14">
+        <v>23.5</v>
+      </c>
       <c r="K47" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="2"/>
+        <v>77.103499999999997</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M47" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>202.01852066929132</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>100</v>
@@ -4892,7 +4923,7 @@
         <v>88</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" ref="F68:F99" si="10">E68/2.54</f>
+        <f t="shared" ref="F68:F96" si="10">E68/2.54</f>
         <v>35.433070866141733</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4905,7 +4936,7 @@
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="23">
-        <f t="shared" ref="K68:K99" si="11">J68*3.281</f>
+        <f t="shared" ref="K68:K96" si="11">J68*3.281</f>
         <v>0</v>
       </c>
       <c r="L68" s="2"/>
@@ -5853,7 +5884,7 @@
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="23">
-        <f t="shared" ref="I89:I120" si="13">H89*3.281</f>
+        <f t="shared" ref="I89:I96" si="13">H89*3.281</f>
         <v>0</v>
       </c>
       <c r="J89" s="14"/>
@@ -19593,15 +19624,15 @@
       </c>
       <c r="F25" s="15">
         <f>primary!H27</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1">
         <f>primary!J27</f>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H25" s="24">
         <f>primary!M27</f>
-        <v>0</v>
+        <v>264.8776604330709</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>primary!N27</f>
@@ -19761,15 +19792,15 @@
       </c>
       <c r="F29" s="15">
         <f>primary!H31</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1">
         <f>primary!J31</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H29" s="24">
         <f>primary!M31</f>
-        <v>0</v>
+        <v>249.25408169291339</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>primary!N31</f>
@@ -20265,15 +20296,15 @@
       </c>
       <c r="F41" s="15">
         <f>primary!H43</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="G41" s="1">
         <f>primary!J43</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H41" s="24">
         <f>primary!M43</f>
-        <v>0</v>
+        <v>203.66549212598426</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>primary!N43</f>
@@ -20433,15 +20464,15 @@
       </c>
       <c r="F45" s="15">
         <f>primary!H47</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1">
         <f>primary!J47</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H45" s="24">
         <f>primary!M47</f>
-        <v>0</v>
+        <v>202.01852066929132</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>primary!N47</f>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="13740" windowHeight="7710" tabRatio="347"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="primary" sheetId="1" r:id="rId1"/>
     <sheet name="for cvs output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
     <author>Steven J Baskauf</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +151,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0">
+    <comment ref="I60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by vssm students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by vssm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +223,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="I68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by vssm students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by vssm students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0">
+    <comment ref="E90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E92" authorId="1">
+    <comment ref="E92" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B94" authorId="0">
+    <comment ref="B94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E95" authorId="0">
+    <comment ref="E95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="381">
   <si>
     <t>ID</t>
   </si>
@@ -1435,6 +1536,9 @@
   </si>
   <si>
     <t>http://bioimages.vanderbilt.edu/vanderbilt/11-221</t>
+  </si>
+  <si>
+    <t>2014-08-20</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1879,11 +1983,11 @@
   <dimension ref="A1:Q683"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3330" ySplit="600" topLeftCell="C4" activePane="bottomRight"/>
+      <pane xSplit="3330" ySplit="600" topLeftCell="A49" activePane="bottomRight"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="P3" sqref="P1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
-      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
+      <selection pane="topRight" activeCell="J3" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
+      <selection pane="bottomRight" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3580,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="30"/>
       <c r="L31" s="31">
         <f t="shared" si="1"/>
@@ -3521,7 +3625,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="30"/>
       <c r="L32" s="31">
         <f t="shared" si="1"/>
@@ -3568,7 +3672,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J33" s="22"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="30"/>
       <c r="L33" s="31">
         <f t="shared" si="1"/>
@@ -3615,7 +3719,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J34" s="22"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="30"/>
       <c r="L34" s="31">
         <f t="shared" si="1"/>
@@ -3662,7 +3766,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="30"/>
       <c r="L35" s="31">
         <f t="shared" si="1"/>
@@ -3709,7 +3813,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="30"/>
       <c r="L36" s="31">
         <f t="shared" ref="L36:L67" si="7">K36*3.281</f>
@@ -3756,7 +3860,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="30"/>
       <c r="L37" s="31">
         <f t="shared" si="7"/>
@@ -3801,7 +3905,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="30"/>
       <c r="L38" s="31">
         <f t="shared" si="7"/>
@@ -3848,7 +3952,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="30"/>
       <c r="L39" s="31">
         <f t="shared" si="7"/>
@@ -3895,7 +3999,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J40" s="22"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="30"/>
       <c r="L40" s="31">
         <f t="shared" si="7"/>
@@ -3942,7 +4046,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J41" s="22"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="30"/>
       <c r="L41" s="31">
         <f t="shared" si="7"/>
@@ -3989,7 +4093,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J42" s="22"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="30"/>
       <c r="L42" s="31">
         <f t="shared" si="7"/>
@@ -4036,7 +4140,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J43" s="22"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="30"/>
       <c r="L43" s="31">
         <f t="shared" si="7"/>
@@ -4083,7 +4187,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J44" s="22"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="30"/>
       <c r="L44" s="31">
         <f t="shared" si="7"/>
@@ -4130,7 +4234,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="30"/>
       <c r="L45" s="31">
         <f t="shared" si="7"/>
@@ -4177,7 +4281,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J46" s="22"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="30"/>
       <c r="L46" s="31">
         <f t="shared" si="7"/>
@@ -4222,7 +4326,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J47" s="22"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="30"/>
       <c r="L47" s="31">
         <f t="shared" si="7"/>
@@ -4269,7 +4373,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J48" s="22"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="30"/>
       <c r="L48" s="31">
         <f t="shared" si="7"/>
@@ -4316,7 +4420,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J49" s="22"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="30"/>
       <c r="L49" s="31">
         <f t="shared" si="7"/>
@@ -4363,7 +4467,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J50" s="22"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="30"/>
       <c r="L50" s="31">
         <f t="shared" si="7"/>
@@ -4410,7 +4514,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="30"/>
       <c r="L51" s="31">
         <f t="shared" si="7"/>
@@ -4457,7 +4561,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J52" s="22"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="30"/>
       <c r="L52" s="31">
         <f t="shared" si="7"/>
@@ -4504,7 +4608,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J53" s="22"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="30"/>
       <c r="L53" s="31">
         <f t="shared" si="7"/>
@@ -4551,7 +4655,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J54" s="22"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="30"/>
       <c r="L54" s="31">
         <f t="shared" si="7"/>
@@ -4598,7 +4702,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J55" s="22"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="30"/>
       <c r="L55" s="31">
         <f t="shared" si="7"/>
@@ -4645,7 +4749,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J56" s="22"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="30"/>
       <c r="L56" s="31">
         <f t="shared" si="7"/>
@@ -4692,7 +4796,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J57" s="22"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="30"/>
       <c r="L57" s="31">
         <f t="shared" si="7"/>
@@ -4739,7 +4843,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J58" s="22"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="30"/>
       <c r="L58" s="31">
         <f t="shared" si="7"/>
@@ -4784,7 +4888,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J59" s="22"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="30"/>
       <c r="L59" s="31">
         <f t="shared" si="7"/>
@@ -4824,20 +4928,29 @@
       <c r="G60" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="14">
+        <f>I60/3.281</f>
+        <v>19.597683633038706</v>
+      </c>
       <c r="I60" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="30"/>
+        <v>64.3</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" s="30">
+        <v>23</v>
+      </c>
       <c r="L60" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>75.463000000000008</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="N60" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>200.66616338582676</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>96</v>
@@ -4874,7 +4987,7 @@
         <f t="shared" ref="I61:I92" si="9">H61*3.281</f>
         <v>0</v>
       </c>
-      <c r="J61" s="22"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="30"/>
       <c r="L61" s="31">
         <f t="shared" si="7"/>
@@ -4919,7 +5032,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J62" s="22"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="30"/>
       <c r="L62" s="31">
         <f t="shared" si="7"/>
@@ -4964,7 +5077,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J63" s="22"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="30"/>
       <c r="L63" s="31">
         <f t="shared" si="7"/>
@@ -5009,7 +5122,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J64" s="22"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="30"/>
       <c r="L64" s="31">
         <f t="shared" si="7"/>
@@ -5054,7 +5167,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J65" s="22"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="30"/>
       <c r="L65" s="31">
         <f t="shared" si="7"/>
@@ -5099,7 +5212,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J66" s="22"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="30"/>
       <c r="L66" s="31">
         <f t="shared" si="7"/>
@@ -5144,7 +5257,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J67" s="22"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="30"/>
       <c r="L67" s="31">
         <f t="shared" si="7"/>
@@ -5180,26 +5293,32 @@
         <v>88</v>
       </c>
       <c r="F68" s="27">
-        <f t="shared" ref="F68:F99" si="10">E68/2.54</f>
+        <f t="shared" ref="F68:F96" si="10">E68/2.54</f>
         <v>35.433070866141733</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H68" s="14"/>
+      <c r="H68" s="14">
+        <f>I68/3.281</f>
+        <v>35.35507467235599</v>
+      </c>
       <c r="I68" s="22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="22"/>
-      <c r="K68" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K68" s="30">
+        <v>25.76</v>
+      </c>
       <c r="L68" s="31">
-        <f t="shared" ref="L68:L99" si="11">K68*3.281</f>
-        <v>0</v>
+        <f t="shared" ref="L68:L96" si="11">K68*3.281</f>
+        <v>84.518560000000008</v>
       </c>
       <c r="N68" s="16">
         <f t="shared" ref="N68:N96" si="12">IF(K68=0,0,E68/2.54*3.14159+H68*3.281+K68*3.281/4)</f>
-        <v>0</v>
+        <v>248.4458211023622</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>126</v>
@@ -5236,7 +5355,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J69" s="22"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="30"/>
       <c r="L69" s="31">
         <f t="shared" si="11"/>
@@ -5283,7 +5402,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J70" s="22"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="30"/>
       <c r="L70" s="31">
         <f t="shared" si="11"/>
@@ -5328,7 +5447,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J71" s="22"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="30"/>
       <c r="L71" s="31">
         <f t="shared" si="11"/>
@@ -5373,7 +5492,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J72" s="22"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="30"/>
       <c r="L72" s="31">
         <f t="shared" si="11"/>
@@ -5418,7 +5537,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J73" s="22"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="30"/>
       <c r="L73" s="31">
         <f t="shared" si="11"/>
@@ -5465,7 +5584,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J74" s="22"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="30"/>
       <c r="L74" s="31">
         <f t="shared" si="11"/>
@@ -5510,7 +5629,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J75" s="22"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="30"/>
       <c r="L75" s="31">
         <f t="shared" si="11"/>
@@ -5557,7 +5676,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J76" s="22"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="30"/>
       <c r="L76" s="31">
         <f t="shared" si="11"/>
@@ -5602,7 +5721,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J77" s="22"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="30"/>
       <c r="L77" s="31">
         <f t="shared" si="11"/>
@@ -5649,7 +5768,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J78" s="22"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="30"/>
       <c r="L78" s="31">
         <f t="shared" si="11"/>
@@ -5694,7 +5813,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J79" s="22"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="30"/>
       <c r="L79" s="31">
         <f t="shared" si="11"/>
@@ -5739,7 +5858,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J80" s="22"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="30"/>
       <c r="L80" s="31">
         <f t="shared" si="11"/>
@@ -5786,7 +5905,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J81" s="22"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="30"/>
       <c r="L81" s="31">
         <f t="shared" si="11"/>
@@ -5831,7 +5950,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J82" s="22"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="30"/>
       <c r="L82" s="31">
         <f t="shared" si="11"/>
@@ -5876,7 +5995,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J83" s="22"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="30"/>
       <c r="L83" s="31">
         <f t="shared" si="11"/>
@@ -5921,7 +6040,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J84" s="22"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="30"/>
       <c r="L84" s="31">
         <f t="shared" si="11"/>
@@ -5966,7 +6085,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J85" s="22"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="30"/>
       <c r="L85" s="31">
         <f t="shared" si="11"/>
@@ -6013,7 +6132,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J86" s="22"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="30"/>
       <c r="L86" s="31">
         <f t="shared" si="11"/>
@@ -6058,7 +6177,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J87" s="22"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="30"/>
       <c r="L87" s="31">
         <f t="shared" si="11"/>
@@ -6105,7 +6224,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J88" s="22"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="30"/>
       <c r="L88" s="31">
         <f t="shared" si="11"/>
@@ -6152,7 +6271,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J89" s="22"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="30"/>
       <c r="L89" s="31">
         <f t="shared" si="11"/>
@@ -6199,7 +6318,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J90" s="22"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="30"/>
       <c r="L90" s="31">
         <f t="shared" si="11"/>
@@ -6244,7 +6363,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J91" s="22"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="30"/>
       <c r="L91" s="31">
         <f t="shared" si="11"/>
@@ -6289,7 +6408,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J92" s="22"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="30"/>
       <c r="L92" s="31">
         <f t="shared" si="11"/>
@@ -6331,10 +6450,10 @@
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="22">
-        <f t="shared" ref="I93:I124" si="13">H93*3.281</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="22"/>
+        <f t="shared" ref="I93:I96" si="13">H93*3.281</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="7"/>
       <c r="K93" s="30"/>
       <c r="L93" s="31">
         <f t="shared" si="11"/>
@@ -6379,7 +6498,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J94" s="22"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="30"/>
       <c r="L94" s="31">
         <f t="shared" si="11"/>
@@ -6424,7 +6543,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J95" s="22"/>
+      <c r="J95" s="7"/>
       <c r="K95" s="30"/>
       <c r="L95" s="31">
         <f t="shared" si="11"/>
@@ -6469,7 +6588,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J96" s="22"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="30"/>
       <c r="L96" s="31">
         <f t="shared" si="11"/>
@@ -6499,7 +6618,7 @@
         <f t="shared" ref="I97:I129" si="15">H97*3.281</f>
         <v>0</v>
       </c>
-      <c r="J97" s="22"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="30"/>
       <c r="L97" s="31">
         <f t="shared" ref="L97:L129" si="16">K97*3.281</f>
@@ -6523,7 +6642,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J98" s="22"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="30"/>
       <c r="L98" s="31">
         <f t="shared" si="16"/>
@@ -6547,7 +6666,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J99" s="22"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="30"/>
       <c r="L99" s="31">
         <f t="shared" si="16"/>
@@ -6570,7 +6689,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J100" s="22"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="30"/>
       <c r="L100" s="31">
         <f t="shared" si="16"/>
@@ -6594,7 +6713,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J101" s="22"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="30"/>
       <c r="L101" s="31">
         <f t="shared" si="16"/>
@@ -6616,7 +6735,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J102" s="22"/>
+      <c r="J102" s="7"/>
       <c r="K102" s="30"/>
       <c r="L102" s="31">
         <f t="shared" si="16"/>
@@ -6638,7 +6757,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J103" s="22"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="30"/>
       <c r="L103" s="31">
         <f t="shared" si="16"/>
@@ -6660,7 +6779,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J104" s="22"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="30"/>
       <c r="L104" s="31">
         <f t="shared" si="16"/>
@@ -6682,7 +6801,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J105" s="22"/>
+      <c r="J105" s="7"/>
       <c r="K105" s="30"/>
       <c r="L105" s="31">
         <f t="shared" si="16"/>
@@ -6704,7 +6823,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J106" s="22"/>
+      <c r="J106" s="7"/>
       <c r="K106" s="30"/>
       <c r="L106" s="31">
         <f t="shared" si="16"/>
@@ -6726,7 +6845,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J107" s="22"/>
+      <c r="J107" s="7"/>
       <c r="K107" s="30"/>
       <c r="L107" s="31">
         <f t="shared" si="16"/>
@@ -6748,7 +6867,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J108" s="22"/>
+      <c r="J108" s="7"/>
       <c r="K108" s="30"/>
       <c r="L108" s="31">
         <f t="shared" si="16"/>
@@ -6770,7 +6889,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J109" s="22"/>
+      <c r="J109" s="7"/>
       <c r="K109" s="30"/>
       <c r="L109" s="31">
         <f t="shared" si="16"/>
@@ -6792,7 +6911,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J110" s="22"/>
+      <c r="J110" s="7"/>
       <c r="K110" s="30"/>
       <c r="L110" s="31">
         <f t="shared" si="16"/>
@@ -6814,7 +6933,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J111" s="22"/>
+      <c r="J111" s="7"/>
       <c r="K111" s="30"/>
       <c r="L111" s="31">
         <f t="shared" si="16"/>
@@ -6836,7 +6955,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J112" s="22"/>
+      <c r="J112" s="7"/>
       <c r="K112" s="30"/>
       <c r="L112" s="31">
         <f t="shared" si="16"/>
@@ -6858,7 +6977,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J113" s="22"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="30"/>
       <c r="L113" s="31">
         <f t="shared" si="16"/>
@@ -6880,7 +6999,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J114" s="22"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="30"/>
       <c r="L114" s="31">
         <f t="shared" si="16"/>
@@ -6902,7 +7021,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J115" s="22"/>
+      <c r="J115" s="7"/>
       <c r="K115" s="30"/>
       <c r="L115" s="31">
         <f t="shared" si="16"/>
@@ -6924,7 +7043,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J116" s="22"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="30"/>
       <c r="L116" s="31">
         <f t="shared" si="16"/>
@@ -6946,7 +7065,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J117" s="22"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="30"/>
       <c r="L117" s="31">
         <f t="shared" si="16"/>
@@ -6968,7 +7087,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J118" s="22"/>
+      <c r="J118" s="7"/>
       <c r="K118" s="30"/>
       <c r="L118" s="31">
         <f t="shared" si="16"/>
@@ -6990,7 +7109,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J119" s="22"/>
+      <c r="J119" s="7"/>
       <c r="K119" s="30"/>
       <c r="L119" s="31">
         <f t="shared" si="16"/>
@@ -7012,7 +7131,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J120" s="22"/>
+      <c r="J120" s="7"/>
       <c r="K120" s="30"/>
       <c r="L120" s="31">
         <f t="shared" si="16"/>
@@ -7034,7 +7153,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J121" s="22"/>
+      <c r="J121" s="7"/>
       <c r="K121" s="30"/>
       <c r="L121" s="31">
         <f t="shared" si="16"/>
@@ -7056,7 +7175,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J122" s="22"/>
+      <c r="J122" s="7"/>
       <c r="K122" s="30"/>
       <c r="L122" s="31">
         <f t="shared" si="16"/>
@@ -7078,7 +7197,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J123" s="22"/>
+      <c r="J123" s="7"/>
       <c r="K123" s="30"/>
       <c r="L123" s="31">
         <f t="shared" si="16"/>
@@ -7100,7 +7219,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J124" s="22"/>
+      <c r="J124" s="7"/>
       <c r="K124" s="30"/>
       <c r="L124" s="31">
         <f t="shared" si="16"/>
@@ -7122,7 +7241,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J125" s="22"/>
+      <c r="J125" s="7"/>
       <c r="K125" s="30"/>
       <c r="L125" s="31">
         <f t="shared" si="16"/>
@@ -7144,7 +7263,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J126" s="22"/>
+      <c r="J126" s="7"/>
       <c r="K126" s="30"/>
       <c r="L126" s="31">
         <f t="shared" si="16"/>
@@ -7166,7 +7285,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J127" s="22"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="30"/>
       <c r="L127" s="31">
         <f t="shared" si="16"/>
@@ -7188,7 +7307,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J128" s="22"/>
+      <c r="J128" s="7"/>
       <c r="K128" s="30"/>
       <c r="L128" s="31">
         <f t="shared" si="16"/>
@@ -7210,7 +7329,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J129" s="22"/>
+      <c r="J129" s="7"/>
       <c r="K129" s="30"/>
       <c r="L129" s="31">
         <f t="shared" si="16"/>
@@ -7232,7 +7351,7 @@
         <f t="shared" ref="I130:I193" si="19">H130*3.281</f>
         <v>0</v>
       </c>
-      <c r="J130" s="22"/>
+      <c r="J130" s="7"/>
       <c r="K130" s="30"/>
       <c r="L130" s="31">
         <f t="shared" ref="L130:L193" si="20">K130*3.281</f>
@@ -7254,7 +7373,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J131" s="22"/>
+      <c r="J131" s="7"/>
       <c r="K131" s="30"/>
       <c r="L131" s="31">
         <f t="shared" si="20"/>
@@ -7276,7 +7395,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J132" s="22"/>
+      <c r="J132" s="7"/>
       <c r="K132" s="30"/>
       <c r="L132" s="31">
         <f t="shared" si="20"/>
@@ -7298,7 +7417,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J133" s="22"/>
+      <c r="J133" s="7"/>
       <c r="K133" s="30"/>
       <c r="L133" s="31">
         <f t="shared" si="20"/>
@@ -7320,7 +7439,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J134" s="22"/>
+      <c r="J134" s="7"/>
       <c r="K134" s="30"/>
       <c r="L134" s="31">
         <f t="shared" si="20"/>
@@ -7342,7 +7461,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J135" s="22"/>
+      <c r="J135" s="7"/>
       <c r="K135" s="30"/>
       <c r="L135" s="31">
         <f t="shared" si="20"/>
@@ -7364,7 +7483,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J136" s="22"/>
+      <c r="J136" s="7"/>
       <c r="K136" s="30"/>
       <c r="L136" s="31">
         <f t="shared" si="20"/>
@@ -7386,7 +7505,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J137" s="22"/>
+      <c r="J137" s="7"/>
       <c r="K137" s="30"/>
       <c r="L137" s="31">
         <f t="shared" si="20"/>
@@ -7408,7 +7527,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J138" s="22"/>
+      <c r="J138" s="7"/>
       <c r="K138" s="30"/>
       <c r="L138" s="31">
         <f t="shared" si="20"/>
@@ -7430,7 +7549,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J139" s="22"/>
+      <c r="J139" s="7"/>
       <c r="K139" s="30"/>
       <c r="L139" s="31">
         <f t="shared" si="20"/>
@@ -7452,7 +7571,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J140" s="22"/>
+      <c r="J140" s="7"/>
       <c r="K140" s="30"/>
       <c r="L140" s="31">
         <f t="shared" si="20"/>
@@ -7474,7 +7593,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J141" s="22"/>
+      <c r="J141" s="7"/>
       <c r="K141" s="30"/>
       <c r="L141" s="31">
         <f t="shared" si="20"/>
@@ -7496,7 +7615,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J142" s="22"/>
+      <c r="J142" s="7"/>
       <c r="K142" s="30"/>
       <c r="L142" s="31">
         <f t="shared" si="20"/>
@@ -7518,7 +7637,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J143" s="22"/>
+      <c r="J143" s="7"/>
       <c r="K143" s="30"/>
       <c r="L143" s="31">
         <f t="shared" si="20"/>
@@ -7540,7 +7659,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J144" s="22"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="30"/>
       <c r="L144" s="31">
         <f t="shared" si="20"/>
@@ -7562,7 +7681,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J145" s="22"/>
+      <c r="J145" s="7"/>
       <c r="K145" s="30"/>
       <c r="L145" s="31">
         <f t="shared" si="20"/>
@@ -7584,7 +7703,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J146" s="22"/>
+      <c r="J146" s="7"/>
       <c r="K146" s="30"/>
       <c r="L146" s="31">
         <f t="shared" si="20"/>
@@ -7606,7 +7725,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J147" s="22"/>
+      <c r="J147" s="7"/>
       <c r="K147" s="30"/>
       <c r="L147" s="31">
         <f t="shared" si="20"/>
@@ -7628,7 +7747,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J148" s="22"/>
+      <c r="J148" s="7"/>
       <c r="K148" s="30"/>
       <c r="L148" s="31">
         <f t="shared" si="20"/>
@@ -7650,7 +7769,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J149" s="22"/>
+      <c r="J149" s="7"/>
       <c r="K149" s="30"/>
       <c r="L149" s="31">
         <f t="shared" si="20"/>
@@ -7672,7 +7791,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J150" s="22"/>
+      <c r="J150" s="7"/>
       <c r="K150" s="30"/>
       <c r="L150" s="31">
         <f t="shared" si="20"/>
@@ -7694,7 +7813,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J151" s="22"/>
+      <c r="J151" s="7"/>
       <c r="K151" s="30"/>
       <c r="L151" s="31">
         <f t="shared" si="20"/>
@@ -7716,7 +7835,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J152" s="22"/>
+      <c r="J152" s="7"/>
       <c r="K152" s="30"/>
       <c r="L152" s="31">
         <f t="shared" si="20"/>
@@ -7738,7 +7857,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J153" s="22"/>
+      <c r="J153" s="7"/>
       <c r="K153" s="30"/>
       <c r="L153" s="31">
         <f t="shared" si="20"/>
@@ -7760,7 +7879,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J154" s="22"/>
+      <c r="J154" s="7"/>
       <c r="K154" s="30"/>
       <c r="L154" s="31">
         <f t="shared" si="20"/>
@@ -7782,7 +7901,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J155" s="22"/>
+      <c r="J155" s="7"/>
       <c r="K155" s="30"/>
       <c r="L155" s="31">
         <f t="shared" si="20"/>
@@ -7804,7 +7923,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J156" s="22"/>
+      <c r="J156" s="7"/>
       <c r="K156" s="30"/>
       <c r="L156" s="31">
         <f t="shared" si="20"/>
@@ -7826,7 +7945,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J157" s="22"/>
+      <c r="J157" s="7"/>
       <c r="K157" s="30"/>
       <c r="L157" s="31">
         <f t="shared" si="20"/>
@@ -7848,7 +7967,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J158" s="22"/>
+      <c r="J158" s="7"/>
       <c r="K158" s="30"/>
       <c r="L158" s="31">
         <f t="shared" si="20"/>
@@ -7870,7 +7989,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J159" s="22"/>
+      <c r="J159" s="7"/>
       <c r="K159" s="30"/>
       <c r="L159" s="31">
         <f t="shared" si="20"/>
@@ -7892,7 +8011,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J160" s="22"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="30"/>
       <c r="L160" s="31">
         <f t="shared" si="20"/>
@@ -7914,7 +8033,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J161" s="22"/>
+      <c r="J161" s="7"/>
       <c r="K161" s="30"/>
       <c r="L161" s="31">
         <f t="shared" si="20"/>
@@ -7936,7 +8055,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J162" s="22"/>
+      <c r="J162" s="7"/>
       <c r="K162" s="30"/>
       <c r="L162" s="31">
         <f t="shared" si="20"/>
@@ -7958,7 +8077,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J163" s="22"/>
+      <c r="J163" s="7"/>
       <c r="K163" s="30"/>
       <c r="L163" s="31">
         <f t="shared" si="20"/>
@@ -7980,7 +8099,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J164" s="22"/>
+      <c r="J164" s="7"/>
       <c r="K164" s="30"/>
       <c r="L164" s="31">
         <f t="shared" si="20"/>
@@ -8002,7 +8121,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J165" s="22"/>
+      <c r="J165" s="7"/>
       <c r="K165" s="30"/>
       <c r="L165" s="31">
         <f t="shared" si="20"/>
@@ -8024,7 +8143,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J166" s="22"/>
+      <c r="J166" s="7"/>
       <c r="K166" s="30"/>
       <c r="L166" s="31">
         <f t="shared" si="20"/>
@@ -8046,7 +8165,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J167" s="22"/>
+      <c r="J167" s="7"/>
       <c r="K167" s="30"/>
       <c r="L167" s="31">
         <f t="shared" si="20"/>
@@ -8068,7 +8187,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J168" s="22"/>
+      <c r="J168" s="7"/>
       <c r="K168" s="30"/>
       <c r="L168" s="31">
         <f t="shared" si="20"/>
@@ -8090,7 +8209,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J169" s="22"/>
+      <c r="J169" s="7"/>
       <c r="K169" s="30"/>
       <c r="L169" s="31">
         <f t="shared" si="20"/>
@@ -8112,7 +8231,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J170" s="22"/>
+      <c r="J170" s="7"/>
       <c r="K170" s="30"/>
       <c r="L170" s="31">
         <f t="shared" si="20"/>
@@ -8134,7 +8253,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J171" s="22"/>
+      <c r="J171" s="7"/>
       <c r="K171" s="30"/>
       <c r="L171" s="31">
         <f t="shared" si="20"/>
@@ -8156,7 +8275,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J172" s="22"/>
+      <c r="J172" s="7"/>
       <c r="K172" s="30"/>
       <c r="L172" s="31">
         <f t="shared" si="20"/>
@@ -8178,7 +8297,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J173" s="22"/>
+      <c r="J173" s="7"/>
       <c r="K173" s="30"/>
       <c r="L173" s="31">
         <f t="shared" si="20"/>
@@ -8200,7 +8319,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J174" s="22"/>
+      <c r="J174" s="7"/>
       <c r="K174" s="30"/>
       <c r="L174" s="31">
         <f t="shared" si="20"/>
@@ -8222,7 +8341,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J175" s="22"/>
+      <c r="J175" s="7"/>
       <c r="K175" s="30"/>
       <c r="L175" s="31">
         <f t="shared" si="20"/>
@@ -8244,7 +8363,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J176" s="22"/>
+      <c r="J176" s="7"/>
       <c r="K176" s="30"/>
       <c r="L176" s="31">
         <f t="shared" si="20"/>
@@ -8266,7 +8385,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J177" s="22"/>
+      <c r="J177" s="7"/>
       <c r="K177" s="30"/>
       <c r="L177" s="31">
         <f t="shared" si="20"/>
@@ -8288,7 +8407,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J178" s="22"/>
+      <c r="J178" s="7"/>
       <c r="K178" s="30"/>
       <c r="L178" s="31">
         <f t="shared" si="20"/>
@@ -8310,7 +8429,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J179" s="22"/>
+      <c r="J179" s="7"/>
       <c r="K179" s="30"/>
       <c r="L179" s="31">
         <f t="shared" si="20"/>
@@ -8332,7 +8451,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J180" s="22"/>
+      <c r="J180" s="7"/>
       <c r="K180" s="30"/>
       <c r="L180" s="31">
         <f t="shared" si="20"/>
@@ -8354,7 +8473,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J181" s="22"/>
+      <c r="J181" s="7"/>
       <c r="K181" s="30"/>
       <c r="L181" s="31">
         <f t="shared" si="20"/>
@@ -8376,7 +8495,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J182" s="22"/>
+      <c r="J182" s="7"/>
       <c r="K182" s="30"/>
       <c r="L182" s="31">
         <f t="shared" si="20"/>
@@ -8398,7 +8517,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J183" s="22"/>
+      <c r="J183" s="7"/>
       <c r="K183" s="30"/>
       <c r="L183" s="31">
         <f t="shared" si="20"/>
@@ -8420,7 +8539,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J184" s="22"/>
+      <c r="J184" s="7"/>
       <c r="K184" s="30"/>
       <c r="L184" s="31">
         <f t="shared" si="20"/>
@@ -8442,7 +8561,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J185" s="22"/>
+      <c r="J185" s="7"/>
       <c r="K185" s="30"/>
       <c r="L185" s="31">
         <f t="shared" si="20"/>
@@ -8464,7 +8583,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J186" s="22"/>
+      <c r="J186" s="7"/>
       <c r="K186" s="30"/>
       <c r="L186" s="31">
         <f t="shared" si="20"/>
@@ -8486,7 +8605,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J187" s="22"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="30"/>
       <c r="L187" s="31">
         <f t="shared" si="20"/>
@@ -8508,7 +8627,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J188" s="22"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="30"/>
       <c r="L188" s="31">
         <f t="shared" si="20"/>
@@ -8530,7 +8649,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J189" s="22"/>
+      <c r="J189" s="7"/>
       <c r="K189" s="30"/>
       <c r="L189" s="31">
         <f t="shared" si="20"/>
@@ -8552,7 +8671,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J190" s="22"/>
+      <c r="J190" s="7"/>
       <c r="K190" s="30"/>
       <c r="L190" s="31">
         <f t="shared" si="20"/>
@@ -8574,7 +8693,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J191" s="22"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="30"/>
       <c r="L191" s="31">
         <f t="shared" si="20"/>
@@ -8596,7 +8715,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J192" s="22"/>
+      <c r="J192" s="7"/>
       <c r="K192" s="30"/>
       <c r="L192" s="31">
         <f t="shared" si="20"/>
@@ -8618,7 +8737,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J193" s="22"/>
+      <c r="J193" s="7"/>
       <c r="K193" s="30"/>
       <c r="L193" s="31">
         <f t="shared" si="20"/>
@@ -8640,7 +8759,7 @@
         <f t="shared" ref="I194:I257" si="23">H194*3.281</f>
         <v>0</v>
       </c>
-      <c r="J194" s="22"/>
+      <c r="J194" s="7"/>
       <c r="K194" s="30"/>
       <c r="L194" s="31">
         <f t="shared" ref="L194:L257" si="24">K194*3.281</f>
@@ -8662,7 +8781,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J195" s="22"/>
+      <c r="J195" s="7"/>
       <c r="K195" s="30"/>
       <c r="L195" s="31">
         <f t="shared" si="24"/>
@@ -8684,7 +8803,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J196" s="22"/>
+      <c r="J196" s="7"/>
       <c r="K196" s="30"/>
       <c r="L196" s="31">
         <f t="shared" si="24"/>
@@ -8706,7 +8825,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J197" s="22"/>
+      <c r="J197" s="7"/>
       <c r="K197" s="30"/>
       <c r="L197" s="31">
         <f t="shared" si="24"/>
@@ -8728,7 +8847,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J198" s="22"/>
+      <c r="J198" s="7"/>
       <c r="K198" s="30"/>
       <c r="L198" s="31">
         <f t="shared" si="24"/>
@@ -8750,7 +8869,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J199" s="22"/>
+      <c r="J199" s="7"/>
       <c r="K199" s="30"/>
       <c r="L199" s="31">
         <f t="shared" si="24"/>
@@ -8772,7 +8891,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J200" s="22"/>
+      <c r="J200" s="7"/>
       <c r="K200" s="30"/>
       <c r="L200" s="31">
         <f t="shared" si="24"/>
@@ -8794,7 +8913,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J201" s="22"/>
+      <c r="J201" s="7"/>
       <c r="K201" s="30"/>
       <c r="L201" s="31">
         <f t="shared" si="24"/>
@@ -8816,7 +8935,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J202" s="22"/>
+      <c r="J202" s="7"/>
       <c r="K202" s="30"/>
       <c r="L202" s="31">
         <f t="shared" si="24"/>
@@ -8838,7 +8957,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J203" s="22"/>
+      <c r="J203" s="7"/>
       <c r="K203" s="30"/>
       <c r="L203" s="31">
         <f t="shared" si="24"/>
@@ -8860,7 +8979,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J204" s="22"/>
+      <c r="J204" s="7"/>
       <c r="K204" s="30"/>
       <c r="L204" s="31">
         <f t="shared" si="24"/>
@@ -8882,7 +9001,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J205" s="22"/>
+      <c r="J205" s="7"/>
       <c r="K205" s="30"/>
       <c r="L205" s="31">
         <f t="shared" si="24"/>
@@ -8904,7 +9023,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J206" s="22"/>
+      <c r="J206" s="7"/>
       <c r="K206" s="30"/>
       <c r="L206" s="31">
         <f t="shared" si="24"/>
@@ -8926,7 +9045,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J207" s="22"/>
+      <c r="J207" s="7"/>
       <c r="K207" s="30"/>
       <c r="L207" s="31">
         <f t="shared" si="24"/>
@@ -8948,7 +9067,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J208" s="22"/>
+      <c r="J208" s="7"/>
       <c r="K208" s="30"/>
       <c r="L208" s="31">
         <f t="shared" si="24"/>
@@ -8970,7 +9089,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J209" s="22"/>
+      <c r="J209" s="7"/>
       <c r="K209" s="30"/>
       <c r="L209" s="31">
         <f t="shared" si="24"/>
@@ -8992,7 +9111,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J210" s="22"/>
+      <c r="J210" s="7"/>
       <c r="K210" s="30"/>
       <c r="L210" s="31">
         <f t="shared" si="24"/>
@@ -9014,7 +9133,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J211" s="22"/>
+      <c r="J211" s="7"/>
       <c r="K211" s="30"/>
       <c r="L211" s="31">
         <f t="shared" si="24"/>
@@ -9036,7 +9155,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J212" s="22"/>
+      <c r="J212" s="7"/>
       <c r="K212" s="30"/>
       <c r="L212" s="31">
         <f t="shared" si="24"/>
@@ -9058,7 +9177,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J213" s="22"/>
+      <c r="J213" s="7"/>
       <c r="K213" s="30"/>
       <c r="L213" s="31">
         <f t="shared" si="24"/>
@@ -9080,7 +9199,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J214" s="22"/>
+      <c r="J214" s="7"/>
       <c r="K214" s="30"/>
       <c r="L214" s="31">
         <f t="shared" si="24"/>
@@ -9102,7 +9221,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J215" s="22"/>
+      <c r="J215" s="7"/>
       <c r="K215" s="30"/>
       <c r="L215" s="31">
         <f t="shared" si="24"/>
@@ -9124,7 +9243,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J216" s="22"/>
+      <c r="J216" s="7"/>
       <c r="K216" s="30"/>
       <c r="L216" s="31">
         <f t="shared" si="24"/>
@@ -9146,7 +9265,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J217" s="22"/>
+      <c r="J217" s="7"/>
       <c r="K217" s="30"/>
       <c r="L217" s="31">
         <f t="shared" si="24"/>
@@ -9168,7 +9287,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J218" s="22"/>
+      <c r="J218" s="7"/>
       <c r="K218" s="30"/>
       <c r="L218" s="31">
         <f t="shared" si="24"/>
@@ -9190,7 +9309,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J219" s="22"/>
+      <c r="J219" s="7"/>
       <c r="K219" s="30"/>
       <c r="L219" s="31">
         <f t="shared" si="24"/>
@@ -9212,7 +9331,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J220" s="22"/>
+      <c r="J220" s="7"/>
       <c r="K220" s="30"/>
       <c r="L220" s="31">
         <f t="shared" si="24"/>
@@ -9234,7 +9353,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J221" s="22"/>
+      <c r="J221" s="7"/>
       <c r="K221" s="30"/>
       <c r="L221" s="31">
         <f t="shared" si="24"/>
@@ -9256,7 +9375,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J222" s="22"/>
+      <c r="J222" s="7"/>
       <c r="K222" s="30"/>
       <c r="L222" s="31">
         <f t="shared" si="24"/>
@@ -9278,7 +9397,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J223" s="22"/>
+      <c r="J223" s="7"/>
       <c r="K223" s="30"/>
       <c r="L223" s="31">
         <f t="shared" si="24"/>
@@ -9300,7 +9419,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J224" s="22"/>
+      <c r="J224" s="7"/>
       <c r="K224" s="30"/>
       <c r="L224" s="31">
         <f t="shared" si="24"/>
@@ -9322,7 +9441,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J225" s="22"/>
+      <c r="J225" s="7"/>
       <c r="K225" s="30"/>
       <c r="L225" s="31">
         <f t="shared" si="24"/>
@@ -9344,7 +9463,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J226" s="22"/>
+      <c r="J226" s="7"/>
       <c r="K226" s="30"/>
       <c r="L226" s="31">
         <f t="shared" si="24"/>
@@ -9366,7 +9485,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J227" s="22"/>
+      <c r="J227" s="7"/>
       <c r="K227" s="30"/>
       <c r="L227" s="31">
         <f t="shared" si="24"/>
@@ -9388,7 +9507,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J228" s="22"/>
+      <c r="J228" s="7"/>
       <c r="K228" s="30"/>
       <c r="L228" s="31">
         <f t="shared" si="24"/>
@@ -9410,7 +9529,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J229" s="22"/>
+      <c r="J229" s="7"/>
       <c r="K229" s="30"/>
       <c r="L229" s="31">
         <f t="shared" si="24"/>
@@ -9432,7 +9551,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J230" s="22"/>
+      <c r="J230" s="7"/>
       <c r="K230" s="30"/>
       <c r="L230" s="31">
         <f t="shared" si="24"/>
@@ -9454,7 +9573,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J231" s="22"/>
+      <c r="J231" s="7"/>
       <c r="K231" s="30"/>
       <c r="L231" s="31">
         <f t="shared" si="24"/>
@@ -9476,7 +9595,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J232" s="22"/>
+      <c r="J232" s="7"/>
       <c r="K232" s="30"/>
       <c r="L232" s="31">
         <f t="shared" si="24"/>
@@ -9498,7 +9617,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J233" s="22"/>
+      <c r="J233" s="7"/>
       <c r="K233" s="30"/>
       <c r="L233" s="31">
         <f t="shared" si="24"/>
@@ -9520,7 +9639,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J234" s="22"/>
+      <c r="J234" s="7"/>
       <c r="K234" s="30"/>
       <c r="L234" s="31">
         <f t="shared" si="24"/>
@@ -9542,7 +9661,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J235" s="22"/>
+      <c r="J235" s="7"/>
       <c r="K235" s="30"/>
       <c r="L235" s="31">
         <f t="shared" si="24"/>
@@ -9564,7 +9683,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J236" s="22"/>
+      <c r="J236" s="7"/>
       <c r="K236" s="30"/>
       <c r="L236" s="31">
         <f t="shared" si="24"/>
@@ -9586,7 +9705,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J237" s="22"/>
+      <c r="J237" s="7"/>
       <c r="K237" s="30"/>
       <c r="L237" s="31">
         <f t="shared" si="24"/>
@@ -9608,7 +9727,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J238" s="22"/>
+      <c r="J238" s="7"/>
       <c r="K238" s="30"/>
       <c r="L238" s="31">
         <f t="shared" si="24"/>
@@ -9630,7 +9749,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J239" s="22"/>
+      <c r="J239" s="7"/>
       <c r="K239" s="30"/>
       <c r="L239" s="31">
         <f t="shared" si="24"/>
@@ -9652,7 +9771,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J240" s="22"/>
+      <c r="J240" s="7"/>
       <c r="K240" s="30"/>
       <c r="L240" s="31">
         <f t="shared" si="24"/>
@@ -9674,7 +9793,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J241" s="22"/>
+      <c r="J241" s="7"/>
       <c r="K241" s="30"/>
       <c r="L241" s="31">
         <f t="shared" si="24"/>
@@ -9696,7 +9815,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J242" s="22"/>
+      <c r="J242" s="7"/>
       <c r="K242" s="30"/>
       <c r="L242" s="31">
         <f t="shared" si="24"/>
@@ -9718,7 +9837,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J243" s="22"/>
+      <c r="J243" s="7"/>
       <c r="K243" s="30"/>
       <c r="L243" s="31">
         <f t="shared" si="24"/>
@@ -9740,7 +9859,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J244" s="22"/>
+      <c r="J244" s="7"/>
       <c r="K244" s="30"/>
       <c r="L244" s="31">
         <f t="shared" si="24"/>
@@ -9762,7 +9881,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J245" s="22"/>
+      <c r="J245" s="7"/>
       <c r="K245" s="30"/>
       <c r="L245" s="31">
         <f t="shared" si="24"/>
@@ -9784,7 +9903,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J246" s="22"/>
+      <c r="J246" s="7"/>
       <c r="K246" s="30"/>
       <c r="L246" s="31">
         <f t="shared" si="24"/>
@@ -9806,7 +9925,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J247" s="22"/>
+      <c r="J247" s="7"/>
       <c r="K247" s="30"/>
       <c r="L247" s="31">
         <f t="shared" si="24"/>
@@ -9828,7 +9947,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J248" s="22"/>
+      <c r="J248" s="7"/>
       <c r="K248" s="30"/>
       <c r="L248" s="31">
         <f t="shared" si="24"/>
@@ -9850,7 +9969,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J249" s="22"/>
+      <c r="J249" s="7"/>
       <c r="K249" s="30"/>
       <c r="L249" s="31">
         <f t="shared" si="24"/>
@@ -9872,7 +9991,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J250" s="22"/>
+      <c r="J250" s="7"/>
       <c r="K250" s="30"/>
       <c r="L250" s="31">
         <f t="shared" si="24"/>
@@ -9894,7 +10013,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J251" s="22"/>
+      <c r="J251" s="7"/>
       <c r="K251" s="30"/>
       <c r="L251" s="31">
         <f t="shared" si="24"/>
@@ -9916,7 +10035,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J252" s="22"/>
+      <c r="J252" s="7"/>
       <c r="K252" s="30"/>
       <c r="L252" s="31">
         <f t="shared" si="24"/>
@@ -9938,7 +10057,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J253" s="22"/>
+      <c r="J253" s="7"/>
       <c r="K253" s="30"/>
       <c r="L253" s="31">
         <f t="shared" si="24"/>
@@ -9960,7 +10079,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J254" s="22"/>
+      <c r="J254" s="7"/>
       <c r="K254" s="30"/>
       <c r="L254" s="31">
         <f t="shared" si="24"/>
@@ -9982,7 +10101,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J255" s="22"/>
+      <c r="J255" s="7"/>
       <c r="K255" s="30"/>
       <c r="L255" s="31">
         <f t="shared" si="24"/>
@@ -10004,7 +10123,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J256" s="22"/>
+      <c r="J256" s="7"/>
       <c r="K256" s="30"/>
       <c r="L256" s="31">
         <f t="shared" si="24"/>
@@ -10026,7 +10145,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J257" s="22"/>
+      <c r="J257" s="7"/>
       <c r="K257" s="30"/>
       <c r="L257" s="31">
         <f t="shared" si="24"/>
@@ -10048,7 +10167,7 @@
         <f t="shared" ref="I258:I321" si="27">H258*3.281</f>
         <v>0</v>
       </c>
-      <c r="J258" s="22"/>
+      <c r="J258" s="7"/>
       <c r="K258" s="30"/>
       <c r="L258" s="31">
         <f t="shared" ref="L258:L321" si="28">K258*3.281</f>
@@ -10070,7 +10189,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J259" s="22"/>
+      <c r="J259" s="7"/>
       <c r="K259" s="30"/>
       <c r="L259" s="31">
         <f t="shared" si="28"/>
@@ -10092,7 +10211,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J260" s="22"/>
+      <c r="J260" s="7"/>
       <c r="K260" s="30"/>
       <c r="L260" s="31">
         <f t="shared" si="28"/>
@@ -10114,7 +10233,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J261" s="22"/>
+      <c r="J261" s="7"/>
       <c r="K261" s="30"/>
       <c r="L261" s="31">
         <f t="shared" si="28"/>
@@ -10136,7 +10255,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J262" s="22"/>
+      <c r="J262" s="7"/>
       <c r="K262" s="30"/>
       <c r="L262" s="31">
         <f t="shared" si="28"/>
@@ -10158,7 +10277,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J263" s="22"/>
+      <c r="J263" s="7"/>
       <c r="K263" s="30"/>
       <c r="L263" s="31">
         <f t="shared" si="28"/>
@@ -10180,7 +10299,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J264" s="22"/>
+      <c r="J264" s="7"/>
       <c r="K264" s="30"/>
       <c r="L264" s="31">
         <f t="shared" si="28"/>
@@ -10202,7 +10321,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J265" s="22"/>
+      <c r="J265" s="7"/>
       <c r="K265" s="30"/>
       <c r="L265" s="31">
         <f t="shared" si="28"/>
@@ -10224,7 +10343,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J266" s="22"/>
+      <c r="J266" s="7"/>
       <c r="K266" s="30"/>
       <c r="L266" s="31">
         <f t="shared" si="28"/>
@@ -10246,7 +10365,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J267" s="22"/>
+      <c r="J267" s="7"/>
       <c r="K267" s="30"/>
       <c r="L267" s="31">
         <f t="shared" si="28"/>
@@ -10268,7 +10387,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J268" s="22"/>
+      <c r="J268" s="7"/>
       <c r="K268" s="30"/>
       <c r="L268" s="31">
         <f t="shared" si="28"/>
@@ -10290,7 +10409,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J269" s="22"/>
+      <c r="J269" s="7"/>
       <c r="K269" s="30"/>
       <c r="L269" s="31">
         <f t="shared" si="28"/>
@@ -10312,7 +10431,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J270" s="22"/>
+      <c r="J270" s="7"/>
       <c r="K270" s="30"/>
       <c r="L270" s="31">
         <f t="shared" si="28"/>
@@ -10334,7 +10453,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J271" s="22"/>
+      <c r="J271" s="7"/>
       <c r="K271" s="30"/>
       <c r="L271" s="31">
         <f t="shared" si="28"/>
@@ -10356,7 +10475,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J272" s="22"/>
+      <c r="J272" s="7"/>
       <c r="K272" s="30"/>
       <c r="L272" s="31">
         <f t="shared" si="28"/>
@@ -10378,7 +10497,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J273" s="22"/>
+      <c r="J273" s="7"/>
       <c r="K273" s="30"/>
       <c r="L273" s="31">
         <f t="shared" si="28"/>
@@ -10400,7 +10519,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J274" s="22"/>
+      <c r="J274" s="7"/>
       <c r="K274" s="30"/>
       <c r="L274" s="31">
         <f t="shared" si="28"/>
@@ -10422,7 +10541,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J275" s="22"/>
+      <c r="J275" s="7"/>
       <c r="K275" s="30"/>
       <c r="L275" s="31">
         <f t="shared" si="28"/>
@@ -10444,7 +10563,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J276" s="22"/>
+      <c r="J276" s="7"/>
       <c r="K276" s="30"/>
       <c r="L276" s="31">
         <f t="shared" si="28"/>
@@ -10466,7 +10585,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J277" s="22"/>
+      <c r="J277" s="7"/>
       <c r="K277" s="30"/>
       <c r="L277" s="31">
         <f t="shared" si="28"/>
@@ -10488,7 +10607,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J278" s="22"/>
+      <c r="J278" s="7"/>
       <c r="K278" s="30"/>
       <c r="L278" s="31">
         <f t="shared" si="28"/>
@@ -10510,7 +10629,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J279" s="22"/>
+      <c r="J279" s="7"/>
       <c r="K279" s="30"/>
       <c r="L279" s="31">
         <f t="shared" si="28"/>
@@ -10532,7 +10651,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J280" s="22"/>
+      <c r="J280" s="7"/>
       <c r="K280" s="30"/>
       <c r="L280" s="31">
         <f t="shared" si="28"/>
@@ -10554,7 +10673,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J281" s="22"/>
+      <c r="J281" s="7"/>
       <c r="K281" s="30"/>
       <c r="L281" s="31">
         <f t="shared" si="28"/>
@@ -10576,7 +10695,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J282" s="22"/>
+      <c r="J282" s="7"/>
       <c r="K282" s="30"/>
       <c r="L282" s="31">
         <f t="shared" si="28"/>
@@ -10598,7 +10717,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J283" s="22"/>
+      <c r="J283" s="7"/>
       <c r="K283" s="30"/>
       <c r="L283" s="31">
         <f t="shared" si="28"/>
@@ -10620,7 +10739,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J284" s="22"/>
+      <c r="J284" s="7"/>
       <c r="K284" s="30"/>
       <c r="L284" s="31">
         <f t="shared" si="28"/>
@@ -10642,7 +10761,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J285" s="22"/>
+      <c r="J285" s="7"/>
       <c r="K285" s="30"/>
       <c r="L285" s="31">
         <f t="shared" si="28"/>
@@ -10664,7 +10783,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J286" s="22"/>
+      <c r="J286" s="7"/>
       <c r="K286" s="30"/>
       <c r="L286" s="31">
         <f t="shared" si="28"/>
@@ -10686,7 +10805,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J287" s="22"/>
+      <c r="J287" s="7"/>
       <c r="K287" s="30"/>
       <c r="L287" s="31">
         <f t="shared" si="28"/>
@@ -10708,7 +10827,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J288" s="22"/>
+      <c r="J288" s="7"/>
       <c r="K288" s="30"/>
       <c r="L288" s="31">
         <f t="shared" si="28"/>
@@ -10730,7 +10849,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J289" s="22"/>
+      <c r="J289" s="7"/>
       <c r="K289" s="30"/>
       <c r="L289" s="31">
         <f t="shared" si="28"/>
@@ -10752,7 +10871,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J290" s="22"/>
+      <c r="J290" s="7"/>
       <c r="K290" s="30"/>
       <c r="L290" s="31">
         <f t="shared" si="28"/>
@@ -10774,7 +10893,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J291" s="22"/>
+      <c r="J291" s="7"/>
       <c r="K291" s="30"/>
       <c r="L291" s="31">
         <f t="shared" si="28"/>
@@ -10796,7 +10915,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J292" s="22"/>
+      <c r="J292" s="7"/>
       <c r="K292" s="30"/>
       <c r="L292" s="31">
         <f t="shared" si="28"/>
@@ -10818,7 +10937,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J293" s="22"/>
+      <c r="J293" s="7"/>
       <c r="K293" s="30"/>
       <c r="L293" s="31">
         <f t="shared" si="28"/>
@@ -10840,7 +10959,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J294" s="22"/>
+      <c r="J294" s="7"/>
       <c r="K294" s="30"/>
       <c r="L294" s="31">
         <f t="shared" si="28"/>
@@ -10862,7 +10981,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J295" s="22"/>
+      <c r="J295" s="7"/>
       <c r="K295" s="30"/>
       <c r="L295" s="31">
         <f t="shared" si="28"/>
@@ -10884,7 +11003,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J296" s="22"/>
+      <c r="J296" s="7"/>
       <c r="K296" s="30"/>
       <c r="L296" s="31">
         <f t="shared" si="28"/>
@@ -10906,7 +11025,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J297" s="22"/>
+      <c r="J297" s="7"/>
       <c r="K297" s="30"/>
       <c r="L297" s="31">
         <f t="shared" si="28"/>
@@ -10928,7 +11047,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J298" s="22"/>
+      <c r="J298" s="7"/>
       <c r="K298" s="30"/>
       <c r="L298" s="31">
         <f t="shared" si="28"/>
@@ -10950,7 +11069,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J299" s="22"/>
+      <c r="J299" s="7"/>
       <c r="K299" s="30"/>
       <c r="L299" s="31">
         <f t="shared" si="28"/>
@@ -10972,7 +11091,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J300" s="22"/>
+      <c r="J300" s="7"/>
       <c r="K300" s="30"/>
       <c r="L300" s="31">
         <f t="shared" si="28"/>
@@ -10994,7 +11113,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J301" s="22"/>
+      <c r="J301" s="7"/>
       <c r="K301" s="30"/>
       <c r="L301" s="31">
         <f t="shared" si="28"/>
@@ -11016,7 +11135,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J302" s="22"/>
+      <c r="J302" s="7"/>
       <c r="K302" s="30"/>
       <c r="L302" s="31">
         <f t="shared" si="28"/>
@@ -11038,7 +11157,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J303" s="22"/>
+      <c r="J303" s="7"/>
       <c r="K303" s="30"/>
       <c r="L303" s="31">
         <f t="shared" si="28"/>
@@ -11060,7 +11179,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J304" s="22"/>
+      <c r="J304" s="7"/>
       <c r="K304" s="30"/>
       <c r="L304" s="31">
         <f t="shared" si="28"/>
@@ -11082,7 +11201,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J305" s="22"/>
+      <c r="J305" s="7"/>
       <c r="K305" s="30"/>
       <c r="L305" s="31">
         <f t="shared" si="28"/>
@@ -11104,7 +11223,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J306" s="22"/>
+      <c r="J306" s="7"/>
       <c r="K306" s="30"/>
       <c r="L306" s="31">
         <f t="shared" si="28"/>
@@ -11126,7 +11245,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J307" s="22"/>
+      <c r="J307" s="7"/>
       <c r="K307" s="30"/>
       <c r="L307" s="31">
         <f t="shared" si="28"/>
@@ -11148,7 +11267,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J308" s="22"/>
+      <c r="J308" s="7"/>
       <c r="K308" s="30"/>
       <c r="L308" s="31">
         <f t="shared" si="28"/>
@@ -11170,7 +11289,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J309" s="22"/>
+      <c r="J309" s="7"/>
       <c r="K309" s="30"/>
       <c r="L309" s="31">
         <f t="shared" si="28"/>
@@ -11192,7 +11311,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J310" s="22"/>
+      <c r="J310" s="7"/>
       <c r="K310" s="30"/>
       <c r="L310" s="31">
         <f t="shared" si="28"/>
@@ -11214,7 +11333,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J311" s="22"/>
+      <c r="J311" s="7"/>
       <c r="K311" s="30"/>
       <c r="L311" s="31">
         <f t="shared" si="28"/>
@@ -11236,7 +11355,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J312" s="22"/>
+      <c r="J312" s="7"/>
       <c r="K312" s="30"/>
       <c r="L312" s="31">
         <f t="shared" si="28"/>
@@ -11258,7 +11377,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J313" s="22"/>
+      <c r="J313" s="7"/>
       <c r="K313" s="30"/>
       <c r="L313" s="31">
         <f t="shared" si="28"/>
@@ -11280,7 +11399,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J314" s="22"/>
+      <c r="J314" s="7"/>
       <c r="K314" s="30"/>
       <c r="L314" s="31">
         <f t="shared" si="28"/>
@@ -11302,7 +11421,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J315" s="22"/>
+      <c r="J315" s="7"/>
       <c r="K315" s="30"/>
       <c r="L315" s="31">
         <f t="shared" si="28"/>
@@ -11324,7 +11443,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J316" s="22"/>
+      <c r="J316" s="7"/>
       <c r="K316" s="30"/>
       <c r="L316" s="31">
         <f t="shared" si="28"/>
@@ -11346,7 +11465,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J317" s="22"/>
+      <c r="J317" s="7"/>
       <c r="K317" s="30"/>
       <c r="L317" s="31">
         <f t="shared" si="28"/>
@@ -11368,7 +11487,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J318" s="22"/>
+      <c r="J318" s="7"/>
       <c r="K318" s="30"/>
       <c r="L318" s="31">
         <f t="shared" si="28"/>
@@ -11390,7 +11509,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J319" s="22"/>
+      <c r="J319" s="7"/>
       <c r="K319" s="30"/>
       <c r="L319" s="31">
         <f t="shared" si="28"/>
@@ -11412,7 +11531,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J320" s="22"/>
+      <c r="J320" s="7"/>
       <c r="K320" s="30"/>
       <c r="L320" s="31">
         <f t="shared" si="28"/>
@@ -11434,7 +11553,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J321" s="22"/>
+      <c r="J321" s="7"/>
       <c r="K321" s="30"/>
       <c r="L321" s="31">
         <f t="shared" si="28"/>
@@ -11456,7 +11575,7 @@
         <f t="shared" ref="I322:I385" si="31">H322*3.281</f>
         <v>0</v>
       </c>
-      <c r="J322" s="22"/>
+      <c r="J322" s="7"/>
       <c r="K322" s="30"/>
       <c r="L322" s="31">
         <f t="shared" ref="L322:L385" si="32">K322*3.281</f>
@@ -11478,7 +11597,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J323" s="22"/>
+      <c r="J323" s="7"/>
       <c r="K323" s="30"/>
       <c r="L323" s="31">
         <f t="shared" si="32"/>
@@ -11500,7 +11619,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J324" s="22"/>
+      <c r="J324" s="7"/>
       <c r="K324" s="30"/>
       <c r="L324" s="31">
         <f t="shared" si="32"/>
@@ -11522,7 +11641,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J325" s="22"/>
+      <c r="J325" s="7"/>
       <c r="K325" s="30"/>
       <c r="L325" s="31">
         <f t="shared" si="32"/>
@@ -11544,7 +11663,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J326" s="22"/>
+      <c r="J326" s="7"/>
       <c r="K326" s="30"/>
       <c r="L326" s="31">
         <f t="shared" si="32"/>
@@ -11566,7 +11685,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J327" s="22"/>
+      <c r="J327" s="7"/>
       <c r="K327" s="30"/>
       <c r="L327" s="31">
         <f t="shared" si="32"/>
@@ -11588,7 +11707,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J328" s="22"/>
+      <c r="J328" s="7"/>
       <c r="K328" s="30"/>
       <c r="L328" s="31">
         <f t="shared" si="32"/>
@@ -11610,7 +11729,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J329" s="22"/>
+      <c r="J329" s="7"/>
       <c r="K329" s="30"/>
       <c r="L329" s="31">
         <f t="shared" si="32"/>
@@ -11632,7 +11751,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J330" s="22"/>
+      <c r="J330" s="7"/>
       <c r="K330" s="30"/>
       <c r="L330" s="31">
         <f t="shared" si="32"/>
@@ -11654,7 +11773,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J331" s="22"/>
+      <c r="J331" s="7"/>
       <c r="K331" s="30"/>
       <c r="L331" s="31">
         <f t="shared" si="32"/>
@@ -11676,7 +11795,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J332" s="22"/>
+      <c r="J332" s="7"/>
       <c r="K332" s="30"/>
       <c r="L332" s="31">
         <f t="shared" si="32"/>
@@ -11698,7 +11817,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J333" s="22"/>
+      <c r="J333" s="7"/>
       <c r="K333" s="30"/>
       <c r="L333" s="31">
         <f t="shared" si="32"/>
@@ -11720,7 +11839,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J334" s="22"/>
+      <c r="J334" s="7"/>
       <c r="K334" s="30"/>
       <c r="L334" s="31">
         <f t="shared" si="32"/>
@@ -11742,7 +11861,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J335" s="22"/>
+      <c r="J335" s="7"/>
       <c r="K335" s="30"/>
       <c r="L335" s="31">
         <f t="shared" si="32"/>
@@ -11764,7 +11883,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J336" s="22"/>
+      <c r="J336" s="7"/>
       <c r="K336" s="30"/>
       <c r="L336" s="31">
         <f t="shared" si="32"/>
@@ -11786,7 +11905,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J337" s="22"/>
+      <c r="J337" s="7"/>
       <c r="K337" s="30"/>
       <c r="L337" s="31">
         <f t="shared" si="32"/>
@@ -11808,7 +11927,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J338" s="22"/>
+      <c r="J338" s="7"/>
       <c r="K338" s="30"/>
       <c r="L338" s="31">
         <f t="shared" si="32"/>
@@ -11830,7 +11949,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J339" s="22"/>
+      <c r="J339" s="7"/>
       <c r="K339" s="30"/>
       <c r="L339" s="31">
         <f t="shared" si="32"/>
@@ -11852,7 +11971,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J340" s="22"/>
+      <c r="J340" s="7"/>
       <c r="K340" s="30"/>
       <c r="L340" s="31">
         <f t="shared" si="32"/>
@@ -11874,7 +11993,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J341" s="22"/>
+      <c r="J341" s="7"/>
       <c r="K341" s="30"/>
       <c r="L341" s="31">
         <f t="shared" si="32"/>
@@ -11896,7 +12015,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J342" s="22"/>
+      <c r="J342" s="7"/>
       <c r="K342" s="30"/>
       <c r="L342" s="31">
         <f t="shared" si="32"/>
@@ -11918,7 +12037,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J343" s="22"/>
+      <c r="J343" s="7"/>
       <c r="K343" s="30"/>
       <c r="L343" s="31">
         <f t="shared" si="32"/>
@@ -11940,7 +12059,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J344" s="22"/>
+      <c r="J344" s="7"/>
       <c r="K344" s="30"/>
       <c r="L344" s="31">
         <f t="shared" si="32"/>
@@ -11962,7 +12081,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J345" s="22"/>
+      <c r="J345" s="7"/>
       <c r="K345" s="30"/>
       <c r="L345" s="31">
         <f t="shared" si="32"/>
@@ -11984,7 +12103,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J346" s="22"/>
+      <c r="J346" s="7"/>
       <c r="K346" s="30"/>
       <c r="L346" s="31">
         <f t="shared" si="32"/>
@@ -12006,7 +12125,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J347" s="22"/>
+      <c r="J347" s="7"/>
       <c r="K347" s="30"/>
       <c r="L347" s="31">
         <f t="shared" si="32"/>
@@ -12028,7 +12147,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J348" s="22"/>
+      <c r="J348" s="7"/>
       <c r="K348" s="30"/>
       <c r="L348" s="31">
         <f t="shared" si="32"/>
@@ -12050,7 +12169,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J349" s="22"/>
+      <c r="J349" s="7"/>
       <c r="K349" s="30"/>
       <c r="L349" s="31">
         <f t="shared" si="32"/>
@@ -12072,7 +12191,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J350" s="22"/>
+      <c r="J350" s="7"/>
       <c r="K350" s="30"/>
       <c r="L350" s="31">
         <f t="shared" si="32"/>
@@ -12094,7 +12213,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J351" s="22"/>
+      <c r="J351" s="7"/>
       <c r="K351" s="30"/>
       <c r="L351" s="31">
         <f t="shared" si="32"/>
@@ -12116,7 +12235,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J352" s="22"/>
+      <c r="J352" s="7"/>
       <c r="K352" s="30"/>
       <c r="L352" s="31">
         <f t="shared" si="32"/>
@@ -12138,7 +12257,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J353" s="22"/>
+      <c r="J353" s="7"/>
       <c r="K353" s="30"/>
       <c r="L353" s="31">
         <f t="shared" si="32"/>
@@ -12160,7 +12279,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J354" s="22"/>
+      <c r="J354" s="7"/>
       <c r="K354" s="30"/>
       <c r="L354" s="31">
         <f t="shared" si="32"/>
@@ -12182,7 +12301,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J355" s="22"/>
+      <c r="J355" s="7"/>
       <c r="K355" s="30"/>
       <c r="L355" s="31">
         <f t="shared" si="32"/>
@@ -12204,7 +12323,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J356" s="22"/>
+      <c r="J356" s="7"/>
       <c r="K356" s="30"/>
       <c r="L356" s="31">
         <f t="shared" si="32"/>
@@ -12226,7 +12345,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J357" s="22"/>
+      <c r="J357" s="7"/>
       <c r="K357" s="30"/>
       <c r="L357" s="31">
         <f t="shared" si="32"/>
@@ -12248,7 +12367,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J358" s="22"/>
+      <c r="J358" s="7"/>
       <c r="K358" s="30"/>
       <c r="L358" s="31">
         <f t="shared" si="32"/>
@@ -12270,7 +12389,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J359" s="22"/>
+      <c r="J359" s="7"/>
       <c r="K359" s="30"/>
       <c r="L359" s="31">
         <f t="shared" si="32"/>
@@ -12292,7 +12411,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J360" s="22"/>
+      <c r="J360" s="7"/>
       <c r="K360" s="30"/>
       <c r="L360" s="31">
         <f t="shared" si="32"/>
@@ -12314,7 +12433,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J361" s="22"/>
+      <c r="J361" s="7"/>
       <c r="K361" s="30"/>
       <c r="L361" s="31">
         <f t="shared" si="32"/>
@@ -12336,7 +12455,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J362" s="22"/>
+      <c r="J362" s="7"/>
       <c r="K362" s="30"/>
       <c r="L362" s="31">
         <f t="shared" si="32"/>
@@ -12358,7 +12477,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J363" s="22"/>
+      <c r="J363" s="7"/>
       <c r="K363" s="30"/>
       <c r="L363" s="31">
         <f t="shared" si="32"/>
@@ -12380,7 +12499,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J364" s="22"/>
+      <c r="J364" s="7"/>
       <c r="K364" s="30"/>
       <c r="L364" s="31">
         <f t="shared" si="32"/>
@@ -12402,7 +12521,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J365" s="22"/>
+      <c r="J365" s="7"/>
       <c r="K365" s="30"/>
       <c r="L365" s="31">
         <f t="shared" si="32"/>
@@ -12424,7 +12543,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J366" s="22"/>
+      <c r="J366" s="7"/>
       <c r="K366" s="30"/>
       <c r="L366" s="31">
         <f t="shared" si="32"/>
@@ -12446,7 +12565,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J367" s="22"/>
+      <c r="J367" s="7"/>
       <c r="K367" s="30"/>
       <c r="L367" s="31">
         <f t="shared" si="32"/>
@@ -12468,7 +12587,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J368" s="22"/>
+      <c r="J368" s="7"/>
       <c r="K368" s="30"/>
       <c r="L368" s="31">
         <f t="shared" si="32"/>
@@ -12490,7 +12609,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J369" s="22"/>
+      <c r="J369" s="7"/>
       <c r="K369" s="30"/>
       <c r="L369" s="31">
         <f t="shared" si="32"/>
@@ -12512,7 +12631,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J370" s="22"/>
+      <c r="J370" s="7"/>
       <c r="K370" s="30"/>
       <c r="L370" s="31">
         <f t="shared" si="32"/>
@@ -12534,7 +12653,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J371" s="22"/>
+      <c r="J371" s="7"/>
       <c r="K371" s="30"/>
       <c r="L371" s="31">
         <f t="shared" si="32"/>
@@ -12556,7 +12675,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J372" s="22"/>
+      <c r="J372" s="7"/>
       <c r="K372" s="30"/>
       <c r="L372" s="31">
         <f t="shared" si="32"/>
@@ -12578,7 +12697,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J373" s="22"/>
+      <c r="J373" s="7"/>
       <c r="K373" s="30"/>
       <c r="L373" s="31">
         <f t="shared" si="32"/>
@@ -12600,7 +12719,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J374" s="22"/>
+      <c r="J374" s="7"/>
       <c r="K374" s="30"/>
       <c r="L374" s="31">
         <f t="shared" si="32"/>
@@ -12622,7 +12741,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J375" s="22"/>
+      <c r="J375" s="7"/>
       <c r="K375" s="30"/>
       <c r="L375" s="31">
         <f t="shared" si="32"/>
@@ -12644,7 +12763,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J376" s="22"/>
+      <c r="J376" s="7"/>
       <c r="K376" s="30"/>
       <c r="L376" s="31">
         <f t="shared" si="32"/>
@@ -12666,7 +12785,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J377" s="22"/>
+      <c r="J377" s="7"/>
       <c r="K377" s="30"/>
       <c r="L377" s="31">
         <f t="shared" si="32"/>
@@ -12688,7 +12807,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J378" s="22"/>
+      <c r="J378" s="7"/>
       <c r="K378" s="30"/>
       <c r="L378" s="31">
         <f t="shared" si="32"/>
@@ -12710,7 +12829,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J379" s="22"/>
+      <c r="J379" s="7"/>
       <c r="K379" s="30"/>
       <c r="L379" s="31">
         <f t="shared" si="32"/>
@@ -12732,7 +12851,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J380" s="22"/>
+      <c r="J380" s="7"/>
       <c r="K380" s="30"/>
       <c r="L380" s="31">
         <f t="shared" si="32"/>
@@ -12754,7 +12873,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J381" s="22"/>
+      <c r="J381" s="7"/>
       <c r="K381" s="30"/>
       <c r="L381" s="31">
         <f t="shared" si="32"/>
@@ -12776,7 +12895,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J382" s="22"/>
+      <c r="J382" s="7"/>
       <c r="K382" s="30"/>
       <c r="L382" s="31">
         <f t="shared" si="32"/>
@@ -12798,7 +12917,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J383" s="22"/>
+      <c r="J383" s="7"/>
       <c r="K383" s="30"/>
       <c r="L383" s="31">
         <f t="shared" si="32"/>
@@ -12820,7 +12939,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J384" s="22"/>
+      <c r="J384" s="7"/>
       <c r="K384" s="30"/>
       <c r="L384" s="31">
         <f t="shared" si="32"/>
@@ -12842,7 +12961,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J385" s="22"/>
+      <c r="J385" s="7"/>
       <c r="K385" s="30"/>
       <c r="L385" s="31">
         <f t="shared" si="32"/>
@@ -12864,7 +12983,7 @@
         <f t="shared" ref="I386:I449" si="35">H386*3.281</f>
         <v>0</v>
       </c>
-      <c r="J386" s="22"/>
+      <c r="J386" s="7"/>
       <c r="K386" s="30"/>
       <c r="L386" s="31">
         <f t="shared" ref="L386:L449" si="36">K386*3.281</f>
@@ -12886,7 +13005,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J387" s="22"/>
+      <c r="J387" s="7"/>
       <c r="K387" s="30"/>
       <c r="L387" s="31">
         <f t="shared" si="36"/>
@@ -12908,7 +13027,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J388" s="22"/>
+      <c r="J388" s="7"/>
       <c r="K388" s="30"/>
       <c r="L388" s="31">
         <f t="shared" si="36"/>
@@ -12930,7 +13049,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J389" s="22"/>
+      <c r="J389" s="7"/>
       <c r="K389" s="30"/>
       <c r="L389" s="31">
         <f t="shared" si="36"/>
@@ -12952,7 +13071,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J390" s="22"/>
+      <c r="J390" s="7"/>
       <c r="K390" s="30"/>
       <c r="L390" s="31">
         <f t="shared" si="36"/>
@@ -12974,7 +13093,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J391" s="22"/>
+      <c r="J391" s="7"/>
       <c r="K391" s="30"/>
       <c r="L391" s="31">
         <f t="shared" si="36"/>
@@ -12996,7 +13115,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J392" s="22"/>
+      <c r="J392" s="7"/>
       <c r="K392" s="30"/>
       <c r="L392" s="31">
         <f t="shared" si="36"/>
@@ -13018,7 +13137,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J393" s="22"/>
+      <c r="J393" s="7"/>
       <c r="K393" s="30"/>
       <c r="L393" s="31">
         <f t="shared" si="36"/>
@@ -13040,7 +13159,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J394" s="22"/>
+      <c r="J394" s="7"/>
       <c r="K394" s="30"/>
       <c r="L394" s="31">
         <f t="shared" si="36"/>
@@ -13062,7 +13181,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J395" s="22"/>
+      <c r="J395" s="7"/>
       <c r="K395" s="30"/>
       <c r="L395" s="31">
         <f t="shared" si="36"/>
@@ -13084,7 +13203,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J396" s="22"/>
+      <c r="J396" s="7"/>
       <c r="K396" s="30"/>
       <c r="L396" s="31">
         <f t="shared" si="36"/>
@@ -13106,7 +13225,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J397" s="22"/>
+      <c r="J397" s="7"/>
       <c r="K397" s="30"/>
       <c r="L397" s="31">
         <f t="shared" si="36"/>
@@ -13128,7 +13247,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J398" s="22"/>
+      <c r="J398" s="7"/>
       <c r="K398" s="30"/>
       <c r="L398" s="31">
         <f t="shared" si="36"/>
@@ -13150,7 +13269,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J399" s="22"/>
+      <c r="J399" s="7"/>
       <c r="K399" s="30"/>
       <c r="L399" s="31">
         <f t="shared" si="36"/>
@@ -13172,7 +13291,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J400" s="22"/>
+      <c r="J400" s="7"/>
       <c r="K400" s="30"/>
       <c r="L400" s="31">
         <f t="shared" si="36"/>
@@ -13194,7 +13313,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J401" s="22"/>
+      <c r="J401" s="7"/>
       <c r="K401" s="30"/>
       <c r="L401" s="31">
         <f t="shared" si="36"/>
@@ -13216,7 +13335,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J402" s="22"/>
+      <c r="J402" s="7"/>
       <c r="K402" s="30"/>
       <c r="L402" s="31">
         <f t="shared" si="36"/>
@@ -13238,7 +13357,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J403" s="22"/>
+      <c r="J403" s="7"/>
       <c r="K403" s="30"/>
       <c r="L403" s="31">
         <f t="shared" si="36"/>
@@ -13260,7 +13379,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J404" s="22"/>
+      <c r="J404" s="7"/>
       <c r="K404" s="30"/>
       <c r="L404" s="31">
         <f t="shared" si="36"/>
@@ -13282,7 +13401,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J405" s="22"/>
+      <c r="J405" s="7"/>
       <c r="K405" s="30"/>
       <c r="L405" s="31">
         <f t="shared" si="36"/>
@@ -13304,7 +13423,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J406" s="22"/>
+      <c r="J406" s="7"/>
       <c r="K406" s="30"/>
       <c r="L406" s="31">
         <f t="shared" si="36"/>
@@ -13326,7 +13445,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J407" s="22"/>
+      <c r="J407" s="7"/>
       <c r="K407" s="30"/>
       <c r="L407" s="31">
         <f t="shared" si="36"/>
@@ -13348,7 +13467,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J408" s="22"/>
+      <c r="J408" s="7"/>
       <c r="K408" s="30"/>
       <c r="L408" s="31">
         <f t="shared" si="36"/>
@@ -13370,7 +13489,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J409" s="22"/>
+      <c r="J409" s="7"/>
       <c r="K409" s="30"/>
       <c r="L409" s="31">
         <f t="shared" si="36"/>
@@ -13392,7 +13511,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J410" s="22"/>
+      <c r="J410" s="7"/>
       <c r="K410" s="30"/>
       <c r="L410" s="31">
         <f t="shared" si="36"/>
@@ -13414,7 +13533,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J411" s="22"/>
+      <c r="J411" s="7"/>
       <c r="K411" s="30"/>
       <c r="L411" s="31">
         <f t="shared" si="36"/>
@@ -13436,7 +13555,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J412" s="22"/>
+      <c r="J412" s="7"/>
       <c r="K412" s="30"/>
       <c r="L412" s="31">
         <f t="shared" si="36"/>
@@ -13458,7 +13577,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J413" s="22"/>
+      <c r="J413" s="7"/>
       <c r="K413" s="30"/>
       <c r="L413" s="31">
         <f t="shared" si="36"/>
@@ -13480,7 +13599,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J414" s="22"/>
+      <c r="J414" s="7"/>
       <c r="K414" s="30"/>
       <c r="L414" s="31">
         <f t="shared" si="36"/>
@@ -13502,7 +13621,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J415" s="22"/>
+      <c r="J415" s="7"/>
       <c r="K415" s="30"/>
       <c r="L415" s="31">
         <f t="shared" si="36"/>
@@ -13524,7 +13643,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J416" s="22"/>
+      <c r="J416" s="7"/>
       <c r="K416" s="30"/>
       <c r="L416" s="31">
         <f t="shared" si="36"/>
@@ -13546,7 +13665,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J417" s="22"/>
+      <c r="J417" s="7"/>
       <c r="K417" s="30"/>
       <c r="L417" s="31">
         <f t="shared" si="36"/>
@@ -13568,7 +13687,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J418" s="22"/>
+      <c r="J418" s="7"/>
       <c r="K418" s="30"/>
       <c r="L418" s="31">
         <f t="shared" si="36"/>
@@ -13590,7 +13709,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J419" s="22"/>
+      <c r="J419" s="7"/>
       <c r="K419" s="30"/>
       <c r="L419" s="31">
         <f t="shared" si="36"/>
@@ -13612,7 +13731,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J420" s="22"/>
+      <c r="J420" s="7"/>
       <c r="K420" s="30"/>
       <c r="L420" s="31">
         <f t="shared" si="36"/>
@@ -13634,7 +13753,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J421" s="22"/>
+      <c r="J421" s="7"/>
       <c r="K421" s="30"/>
       <c r="L421" s="31">
         <f t="shared" si="36"/>
@@ -13656,7 +13775,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J422" s="22"/>
+      <c r="J422" s="7"/>
       <c r="K422" s="30"/>
       <c r="L422" s="31">
         <f t="shared" si="36"/>
@@ -13678,7 +13797,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J423" s="22"/>
+      <c r="J423" s="7"/>
       <c r="K423" s="30"/>
       <c r="L423" s="31">
         <f t="shared" si="36"/>
@@ -13700,7 +13819,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J424" s="22"/>
+      <c r="J424" s="7"/>
       <c r="K424" s="30"/>
       <c r="L424" s="31">
         <f t="shared" si="36"/>
@@ -13722,7 +13841,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J425" s="22"/>
+      <c r="J425" s="7"/>
       <c r="K425" s="30"/>
       <c r="L425" s="31">
         <f t="shared" si="36"/>
@@ -13744,7 +13863,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J426" s="22"/>
+      <c r="J426" s="7"/>
       <c r="K426" s="30"/>
       <c r="L426" s="31">
         <f t="shared" si="36"/>
@@ -13766,7 +13885,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J427" s="22"/>
+      <c r="J427" s="7"/>
       <c r="K427" s="30"/>
       <c r="L427" s="31">
         <f t="shared" si="36"/>
@@ -13788,7 +13907,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J428" s="22"/>
+      <c r="J428" s="7"/>
       <c r="K428" s="30"/>
       <c r="L428" s="31">
         <f t="shared" si="36"/>
@@ -13810,7 +13929,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J429" s="22"/>
+      <c r="J429" s="7"/>
       <c r="K429" s="30"/>
       <c r="L429" s="31">
         <f t="shared" si="36"/>
@@ -13832,7 +13951,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J430" s="22"/>
+      <c r="J430" s="7"/>
       <c r="K430" s="30"/>
       <c r="L430" s="31">
         <f t="shared" si="36"/>
@@ -13854,7 +13973,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J431" s="22"/>
+      <c r="J431" s="7"/>
       <c r="K431" s="30"/>
       <c r="L431" s="31">
         <f t="shared" si="36"/>
@@ -13876,7 +13995,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J432" s="22"/>
+      <c r="J432" s="7"/>
       <c r="K432" s="30"/>
       <c r="L432" s="31">
         <f t="shared" si="36"/>
@@ -13898,7 +14017,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J433" s="22"/>
+      <c r="J433" s="7"/>
       <c r="K433" s="30"/>
       <c r="L433" s="31">
         <f t="shared" si="36"/>
@@ -13920,7 +14039,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J434" s="22"/>
+      <c r="J434" s="7"/>
       <c r="K434" s="30"/>
       <c r="L434" s="31">
         <f t="shared" si="36"/>
@@ -13942,7 +14061,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J435" s="22"/>
+      <c r="J435" s="7"/>
       <c r="K435" s="30"/>
       <c r="L435" s="31">
         <f t="shared" si="36"/>
@@ -13964,7 +14083,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J436" s="22"/>
+      <c r="J436" s="7"/>
       <c r="K436" s="30"/>
       <c r="L436" s="31">
         <f t="shared" si="36"/>
@@ -13986,7 +14105,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J437" s="22"/>
+      <c r="J437" s="7"/>
       <c r="K437" s="30"/>
       <c r="L437" s="31">
         <f t="shared" si="36"/>
@@ -14008,7 +14127,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J438" s="22"/>
+      <c r="J438" s="7"/>
       <c r="K438" s="30"/>
       <c r="L438" s="31">
         <f t="shared" si="36"/>
@@ -14030,7 +14149,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J439" s="22"/>
+      <c r="J439" s="7"/>
       <c r="K439" s="30"/>
       <c r="L439" s="31">
         <f t="shared" si="36"/>
@@ -14052,7 +14171,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J440" s="22"/>
+      <c r="J440" s="7"/>
       <c r="K440" s="30"/>
       <c r="L440" s="31">
         <f t="shared" si="36"/>
@@ -14074,7 +14193,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J441" s="22"/>
+      <c r="J441" s="7"/>
       <c r="K441" s="30"/>
       <c r="L441" s="31">
         <f t="shared" si="36"/>
@@ -14096,7 +14215,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J442" s="22"/>
+      <c r="J442" s="7"/>
       <c r="K442" s="30"/>
       <c r="L442" s="31">
         <f t="shared" si="36"/>
@@ -14118,7 +14237,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J443" s="22"/>
+      <c r="J443" s="7"/>
       <c r="K443" s="30"/>
       <c r="L443" s="31">
         <f t="shared" si="36"/>
@@ -14140,7 +14259,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J444" s="22"/>
+      <c r="J444" s="7"/>
       <c r="K444" s="30"/>
       <c r="L444" s="31">
         <f t="shared" si="36"/>
@@ -14162,7 +14281,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J445" s="22"/>
+      <c r="J445" s="7"/>
       <c r="K445" s="30"/>
       <c r="L445" s="31">
         <f t="shared" si="36"/>
@@ -14184,7 +14303,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J446" s="22"/>
+      <c r="J446" s="7"/>
       <c r="K446" s="30"/>
       <c r="L446" s="31">
         <f t="shared" si="36"/>
@@ -14206,7 +14325,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J447" s="22"/>
+      <c r="J447" s="7"/>
       <c r="K447" s="30"/>
       <c r="L447" s="31">
         <f t="shared" si="36"/>
@@ -14228,7 +14347,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J448" s="22"/>
+      <c r="J448" s="7"/>
       <c r="K448" s="30"/>
       <c r="L448" s="31">
         <f t="shared" si="36"/>
@@ -14250,7 +14369,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J449" s="22"/>
+      <c r="J449" s="7"/>
       <c r="K449" s="30"/>
       <c r="L449" s="31">
         <f t="shared" si="36"/>
@@ -14272,7 +14391,7 @@
         <f t="shared" ref="I450:I513" si="39">H450*3.281</f>
         <v>0</v>
       </c>
-      <c r="J450" s="22"/>
+      <c r="J450" s="7"/>
       <c r="K450" s="30"/>
       <c r="L450" s="31">
         <f t="shared" ref="L450:L513" si="40">K450*3.281</f>
@@ -14294,7 +14413,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J451" s="22"/>
+      <c r="J451" s="7"/>
       <c r="K451" s="30"/>
       <c r="L451" s="31">
         <f t="shared" si="40"/>
@@ -14316,7 +14435,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J452" s="22"/>
+      <c r="J452" s="7"/>
       <c r="K452" s="30"/>
       <c r="L452" s="31">
         <f t="shared" si="40"/>
@@ -14338,7 +14457,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J453" s="22"/>
+      <c r="J453" s="7"/>
       <c r="K453" s="30"/>
       <c r="L453" s="31">
         <f t="shared" si="40"/>
@@ -14360,7 +14479,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J454" s="22"/>
+      <c r="J454" s="7"/>
       <c r="K454" s="30"/>
       <c r="L454" s="31">
         <f t="shared" si="40"/>
@@ -14382,7 +14501,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J455" s="22"/>
+      <c r="J455" s="7"/>
       <c r="K455" s="30"/>
       <c r="L455" s="31">
         <f t="shared" si="40"/>
@@ -14404,7 +14523,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J456" s="22"/>
+      <c r="J456" s="7"/>
       <c r="K456" s="30"/>
       <c r="L456" s="31">
         <f t="shared" si="40"/>
@@ -14426,7 +14545,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J457" s="22"/>
+      <c r="J457" s="7"/>
       <c r="K457" s="30"/>
       <c r="L457" s="31">
         <f t="shared" si="40"/>
@@ -14448,7 +14567,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J458" s="22"/>
+      <c r="J458" s="7"/>
       <c r="K458" s="30"/>
       <c r="L458" s="31">
         <f t="shared" si="40"/>
@@ -14470,7 +14589,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J459" s="22"/>
+      <c r="J459" s="7"/>
       <c r="K459" s="30"/>
       <c r="L459" s="31">
         <f t="shared" si="40"/>
@@ -14492,7 +14611,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J460" s="22"/>
+      <c r="J460" s="7"/>
       <c r="K460" s="30"/>
       <c r="L460" s="31">
         <f t="shared" si="40"/>
@@ -14514,7 +14633,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J461" s="22"/>
+      <c r="J461" s="7"/>
       <c r="K461" s="30"/>
       <c r="L461" s="31">
         <f t="shared" si="40"/>
@@ -14536,7 +14655,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J462" s="22"/>
+      <c r="J462" s="7"/>
       <c r="K462" s="30"/>
       <c r="L462" s="31">
         <f t="shared" si="40"/>
@@ -14558,7 +14677,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J463" s="22"/>
+      <c r="J463" s="7"/>
       <c r="K463" s="30"/>
       <c r="L463" s="31">
         <f t="shared" si="40"/>
@@ -14580,7 +14699,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J464" s="22"/>
+      <c r="J464" s="7"/>
       <c r="K464" s="30"/>
       <c r="L464" s="31">
         <f t="shared" si="40"/>
@@ -14602,7 +14721,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J465" s="22"/>
+      <c r="J465" s="7"/>
       <c r="K465" s="30"/>
       <c r="L465" s="31">
         <f t="shared" si="40"/>
@@ -14624,7 +14743,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J466" s="22"/>
+      <c r="J466" s="7"/>
       <c r="K466" s="30"/>
       <c r="L466" s="31">
         <f t="shared" si="40"/>
@@ -14646,7 +14765,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J467" s="22"/>
+      <c r="J467" s="7"/>
       <c r="K467" s="30"/>
       <c r="L467" s="31">
         <f t="shared" si="40"/>
@@ -14668,7 +14787,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J468" s="22"/>
+      <c r="J468" s="7"/>
       <c r="K468" s="30"/>
       <c r="L468" s="31">
         <f t="shared" si="40"/>
@@ -14690,7 +14809,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J469" s="22"/>
+      <c r="J469" s="7"/>
       <c r="K469" s="30"/>
       <c r="L469" s="31">
         <f t="shared" si="40"/>
@@ -14712,7 +14831,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J470" s="22"/>
+      <c r="J470" s="7"/>
       <c r="K470" s="30"/>
       <c r="L470" s="31">
         <f t="shared" si="40"/>
@@ -14734,7 +14853,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J471" s="22"/>
+      <c r="J471" s="7"/>
       <c r="K471" s="30"/>
       <c r="L471" s="31">
         <f t="shared" si="40"/>
@@ -14756,7 +14875,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J472" s="22"/>
+      <c r="J472" s="7"/>
       <c r="K472" s="30"/>
       <c r="L472" s="31">
         <f t="shared" si="40"/>
@@ -14778,7 +14897,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J473" s="22"/>
+      <c r="J473" s="7"/>
       <c r="K473" s="30"/>
       <c r="L473" s="31">
         <f t="shared" si="40"/>
@@ -14800,7 +14919,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J474" s="22"/>
+      <c r="J474" s="7"/>
       <c r="K474" s="30"/>
       <c r="L474" s="31">
         <f t="shared" si="40"/>
@@ -14822,7 +14941,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J475" s="22"/>
+      <c r="J475" s="7"/>
       <c r="K475" s="30"/>
       <c r="L475" s="31">
         <f t="shared" si="40"/>
@@ -14844,7 +14963,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J476" s="22"/>
+      <c r="J476" s="7"/>
       <c r="K476" s="30"/>
       <c r="L476" s="31">
         <f t="shared" si="40"/>
@@ -14866,7 +14985,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J477" s="22"/>
+      <c r="J477" s="7"/>
       <c r="K477" s="30"/>
       <c r="L477" s="31">
         <f t="shared" si="40"/>
@@ -14888,7 +15007,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J478" s="22"/>
+      <c r="J478" s="7"/>
       <c r="K478" s="30"/>
       <c r="L478" s="31">
         <f t="shared" si="40"/>
@@ -14910,7 +15029,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J479" s="22"/>
+      <c r="J479" s="7"/>
       <c r="K479" s="30"/>
       <c r="L479" s="31">
         <f t="shared" si="40"/>
@@ -14932,7 +15051,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J480" s="22"/>
+      <c r="J480" s="7"/>
       <c r="K480" s="30"/>
       <c r="L480" s="31">
         <f t="shared" si="40"/>
@@ -14954,7 +15073,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J481" s="22"/>
+      <c r="J481" s="7"/>
       <c r="K481" s="30"/>
       <c r="L481" s="31">
         <f t="shared" si="40"/>
@@ -14976,7 +15095,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J482" s="22"/>
+      <c r="J482" s="7"/>
       <c r="K482" s="30"/>
       <c r="L482" s="31">
         <f t="shared" si="40"/>
@@ -14998,7 +15117,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J483" s="22"/>
+      <c r="J483" s="7"/>
       <c r="K483" s="30"/>
       <c r="L483" s="31">
         <f t="shared" si="40"/>
@@ -15020,7 +15139,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J484" s="22"/>
+      <c r="J484" s="7"/>
       <c r="K484" s="30"/>
       <c r="L484" s="31">
         <f t="shared" si="40"/>
@@ -15042,7 +15161,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J485" s="22"/>
+      <c r="J485" s="7"/>
       <c r="K485" s="30"/>
       <c r="L485" s="31">
         <f t="shared" si="40"/>
@@ -15064,7 +15183,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J486" s="22"/>
+      <c r="J486" s="7"/>
       <c r="K486" s="30"/>
       <c r="L486" s="31">
         <f t="shared" si="40"/>
@@ -15086,7 +15205,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J487" s="22"/>
+      <c r="J487" s="7"/>
       <c r="K487" s="30"/>
       <c r="L487" s="31">
         <f t="shared" si="40"/>
@@ -15108,7 +15227,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J488" s="22"/>
+      <c r="J488" s="7"/>
       <c r="K488" s="30"/>
       <c r="L488" s="31">
         <f t="shared" si="40"/>
@@ -15130,7 +15249,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J489" s="22"/>
+      <c r="J489" s="7"/>
       <c r="K489" s="30"/>
       <c r="L489" s="31">
         <f t="shared" si="40"/>
@@ -15152,7 +15271,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J490" s="22"/>
+      <c r="J490" s="7"/>
       <c r="K490" s="30"/>
       <c r="L490" s="31">
         <f t="shared" si="40"/>
@@ -15174,7 +15293,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J491" s="22"/>
+      <c r="J491" s="7"/>
       <c r="K491" s="30"/>
       <c r="L491" s="31">
         <f t="shared" si="40"/>
@@ -15196,7 +15315,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J492" s="22"/>
+      <c r="J492" s="7"/>
       <c r="K492" s="30"/>
       <c r="L492" s="31">
         <f t="shared" si="40"/>
@@ -15218,7 +15337,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J493" s="22"/>
+      <c r="J493" s="7"/>
       <c r="K493" s="30"/>
       <c r="L493" s="31">
         <f t="shared" si="40"/>
@@ -15240,7 +15359,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J494" s="22"/>
+      <c r="J494" s="7"/>
       <c r="K494" s="30"/>
       <c r="L494" s="31">
         <f t="shared" si="40"/>
@@ -15262,7 +15381,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J495" s="22"/>
+      <c r="J495" s="7"/>
       <c r="K495" s="30"/>
       <c r="L495" s="31">
         <f t="shared" si="40"/>
@@ -15284,7 +15403,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J496" s="22"/>
+      <c r="J496" s="7"/>
       <c r="K496" s="30"/>
       <c r="L496" s="31">
         <f t="shared" si="40"/>
@@ -15306,7 +15425,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J497" s="22"/>
+      <c r="J497" s="7"/>
       <c r="K497" s="30"/>
       <c r="L497" s="31">
         <f t="shared" si="40"/>
@@ -15328,7 +15447,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J498" s="22"/>
+      <c r="J498" s="7"/>
       <c r="K498" s="30"/>
       <c r="L498" s="31">
         <f t="shared" si="40"/>
@@ -15350,7 +15469,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J499" s="22"/>
+      <c r="J499" s="7"/>
       <c r="K499" s="30"/>
       <c r="L499" s="31">
         <f t="shared" si="40"/>
@@ -15372,7 +15491,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J500" s="22"/>
+      <c r="J500" s="7"/>
       <c r="K500" s="30"/>
       <c r="L500" s="31">
         <f t="shared" si="40"/>
@@ -15394,7 +15513,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J501" s="22"/>
+      <c r="J501" s="7"/>
       <c r="K501" s="30"/>
       <c r="L501" s="31">
         <f t="shared" si="40"/>
@@ -15416,7 +15535,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J502" s="22"/>
+      <c r="J502" s="7"/>
       <c r="K502" s="30"/>
       <c r="L502" s="31">
         <f t="shared" si="40"/>
@@ -15438,7 +15557,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J503" s="22"/>
+      <c r="J503" s="7"/>
       <c r="K503" s="30"/>
       <c r="L503" s="31">
         <f t="shared" si="40"/>
@@ -15460,7 +15579,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J504" s="22"/>
+      <c r="J504" s="7"/>
       <c r="K504" s="30"/>
       <c r="L504" s="31">
         <f t="shared" si="40"/>
@@ -15482,7 +15601,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J505" s="22"/>
+      <c r="J505" s="7"/>
       <c r="K505" s="30"/>
       <c r="L505" s="31">
         <f t="shared" si="40"/>
@@ -15504,7 +15623,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J506" s="22"/>
+      <c r="J506" s="7"/>
       <c r="K506" s="30"/>
       <c r="L506" s="31">
         <f t="shared" si="40"/>
@@ -15526,7 +15645,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J507" s="22"/>
+      <c r="J507" s="7"/>
       <c r="K507" s="30"/>
       <c r="L507" s="31">
         <f t="shared" si="40"/>
@@ -15548,7 +15667,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J508" s="22"/>
+      <c r="J508" s="7"/>
       <c r="K508" s="30"/>
       <c r="L508" s="31">
         <f t="shared" si="40"/>
@@ -15570,7 +15689,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J509" s="22"/>
+      <c r="J509" s="7"/>
       <c r="K509" s="30"/>
       <c r="L509" s="31">
         <f t="shared" si="40"/>
@@ -15592,7 +15711,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J510" s="22"/>
+      <c r="J510" s="7"/>
       <c r="K510" s="30"/>
       <c r="L510" s="31">
         <f t="shared" si="40"/>
@@ -15614,7 +15733,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J511" s="22"/>
+      <c r="J511" s="7"/>
       <c r="K511" s="30"/>
       <c r="L511" s="31">
         <f t="shared" si="40"/>
@@ -15636,7 +15755,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J512" s="22"/>
+      <c r="J512" s="7"/>
       <c r="K512" s="30"/>
       <c r="L512" s="31">
         <f t="shared" si="40"/>
@@ -15658,7 +15777,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J513" s="22"/>
+      <c r="J513" s="7"/>
       <c r="K513" s="30"/>
       <c r="L513" s="31">
         <f t="shared" si="40"/>
@@ -15680,7 +15799,7 @@
         <f t="shared" ref="I514:I577" si="43">H514*3.281</f>
         <v>0</v>
       </c>
-      <c r="J514" s="22"/>
+      <c r="J514" s="7"/>
       <c r="K514" s="30"/>
       <c r="L514" s="31">
         <f t="shared" ref="L514:L577" si="44">K514*3.281</f>
@@ -15702,7 +15821,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J515" s="22"/>
+      <c r="J515" s="7"/>
       <c r="K515" s="30"/>
       <c r="L515" s="31">
         <f t="shared" si="44"/>
@@ -15724,7 +15843,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J516" s="22"/>
+      <c r="J516" s="7"/>
       <c r="K516" s="30"/>
       <c r="L516" s="31">
         <f t="shared" si="44"/>
@@ -15746,7 +15865,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J517" s="22"/>
+      <c r="J517" s="7"/>
       <c r="K517" s="30"/>
       <c r="L517" s="31">
         <f t="shared" si="44"/>
@@ -15768,7 +15887,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J518" s="22"/>
+      <c r="J518" s="7"/>
       <c r="K518" s="30"/>
       <c r="L518" s="31">
         <f t="shared" si="44"/>
@@ -15790,7 +15909,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J519" s="22"/>
+      <c r="J519" s="7"/>
       <c r="K519" s="30"/>
       <c r="L519" s="31">
         <f t="shared" si="44"/>
@@ -15812,7 +15931,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J520" s="22"/>
+      <c r="J520" s="7"/>
       <c r="K520" s="30"/>
       <c r="L520" s="31">
         <f t="shared" si="44"/>
@@ -15834,7 +15953,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J521" s="22"/>
+      <c r="J521" s="7"/>
       <c r="K521" s="30"/>
       <c r="L521" s="31">
         <f t="shared" si="44"/>
@@ -15856,7 +15975,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J522" s="22"/>
+      <c r="J522" s="7"/>
       <c r="K522" s="30"/>
       <c r="L522" s="31">
         <f t="shared" si="44"/>
@@ -15878,7 +15997,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J523" s="22"/>
+      <c r="J523" s="7"/>
       <c r="K523" s="30"/>
       <c r="L523" s="31">
         <f t="shared" si="44"/>
@@ -15900,7 +16019,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J524" s="22"/>
+      <c r="J524" s="7"/>
       <c r="K524" s="30"/>
       <c r="L524" s="31">
         <f t="shared" si="44"/>
@@ -15922,7 +16041,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J525" s="22"/>
+      <c r="J525" s="7"/>
       <c r="K525" s="30"/>
       <c r="L525" s="31">
         <f t="shared" si="44"/>
@@ -15944,7 +16063,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J526" s="22"/>
+      <c r="J526" s="7"/>
       <c r="K526" s="30"/>
       <c r="L526" s="31">
         <f t="shared" si="44"/>
@@ -15966,7 +16085,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J527" s="22"/>
+      <c r="J527" s="7"/>
       <c r="K527" s="30"/>
       <c r="L527" s="31">
         <f t="shared" si="44"/>
@@ -15988,7 +16107,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J528" s="22"/>
+      <c r="J528" s="7"/>
       <c r="K528" s="30"/>
       <c r="L528" s="31">
         <f t="shared" si="44"/>
@@ -16010,7 +16129,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J529" s="22"/>
+      <c r="J529" s="7"/>
       <c r="K529" s="30"/>
       <c r="L529" s="31">
         <f t="shared" si="44"/>
@@ -16032,7 +16151,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J530" s="22"/>
+      <c r="J530" s="7"/>
       <c r="K530" s="30"/>
       <c r="L530" s="31">
         <f t="shared" si="44"/>
@@ -16054,7 +16173,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J531" s="22"/>
+      <c r="J531" s="7"/>
       <c r="K531" s="30"/>
       <c r="L531" s="31">
         <f t="shared" si="44"/>
@@ -16076,7 +16195,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J532" s="22"/>
+      <c r="J532" s="7"/>
       <c r="K532" s="30"/>
       <c r="L532" s="31">
         <f t="shared" si="44"/>
@@ -16098,7 +16217,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J533" s="22"/>
+      <c r="J533" s="7"/>
       <c r="K533" s="30"/>
       <c r="L533" s="31">
         <f t="shared" si="44"/>
@@ -16120,7 +16239,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J534" s="22"/>
+      <c r="J534" s="7"/>
       <c r="K534" s="30"/>
       <c r="L534" s="31">
         <f t="shared" si="44"/>
@@ -16142,7 +16261,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J535" s="22"/>
+      <c r="J535" s="7"/>
       <c r="K535" s="30"/>
       <c r="L535" s="31">
         <f t="shared" si="44"/>
@@ -16164,7 +16283,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J536" s="22"/>
+      <c r="J536" s="7"/>
       <c r="K536" s="30"/>
       <c r="L536" s="31">
         <f t="shared" si="44"/>
@@ -16186,7 +16305,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J537" s="22"/>
+      <c r="J537" s="7"/>
       <c r="K537" s="30"/>
       <c r="L537" s="31">
         <f t="shared" si="44"/>
@@ -16208,7 +16327,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J538" s="22"/>
+      <c r="J538" s="7"/>
       <c r="K538" s="30"/>
       <c r="L538" s="31">
         <f t="shared" si="44"/>
@@ -16230,7 +16349,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J539" s="22"/>
+      <c r="J539" s="7"/>
       <c r="K539" s="30"/>
       <c r="L539" s="31">
         <f t="shared" si="44"/>
@@ -16252,7 +16371,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J540" s="22"/>
+      <c r="J540" s="7"/>
       <c r="K540" s="30"/>
       <c r="L540" s="31">
         <f t="shared" si="44"/>
@@ -16274,7 +16393,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J541" s="22"/>
+      <c r="J541" s="7"/>
       <c r="K541" s="30"/>
       <c r="L541" s="31">
         <f t="shared" si="44"/>
@@ -16296,7 +16415,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J542" s="22"/>
+      <c r="J542" s="7"/>
       <c r="K542" s="30"/>
       <c r="L542" s="31">
         <f t="shared" si="44"/>
@@ -16318,7 +16437,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J543" s="22"/>
+      <c r="J543" s="7"/>
       <c r="K543" s="30"/>
       <c r="L543" s="31">
         <f t="shared" si="44"/>
@@ -16340,7 +16459,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J544" s="22"/>
+      <c r="J544" s="7"/>
       <c r="K544" s="30"/>
       <c r="L544" s="31">
         <f t="shared" si="44"/>
@@ -16362,7 +16481,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J545" s="22"/>
+      <c r="J545" s="7"/>
       <c r="K545" s="30"/>
       <c r="L545" s="31">
         <f t="shared" si="44"/>
@@ -16384,7 +16503,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J546" s="22"/>
+      <c r="J546" s="7"/>
       <c r="K546" s="30"/>
       <c r="L546" s="31">
         <f t="shared" si="44"/>
@@ -16406,7 +16525,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J547" s="22"/>
+      <c r="J547" s="7"/>
       <c r="K547" s="30"/>
       <c r="L547" s="31">
         <f t="shared" si="44"/>
@@ -16428,7 +16547,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J548" s="22"/>
+      <c r="J548" s="7"/>
       <c r="K548" s="30"/>
       <c r="L548" s="31">
         <f t="shared" si="44"/>
@@ -16450,7 +16569,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J549" s="22"/>
+      <c r="J549" s="7"/>
       <c r="K549" s="30"/>
       <c r="L549" s="31">
         <f t="shared" si="44"/>
@@ -16472,7 +16591,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J550" s="22"/>
+      <c r="J550" s="7"/>
       <c r="K550" s="30"/>
       <c r="L550" s="31">
         <f t="shared" si="44"/>
@@ -16494,7 +16613,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J551" s="22"/>
+      <c r="J551" s="7"/>
       <c r="K551" s="30"/>
       <c r="L551" s="31">
         <f t="shared" si="44"/>
@@ -16516,7 +16635,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J552" s="22"/>
+      <c r="J552" s="7"/>
       <c r="K552" s="30"/>
       <c r="L552" s="31">
         <f t="shared" si="44"/>
@@ -16538,7 +16657,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J553" s="22"/>
+      <c r="J553" s="7"/>
       <c r="K553" s="30"/>
       <c r="L553" s="31">
         <f t="shared" si="44"/>
@@ -16560,7 +16679,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J554" s="22"/>
+      <c r="J554" s="7"/>
       <c r="K554" s="30"/>
       <c r="L554" s="31">
         <f t="shared" si="44"/>
@@ -16582,7 +16701,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J555" s="22"/>
+      <c r="J555" s="7"/>
       <c r="K555" s="30"/>
       <c r="L555" s="31">
         <f t="shared" si="44"/>
@@ -16604,7 +16723,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J556" s="22"/>
+      <c r="J556" s="7"/>
       <c r="K556" s="30"/>
       <c r="L556" s="31">
         <f t="shared" si="44"/>
@@ -16626,7 +16745,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J557" s="22"/>
+      <c r="J557" s="7"/>
       <c r="K557" s="30"/>
       <c r="L557" s="31">
         <f t="shared" si="44"/>
@@ -16648,7 +16767,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J558" s="22"/>
+      <c r="J558" s="7"/>
       <c r="K558" s="30"/>
       <c r="L558" s="31">
         <f t="shared" si="44"/>
@@ -16670,7 +16789,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J559" s="22"/>
+      <c r="J559" s="7"/>
       <c r="K559" s="30"/>
       <c r="L559" s="31">
         <f t="shared" si="44"/>
@@ -16692,7 +16811,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J560" s="22"/>
+      <c r="J560" s="7"/>
       <c r="K560" s="30"/>
       <c r="L560" s="31">
         <f t="shared" si="44"/>
@@ -16714,7 +16833,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J561" s="22"/>
+      <c r="J561" s="7"/>
       <c r="K561" s="30"/>
       <c r="L561" s="31">
         <f t="shared" si="44"/>
@@ -16736,7 +16855,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J562" s="22"/>
+      <c r="J562" s="7"/>
       <c r="K562" s="30"/>
       <c r="L562" s="31">
         <f t="shared" si="44"/>
@@ -16758,7 +16877,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J563" s="22"/>
+      <c r="J563" s="7"/>
       <c r="K563" s="30"/>
       <c r="L563" s="31">
         <f t="shared" si="44"/>
@@ -16780,7 +16899,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J564" s="22"/>
+      <c r="J564" s="7"/>
       <c r="K564" s="30"/>
       <c r="L564" s="31">
         <f t="shared" si="44"/>
@@ -16802,7 +16921,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J565" s="22"/>
+      <c r="J565" s="7"/>
       <c r="K565" s="30"/>
       <c r="L565" s="31">
         <f t="shared" si="44"/>
@@ -16824,7 +16943,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J566" s="22"/>
+      <c r="J566" s="7"/>
       <c r="K566" s="30"/>
       <c r="L566" s="31">
         <f t="shared" si="44"/>
@@ -16846,7 +16965,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J567" s="22"/>
+      <c r="J567" s="7"/>
       <c r="K567" s="30"/>
       <c r="L567" s="31">
         <f t="shared" si="44"/>
@@ -16868,7 +16987,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J568" s="22"/>
+      <c r="J568" s="7"/>
       <c r="K568" s="30"/>
       <c r="L568" s="31">
         <f t="shared" si="44"/>
@@ -16890,7 +17009,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J569" s="22"/>
+      <c r="J569" s="7"/>
       <c r="K569" s="30"/>
       <c r="L569" s="31">
         <f t="shared" si="44"/>
@@ -16912,7 +17031,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J570" s="22"/>
+      <c r="J570" s="7"/>
       <c r="K570" s="30"/>
       <c r="L570" s="31">
         <f t="shared" si="44"/>
@@ -16934,7 +17053,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J571" s="22"/>
+      <c r="J571" s="7"/>
       <c r="K571" s="30"/>
       <c r="L571" s="31">
         <f t="shared" si="44"/>
@@ -16956,7 +17075,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J572" s="22"/>
+      <c r="J572" s="7"/>
       <c r="K572" s="30"/>
       <c r="L572" s="31">
         <f t="shared" si="44"/>
@@ -16978,7 +17097,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J573" s="22"/>
+      <c r="J573" s="7"/>
       <c r="K573" s="30"/>
       <c r="L573" s="31">
         <f t="shared" si="44"/>
@@ -17000,7 +17119,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J574" s="22"/>
+      <c r="J574" s="7"/>
       <c r="K574" s="30"/>
       <c r="L574" s="31">
         <f t="shared" si="44"/>
@@ -17022,7 +17141,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J575" s="22"/>
+      <c r="J575" s="7"/>
       <c r="K575" s="30"/>
       <c r="L575" s="31">
         <f t="shared" si="44"/>
@@ -17044,7 +17163,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J576" s="22"/>
+      <c r="J576" s="7"/>
       <c r="K576" s="30"/>
       <c r="L576" s="31">
         <f t="shared" si="44"/>
@@ -17066,7 +17185,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J577" s="22"/>
+      <c r="J577" s="7"/>
       <c r="K577" s="30"/>
       <c r="L577" s="31">
         <f t="shared" si="44"/>
@@ -17088,7 +17207,7 @@
         <f t="shared" ref="I578:I641" si="47">H578*3.281</f>
         <v>0</v>
       </c>
-      <c r="J578" s="22"/>
+      <c r="J578" s="7"/>
       <c r="K578" s="30"/>
       <c r="L578" s="31">
         <f t="shared" ref="L578:L641" si="48">K578*3.281</f>
@@ -17110,7 +17229,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J579" s="22"/>
+      <c r="J579" s="7"/>
       <c r="K579" s="30"/>
       <c r="L579" s="31">
         <f t="shared" si="48"/>
@@ -17132,7 +17251,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J580" s="22"/>
+      <c r="J580" s="7"/>
       <c r="K580" s="30"/>
       <c r="L580" s="31">
         <f t="shared" si="48"/>
@@ -17154,7 +17273,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J581" s="22"/>
+      <c r="J581" s="7"/>
       <c r="K581" s="30"/>
       <c r="L581" s="31">
         <f t="shared" si="48"/>
@@ -17176,7 +17295,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J582" s="22"/>
+      <c r="J582" s="7"/>
       <c r="K582" s="30"/>
       <c r="L582" s="31">
         <f t="shared" si="48"/>
@@ -17198,7 +17317,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J583" s="22"/>
+      <c r="J583" s="7"/>
       <c r="K583" s="30"/>
       <c r="L583" s="31">
         <f t="shared" si="48"/>
@@ -17220,7 +17339,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J584" s="22"/>
+      <c r="J584" s="7"/>
       <c r="K584" s="30"/>
       <c r="L584" s="31">
         <f t="shared" si="48"/>
@@ -17242,7 +17361,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J585" s="22"/>
+      <c r="J585" s="7"/>
       <c r="K585" s="30"/>
       <c r="L585" s="31">
         <f t="shared" si="48"/>
@@ -17264,7 +17383,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J586" s="22"/>
+      <c r="J586" s="7"/>
       <c r="K586" s="30"/>
       <c r="L586" s="31">
         <f t="shared" si="48"/>
@@ -17286,7 +17405,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J587" s="22"/>
+      <c r="J587" s="7"/>
       <c r="K587" s="30"/>
       <c r="L587" s="31">
         <f t="shared" si="48"/>
@@ -17308,7 +17427,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J588" s="22"/>
+      <c r="J588" s="7"/>
       <c r="K588" s="30"/>
       <c r="L588" s="31">
         <f t="shared" si="48"/>
@@ -17330,7 +17449,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J589" s="22"/>
+      <c r="J589" s="7"/>
       <c r="K589" s="30"/>
       <c r="L589" s="31">
         <f t="shared" si="48"/>
@@ -17352,7 +17471,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J590" s="22"/>
+      <c r="J590" s="7"/>
       <c r="K590" s="30"/>
       <c r="L590" s="31">
         <f t="shared" si="48"/>
@@ -17374,7 +17493,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J591" s="22"/>
+      <c r="J591" s="7"/>
       <c r="K591" s="30"/>
       <c r="L591" s="31">
         <f t="shared" si="48"/>
@@ -17396,7 +17515,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J592" s="22"/>
+      <c r="J592" s="7"/>
       <c r="K592" s="30"/>
       <c r="L592" s="31">
         <f t="shared" si="48"/>
@@ -17418,7 +17537,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J593" s="22"/>
+      <c r="J593" s="7"/>
       <c r="K593" s="30"/>
       <c r="L593" s="31">
         <f t="shared" si="48"/>
@@ -17440,7 +17559,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J594" s="22"/>
+      <c r="J594" s="7"/>
       <c r="K594" s="30"/>
       <c r="L594" s="31">
         <f t="shared" si="48"/>
@@ -17462,7 +17581,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J595" s="22"/>
+      <c r="J595" s="7"/>
       <c r="K595" s="30"/>
       <c r="L595" s="31">
         <f t="shared" si="48"/>
@@ -17484,7 +17603,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J596" s="22"/>
+      <c r="J596" s="7"/>
       <c r="K596" s="30"/>
       <c r="L596" s="31">
         <f t="shared" si="48"/>
@@ -17506,7 +17625,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J597" s="22"/>
+      <c r="J597" s="7"/>
       <c r="K597" s="30"/>
       <c r="L597" s="31">
         <f t="shared" si="48"/>
@@ -17528,7 +17647,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J598" s="22"/>
+      <c r="J598" s="7"/>
       <c r="K598" s="30"/>
       <c r="L598" s="31">
         <f t="shared" si="48"/>
@@ -17550,7 +17669,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J599" s="22"/>
+      <c r="J599" s="7"/>
       <c r="K599" s="30"/>
       <c r="L599" s="31">
         <f t="shared" si="48"/>
@@ -17572,7 +17691,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J600" s="22"/>
+      <c r="J600" s="7"/>
       <c r="K600" s="30"/>
       <c r="L600" s="31">
         <f t="shared" si="48"/>
@@ -17594,7 +17713,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J601" s="22"/>
+      <c r="J601" s="7"/>
       <c r="K601" s="30"/>
       <c r="L601" s="31">
         <f t="shared" si="48"/>
@@ -17616,7 +17735,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J602" s="22"/>
+      <c r="J602" s="7"/>
       <c r="K602" s="30"/>
       <c r="L602" s="31">
         <f t="shared" si="48"/>
@@ -17638,7 +17757,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J603" s="22"/>
+      <c r="J603" s="7"/>
       <c r="K603" s="30"/>
       <c r="L603" s="31">
         <f t="shared" si="48"/>
@@ -17660,7 +17779,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J604" s="22"/>
+      <c r="J604" s="7"/>
       <c r="K604" s="30"/>
       <c r="L604" s="31">
         <f t="shared" si="48"/>
@@ -17682,7 +17801,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J605" s="22"/>
+      <c r="J605" s="7"/>
       <c r="K605" s="30"/>
       <c r="L605" s="31">
         <f t="shared" si="48"/>
@@ -17704,7 +17823,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J606" s="22"/>
+      <c r="J606" s="7"/>
       <c r="K606" s="30"/>
       <c r="L606" s="31">
         <f t="shared" si="48"/>
@@ -17726,7 +17845,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J607" s="22"/>
+      <c r="J607" s="7"/>
       <c r="K607" s="30"/>
       <c r="L607" s="31">
         <f t="shared" si="48"/>
@@ -17748,7 +17867,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J608" s="22"/>
+      <c r="J608" s="7"/>
       <c r="K608" s="30"/>
       <c r="L608" s="31">
         <f t="shared" si="48"/>
@@ -17770,7 +17889,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J609" s="22"/>
+      <c r="J609" s="7"/>
       <c r="K609" s="30"/>
       <c r="L609" s="31">
         <f t="shared" si="48"/>
@@ -17792,7 +17911,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J610" s="22"/>
+      <c r="J610" s="7"/>
       <c r="K610" s="30"/>
       <c r="L610" s="31">
         <f t="shared" si="48"/>
@@ -17814,7 +17933,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J611" s="22"/>
+      <c r="J611" s="7"/>
       <c r="K611" s="30"/>
       <c r="L611" s="31">
         <f t="shared" si="48"/>
@@ -17836,7 +17955,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J612" s="22"/>
+      <c r="J612" s="7"/>
       <c r="K612" s="30"/>
       <c r="L612" s="31">
         <f t="shared" si="48"/>
@@ -17858,7 +17977,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J613" s="22"/>
+      <c r="J613" s="7"/>
       <c r="K613" s="30"/>
       <c r="L613" s="31">
         <f t="shared" si="48"/>
@@ -17880,7 +17999,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J614" s="22"/>
+      <c r="J614" s="7"/>
       <c r="K614" s="30"/>
       <c r="L614" s="31">
         <f t="shared" si="48"/>
@@ -17902,7 +18021,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J615" s="22"/>
+      <c r="J615" s="7"/>
       <c r="K615" s="30"/>
       <c r="L615" s="31">
         <f t="shared" si="48"/>
@@ -17924,7 +18043,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J616" s="22"/>
+      <c r="J616" s="7"/>
       <c r="K616" s="30"/>
       <c r="L616" s="31">
         <f t="shared" si="48"/>
@@ -17946,7 +18065,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J617" s="22"/>
+      <c r="J617" s="7"/>
       <c r="K617" s="30"/>
       <c r="L617" s="31">
         <f t="shared" si="48"/>
@@ -17968,7 +18087,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J618" s="22"/>
+      <c r="J618" s="7"/>
       <c r="K618" s="30"/>
       <c r="L618" s="31">
         <f t="shared" si="48"/>
@@ -17990,7 +18109,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J619" s="22"/>
+      <c r="J619" s="7"/>
       <c r="K619" s="30"/>
       <c r="L619" s="31">
         <f t="shared" si="48"/>
@@ -18012,7 +18131,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J620" s="22"/>
+      <c r="J620" s="7"/>
       <c r="K620" s="30"/>
       <c r="L620" s="31">
         <f t="shared" si="48"/>
@@ -18034,7 +18153,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J621" s="22"/>
+      <c r="J621" s="7"/>
       <c r="K621" s="30"/>
       <c r="L621" s="31">
         <f t="shared" si="48"/>
@@ -18056,7 +18175,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J622" s="22"/>
+      <c r="J622" s="7"/>
       <c r="K622" s="30"/>
       <c r="L622" s="31">
         <f t="shared" si="48"/>
@@ -18078,7 +18197,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J623" s="22"/>
+      <c r="J623" s="7"/>
       <c r="K623" s="30"/>
       <c r="L623" s="31">
         <f t="shared" si="48"/>
@@ -18100,7 +18219,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J624" s="22"/>
+      <c r="J624" s="7"/>
       <c r="K624" s="30"/>
       <c r="L624" s="31">
         <f t="shared" si="48"/>
@@ -18122,7 +18241,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J625" s="22"/>
+      <c r="J625" s="7"/>
       <c r="K625" s="30"/>
       <c r="L625" s="31">
         <f t="shared" si="48"/>
@@ -18144,7 +18263,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J626" s="22"/>
+      <c r="J626" s="7"/>
       <c r="K626" s="30"/>
       <c r="L626" s="31">
         <f t="shared" si="48"/>
@@ -18166,7 +18285,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J627" s="22"/>
+      <c r="J627" s="7"/>
       <c r="K627" s="30"/>
       <c r="L627" s="31">
         <f t="shared" si="48"/>
@@ -18188,7 +18307,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J628" s="22"/>
+      <c r="J628" s="7"/>
       <c r="K628" s="30"/>
       <c r="L628" s="31">
         <f t="shared" si="48"/>
@@ -18210,7 +18329,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J629" s="22"/>
+      <c r="J629" s="7"/>
       <c r="K629" s="30"/>
       <c r="L629" s="31">
         <f t="shared" si="48"/>
@@ -18232,7 +18351,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J630" s="22"/>
+      <c r="J630" s="7"/>
       <c r="K630" s="30"/>
       <c r="L630" s="31">
         <f t="shared" si="48"/>
@@ -18254,7 +18373,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J631" s="22"/>
+      <c r="J631" s="7"/>
       <c r="K631" s="30"/>
       <c r="L631" s="31">
         <f t="shared" si="48"/>
@@ -18276,7 +18395,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J632" s="22"/>
+      <c r="J632" s="7"/>
       <c r="K632" s="30"/>
       <c r="L632" s="31">
         <f t="shared" si="48"/>
@@ -18298,7 +18417,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J633" s="22"/>
+      <c r="J633" s="7"/>
       <c r="K633" s="30"/>
       <c r="L633" s="31">
         <f t="shared" si="48"/>
@@ -18320,7 +18439,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J634" s="22"/>
+      <c r="J634" s="7"/>
       <c r="K634" s="30"/>
       <c r="L634" s="31">
         <f t="shared" si="48"/>
@@ -18342,7 +18461,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J635" s="22"/>
+      <c r="J635" s="7"/>
       <c r="K635" s="30"/>
       <c r="L635" s="31">
         <f t="shared" si="48"/>
@@ -18364,7 +18483,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J636" s="22"/>
+      <c r="J636" s="7"/>
       <c r="K636" s="30"/>
       <c r="L636" s="31">
         <f t="shared" si="48"/>
@@ -18386,7 +18505,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J637" s="22"/>
+      <c r="J637" s="7"/>
       <c r="K637" s="30"/>
       <c r="L637" s="31">
         <f t="shared" si="48"/>
@@ -18408,7 +18527,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J638" s="22"/>
+      <c r="J638" s="7"/>
       <c r="K638" s="30"/>
       <c r="L638" s="31">
         <f t="shared" si="48"/>
@@ -18430,7 +18549,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J639" s="22"/>
+      <c r="J639" s="7"/>
       <c r="K639" s="30"/>
       <c r="L639" s="31">
         <f t="shared" si="48"/>
@@ -18452,7 +18571,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J640" s="22"/>
+      <c r="J640" s="7"/>
       <c r="K640" s="30"/>
       <c r="L640" s="31">
         <f t="shared" si="48"/>
@@ -18474,7 +18593,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J641" s="22"/>
+      <c r="J641" s="7"/>
       <c r="K641" s="30"/>
       <c r="L641" s="31">
         <f t="shared" si="48"/>
@@ -18496,7 +18615,7 @@
         <f t="shared" ref="I642:I683" si="51">H642*3.281</f>
         <v>0</v>
       </c>
-      <c r="J642" s="22"/>
+      <c r="J642" s="7"/>
       <c r="K642" s="30"/>
       <c r="L642" s="31">
         <f t="shared" ref="L642:L683" si="52">K642*3.281</f>
@@ -18518,7 +18637,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J643" s="22"/>
+      <c r="J643" s="7"/>
       <c r="K643" s="30"/>
       <c r="L643" s="31">
         <f t="shared" si="52"/>
@@ -18540,7 +18659,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J644" s="22"/>
+      <c r="J644" s="7"/>
       <c r="K644" s="30"/>
       <c r="L644" s="31">
         <f t="shared" si="52"/>
@@ -18562,7 +18681,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J645" s="22"/>
+      <c r="J645" s="7"/>
       <c r="K645" s="30"/>
       <c r="L645" s="31">
         <f t="shared" si="52"/>
@@ -18584,7 +18703,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J646" s="22"/>
+      <c r="J646" s="7"/>
       <c r="K646" s="30"/>
       <c r="L646" s="31">
         <f t="shared" si="52"/>
@@ -18606,7 +18725,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J647" s="22"/>
+      <c r="J647" s="7"/>
       <c r="K647" s="30"/>
       <c r="L647" s="31">
         <f t="shared" si="52"/>
@@ -18628,7 +18747,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J648" s="22"/>
+      <c r="J648" s="7"/>
       <c r="K648" s="30"/>
       <c r="L648" s="31">
         <f t="shared" si="52"/>
@@ -18650,7 +18769,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J649" s="22"/>
+      <c r="J649" s="7"/>
       <c r="K649" s="30"/>
       <c r="L649" s="31">
         <f t="shared" si="52"/>
@@ -18672,7 +18791,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J650" s="22"/>
+      <c r="J650" s="7"/>
       <c r="K650" s="30"/>
       <c r="L650" s="31">
         <f t="shared" si="52"/>
@@ -18694,7 +18813,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J651" s="22"/>
+      <c r="J651" s="7"/>
       <c r="K651" s="30"/>
       <c r="L651" s="31">
         <f t="shared" si="52"/>
@@ -18716,7 +18835,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J652" s="22"/>
+      <c r="J652" s="7"/>
       <c r="K652" s="30"/>
       <c r="L652" s="31">
         <f t="shared" si="52"/>
@@ -18738,7 +18857,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J653" s="22"/>
+      <c r="J653" s="7"/>
       <c r="K653" s="30"/>
       <c r="L653" s="31">
         <f t="shared" si="52"/>
@@ -18760,7 +18879,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J654" s="22"/>
+      <c r="J654" s="7"/>
       <c r="K654" s="30"/>
       <c r="L654" s="31">
         <f t="shared" si="52"/>
@@ -18782,7 +18901,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J655" s="22"/>
+      <c r="J655" s="7"/>
       <c r="K655" s="30"/>
       <c r="L655" s="31">
         <f t="shared" si="52"/>
@@ -18804,7 +18923,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J656" s="22"/>
+      <c r="J656" s="7"/>
       <c r="K656" s="30"/>
       <c r="L656" s="31">
         <f t="shared" si="52"/>
@@ -18826,7 +18945,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J657" s="22"/>
+      <c r="J657" s="7"/>
       <c r="K657" s="30"/>
       <c r="L657" s="31">
         <f t="shared" si="52"/>
@@ -18848,7 +18967,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J658" s="22"/>
+      <c r="J658" s="7"/>
       <c r="K658" s="30"/>
       <c r="L658" s="31">
         <f t="shared" si="52"/>
@@ -18870,7 +18989,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J659" s="22"/>
+      <c r="J659" s="7"/>
       <c r="K659" s="30"/>
       <c r="L659" s="31">
         <f t="shared" si="52"/>
@@ -18892,7 +19011,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J660" s="22"/>
+      <c r="J660" s="7"/>
       <c r="K660" s="30"/>
       <c r="L660" s="31">
         <f t="shared" si="52"/>
@@ -18914,7 +19033,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J661" s="22"/>
+      <c r="J661" s="7"/>
       <c r="K661" s="30"/>
       <c r="L661" s="31">
         <f t="shared" si="52"/>
@@ -18936,7 +19055,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J662" s="22"/>
+      <c r="J662" s="7"/>
       <c r="K662" s="30"/>
       <c r="L662" s="31">
         <f t="shared" si="52"/>
@@ -18958,7 +19077,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J663" s="22"/>
+      <c r="J663" s="7"/>
       <c r="K663" s="30"/>
       <c r="L663" s="31">
         <f t="shared" si="52"/>
@@ -18980,7 +19099,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J664" s="22"/>
+      <c r="J664" s="7"/>
       <c r="K664" s="30"/>
       <c r="L664" s="31">
         <f t="shared" si="52"/>
@@ -19002,7 +19121,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J665" s="22"/>
+      <c r="J665" s="7"/>
       <c r="K665" s="30"/>
       <c r="L665" s="31">
         <f t="shared" si="52"/>
@@ -19024,7 +19143,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J666" s="22"/>
+      <c r="J666" s="7"/>
       <c r="K666" s="30"/>
       <c r="L666" s="31">
         <f t="shared" si="52"/>
@@ -19046,7 +19165,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J667" s="22"/>
+      <c r="J667" s="7"/>
       <c r="K667" s="30"/>
       <c r="L667" s="31">
         <f t="shared" si="52"/>
@@ -19068,7 +19187,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J668" s="22"/>
+      <c r="J668" s="7"/>
       <c r="K668" s="30"/>
       <c r="L668" s="31">
         <f t="shared" si="52"/>
@@ -19090,7 +19209,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J669" s="22"/>
+      <c r="J669" s="7"/>
       <c r="K669" s="30"/>
       <c r="L669" s="31">
         <f t="shared" si="52"/>
@@ -19112,7 +19231,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J670" s="22"/>
+      <c r="J670" s="7"/>
       <c r="K670" s="30"/>
       <c r="L670" s="31">
         <f t="shared" si="52"/>
@@ -19134,7 +19253,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J671" s="22"/>
+      <c r="J671" s="7"/>
       <c r="K671" s="30"/>
       <c r="L671" s="31">
         <f t="shared" si="52"/>
@@ -19156,7 +19275,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J672" s="22"/>
+      <c r="J672" s="7"/>
       <c r="K672" s="30"/>
       <c r="L672" s="31">
         <f t="shared" si="52"/>
@@ -19178,7 +19297,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J673" s="22"/>
+      <c r="J673" s="7"/>
       <c r="K673" s="30"/>
       <c r="L673" s="31">
         <f t="shared" si="52"/>
@@ -19200,7 +19319,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J674" s="22"/>
+      <c r="J674" s="7"/>
       <c r="K674" s="30"/>
       <c r="L674" s="31">
         <f t="shared" si="52"/>
@@ -19222,7 +19341,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J675" s="22"/>
+      <c r="J675" s="7"/>
       <c r="K675" s="30"/>
       <c r="L675" s="31">
         <f t="shared" si="52"/>
@@ -19244,7 +19363,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J676" s="22"/>
+      <c r="J676" s="7"/>
       <c r="K676" s="30"/>
       <c r="L676" s="31">
         <f t="shared" si="52"/>
@@ -19266,7 +19385,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J677" s="22"/>
+      <c r="J677" s="7"/>
       <c r="K677" s="30"/>
       <c r="L677" s="31">
         <f t="shared" si="52"/>
@@ -19288,7 +19407,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J678" s="22"/>
+      <c r="J678" s="7"/>
       <c r="K678" s="30"/>
       <c r="L678" s="31">
         <f t="shared" si="52"/>
@@ -19310,7 +19429,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J679" s="22"/>
+      <c r="J679" s="7"/>
       <c r="K679" s="30"/>
       <c r="L679" s="31">
         <f t="shared" si="52"/>
@@ -19332,7 +19451,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J680" s="22"/>
+      <c r="J680" s="7"/>
       <c r="K680" s="30"/>
       <c r="L680" s="31">
         <f t="shared" si="52"/>
@@ -19354,7 +19473,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J681" s="22"/>
+      <c r="J681" s="7"/>
       <c r="K681" s="30"/>
       <c r="L681" s="31">
         <f t="shared" si="52"/>
@@ -19376,7 +19495,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J682" s="22"/>
+      <c r="J682" s="7"/>
       <c r="K682" s="30"/>
       <c r="L682" s="31">
         <f t="shared" si="52"/>
@@ -19398,7 +19517,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J683" s="22"/>
+      <c r="J683" s="7"/>
       <c r="K683" s="30"/>
       <c r="L683" s="31">
         <f t="shared" si="52"/>
@@ -21855,15 +21974,15 @@
       </c>
       <c r="F58" s="15">
         <f>primary!H60</f>
-        <v>0</v>
+        <v>19.597683633038706</v>
       </c>
       <c r="G58" s="1">
         <f>primary!K60</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H58" s="23">
         <f>primary!N60</f>
-        <v>0</v>
+        <v>200.66616338582676</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>primary!O60</f>
@@ -22191,15 +22310,15 @@
       </c>
       <c r="F66" s="15">
         <f>primary!H68</f>
-        <v>0</v>
+        <v>35.35507467235599</v>
       </c>
       <c r="G66" s="1">
         <f>primary!K68</f>
-        <v>0</v>
+        <v>25.76</v>
       </c>
       <c r="H66" s="23">
         <f>primary!N68</f>
-        <v>0</v>
+        <v>248.4458211023622</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>primary!O68</f>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This tree is not on Vanderbilt property, but is included for historical purposes since it was formerly part of Peabody Campus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="1">
+    <comment ref="H23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0">
+    <comment ref="I23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0">
+    <comment ref="K23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="I25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="1">
+    <comment ref="E26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -288,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="1">
+    <comment ref="H26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -312,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0">
+    <comment ref="I28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="1">
+    <comment ref="E35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -360,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="1">
+    <comment ref="H35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -384,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="0">
+    <comment ref="I37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="1">
+    <comment ref="H38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -432,79 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Steven J Baskauf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-measured by SSMV students</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Steve Baskauf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-measured in feet by surveying class</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Steven J Baskauf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-measured by SSMV students</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H38" authorId="1">
+    <comment ref="K38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -548,11 +500,83 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+measured in feet by surveying class</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steven J Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by SSMV students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steven J Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by SSMV students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 measured in feet by Vanderbilt School for Science and Math Students</t>
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1">
+    <comment ref="B42" authorId="1">
       <text>
         <r>
           <rPr>
@@ -576,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="1">
+    <comment ref="H44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -600,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0">
+    <comment ref="I44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K42" authorId="0">
+    <comment ref="K44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="1">
+    <comment ref="E45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -672,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="1">
+    <comment ref="H45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -693,30 +717,6 @@
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H45" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Steve Baskauf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-measured by Vanderbilt School for Science and Math Students</t>
         </r>
       </text>
     </comment>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0">
+    <comment ref="H49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +768,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="1">
+    <comment ref="H50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Steve Baskauf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+measured by Vanderbilt School for Science and Math Students</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -792,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="1">
+    <comment ref="H51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -816,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="1">
+    <comment ref="E52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -840,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="1">
+    <comment ref="H52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -861,30 +885,6 @@
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Steve Baskauf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This tree is not on Vanderbilt property, but is included for historical purposes since it was formerly part of Peabody Campus</t>
         </r>
       </text>
     </comment>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="416">
   <si>
     <t>ID</t>
   </si>
@@ -2258,6 +2258,9 @@
   </si>
   <si>
     <t>http://bioimages.vanderbilt.edu/vanderbilt/12-193</t>
+  </si>
+  <si>
+    <t>2015-11-04</t>
   </si>
 </sst>
 </file>
@@ -2723,7 +2726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2737,8 +2740,8 @@
       <pane xSplit="3330" ySplit="600" topLeftCell="C1" activePane="bottomRight"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="K3" sqref="K3"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +2769,7 @@
         <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2849,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="26">
-        <f t="shared" ref="F4:F35" si="0">E4/2.54</f>
+        <f t="shared" ref="F4:F37" si="0">E4/2.54</f>
         <v>53.1496062992126</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -2869,14 +2872,14 @@
         <v>29.25</v>
       </c>
       <c r="L4" s="30">
-        <f t="shared" ref="L4:L35" si="1">K4*3.281</f>
+        <f t="shared" ref="L4:L37" si="1">K4*3.281</f>
         <v>95.969250000000002</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>319</v>
       </c>
       <c r="N4" s="15">
-        <f t="shared" ref="N4:N35" si="2">IF(K4=0,0,E4/2.54*3.14159+H4*3.281+K4*3.281/4)</f>
+        <f t="shared" ref="N4:N37" si="2">IF(K4=0,0,E4/2.54*3.14159+H4*3.281+K4*3.281/4)</f>
         <v>294.96658415354329</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -3649,2028 +3652,2044 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="9">
+        <v>36.143636999999998</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-86.798165999999995</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="26">
+        <f>E19/2.54</f>
+        <v>44.488188976377955</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="I19" s="21">
+        <f>H19*3.281</f>
+        <v>90.227500000000006</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="29">
+        <v>25.5</v>
+      </c>
+      <c r="L19" s="30">
+        <f>K19*3.281</f>
+        <v>83.665500000000009</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="N19" s="15">
+        <f>IF(K19=0,0,E19/2.54*3.14159+H19*3.281+K19*3.281/4)</f>
+        <v>250.90752460629926</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P19" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>36.147728999999998</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>-86.802057000000005</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E20" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>43.7007874015748</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>28</v>
       </c>
-      <c r="I19" s="21">
-        <f>H19*3.281</f>
+      <c r="I20" s="21">
+        <f>H20*3.281</f>
         <v>91.868000000000009</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K20" s="29">
         <v>24.5</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L20" s="30">
         <f t="shared" si="1"/>
         <v>80.384500000000003</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M20" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N20" s="15">
         <f t="shared" si="2"/>
         <v>249.25408169291339</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>36.148034000000003</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>-86.801743999999999</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>46.45669291338583</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G21" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H21" s="37">
         <v>26.2</v>
       </c>
-      <c r="I20" s="21">
-        <f>H20*3.281</f>
+      <c r="I21" s="21">
+        <f>H21*3.281</f>
         <v>85.962199999999996</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K21" s="39">
         <v>21</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L21" s="41">
         <f t="shared" si="1"/>
         <v>68.900999999999996</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M21" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N21" s="15">
         <f t="shared" si="2"/>
         <v>249.13533188976376</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="9">
+        <v>36.144139000000003</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-86.798651000000007</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="26">
+        <f>E22/2.54</f>
+        <v>45.472440944881889</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="13">
+        <v>26</v>
+      </c>
+      <c r="I22" s="21">
+        <f>H22*3.281</f>
+        <v>85.305999999999997</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K22" s="40">
+        <v>24</v>
+      </c>
+      <c r="L22" s="42">
+        <f>K22*3.281</f>
+        <v>78.744</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="N22" s="15">
+        <f>IF(K22=0,0,E22/2.54*3.14159+H22*3.281+K22*3.281/4)</f>
+        <v>247.84776574803149</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P22" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <v>36.148788000000003</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D23" s="8">
         <v>-86.803242999999995</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F23" s="26">
         <f t="shared" si="0"/>
         <v>35.433070866141733</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="36">
-        <f>I21/3.281</f>
+      <c r="H23" s="36">
+        <f>I23/3.281</f>
         <v>35.35507467235599</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I23" s="35">
         <v>116</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K23" s="29">
         <v>25.76</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L23" s="30">
         <f t="shared" si="1"/>
         <v>84.518560000000008</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M23" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N23" s="15">
         <f t="shared" si="2"/>
         <v>248.4458211023622</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P23" t="s">
         <v>352</v>
       </c>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>36.144267999999997</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>-86.804064999999994</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F24" s="26">
         <f t="shared" si="0"/>
         <v>51.574803149606296</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G24" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H24" s="13">
         <v>20</v>
       </c>
-      <c r="I22" s="21">
-        <f>H22*3.281</f>
+      <c r="I24" s="21">
+        <f>H24*3.281</f>
         <v>65.62</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J24" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K24" s="29">
         <v>22.5</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L24" s="30">
         <f t="shared" si="1"/>
         <v>73.822500000000005</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M24" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N24" s="15">
         <f t="shared" si="2"/>
         <v>246.10251082677163</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P24" t="s">
         <v>353</v>
       </c>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>36.147948999999997</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>-86.804061000000004</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F25" s="26">
         <f t="shared" si="0"/>
         <v>41.732283464566926</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="13">
-        <f>I23/3.281</f>
+      <c r="H25" s="13">
+        <f>I25/3.281</f>
         <v>28.131667174641876</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I25" s="23">
         <v>92.3</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K25" s="39">
         <v>26</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L25" s="41">
         <f t="shared" si="1"/>
         <v>85.305999999999997</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M25" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N25" s="15">
         <f t="shared" si="2"/>
         <v>244.7322244094488</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P25" t="s">
         <v>370</v>
       </c>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E26" s="26">
         <v>127</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G26" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H26" s="14">
         <v>22.52</v>
       </c>
-      <c r="I24" s="21">
-        <f>H24*3.281</f>
+      <c r="I26" s="21">
+        <f>H26*3.281</f>
         <v>73.888120000000001</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K26" s="29">
         <v>13.89</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L26" s="30">
         <f t="shared" si="1"/>
         <v>45.573090000000001</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M26" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N26" s="21">
         <f t="shared" si="2"/>
         <v>242.36089250000001</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>36.146698000000001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>-86.805678</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>43.30708661417323</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H27" s="13">
         <v>27</v>
       </c>
-      <c r="I25" s="21">
-        <f>H25*3.281</f>
+      <c r="I27" s="21">
+        <f>H27*3.281</f>
         <v>88.587000000000003</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K27" s="29">
         <v>20</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L27" s="30">
         <f t="shared" si="1"/>
         <v>65.62</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M27" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N27" s="15">
         <f t="shared" si="2"/>
         <v>241.04511023622049</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P27" t="s">
         <v>354</v>
       </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>40.944881889763778</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="13">
-        <f>I26/3.281</f>
+      <c r="H28" s="13">
+        <f>I28/3.281</f>
         <v>27.400182871075891</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I28" s="23">
         <v>89.9</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K28" s="39">
         <v>25.5</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L28" s="41">
         <f t="shared" si="1"/>
         <v>83.665500000000009</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M28" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N28" s="15">
         <f t="shared" si="2"/>
         <v>239.448406496063</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>36.144891999999999</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>-86.797360999999995</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F29" s="26">
         <f t="shared" si="0"/>
         <v>49.015748031496059</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G29" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H29" s="13">
         <v>21</v>
       </c>
-      <c r="I27" s="21">
-        <f t="shared" ref="I27:I34" si="4">H27*3.281</f>
+      <c r="I29" s="21">
+        <f t="shared" ref="I29:I36" si="4">H29*3.281</f>
         <v>68.900999999999996</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K29" s="29">
         <v>19.25</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L29" s="30">
         <f t="shared" si="1"/>
         <v>63.15925</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M29" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N29" s="15">
         <f t="shared" si="2"/>
         <v>238.67819635826768</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P29" t="s">
         <v>355</v>
       </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C30" s="9">
         <v>36.142924000000001</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="9">
         <v>-86.798512000000002</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>48.228346456692911</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H30" s="12">
         <v>22.5</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I30" s="21">
         <f t="shared" si="4"/>
         <v>73.822500000000005</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K30" s="29">
         <v>15</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L30" s="30">
         <f t="shared" si="1"/>
         <v>49.215000000000003</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M30" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N30" s="15">
         <f t="shared" si="2"/>
         <v>237.63994094488189</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P30" t="s">
         <v>356</v>
       </c>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>36.147565999999998</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-86.802029000000005</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F31" s="26">
         <f t="shared" si="0"/>
         <v>47.244094488188978</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H31" s="13">
         <v>20.5</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I31" s="21">
         <f t="shared" si="4"/>
         <v>67.260500000000008</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K31" s="29">
         <v>21.75</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L31" s="30">
         <f t="shared" si="1"/>
         <v>71.361750000000001</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M31" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N31" s="15">
         <f t="shared" si="2"/>
         <v>233.52251230314963</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P31" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F32" s="26">
         <f t="shared" si="0"/>
         <v>40.551181102362207</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G32" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H32" s="13">
         <v>25</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I32" s="21">
         <f t="shared" si="4"/>
         <v>82.025000000000006</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J32" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K32" s="29">
         <v>27.5</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L32" s="30">
         <f t="shared" si="1"/>
         <v>90.227500000000006</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M32" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N32" s="15">
         <f t="shared" si="2"/>
         <v>231.97706003937009</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C33" s="8">
         <v>36.145141000000002</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D33" s="8">
         <v>-86.802242000000007</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E33" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F33" s="26">
         <f t="shared" si="0"/>
         <v>37.00787401574803</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G33" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H33" s="12">
         <v>27</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I33" s="21">
         <f t="shared" si="4"/>
         <v>88.587000000000003</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K33" s="29">
         <v>29</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L33" s="30">
         <f t="shared" si="1"/>
         <v>95.149000000000001</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M33" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N33" s="15">
         <f t="shared" si="2"/>
         <v>228.63781692913383</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P33" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="34" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>36.143189999999997</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>-86.798900000000003</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F34" s="26">
         <f t="shared" si="0"/>
         <v>47.244094488188978</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G34" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H34" s="13">
         <v>20</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I34" s="21">
         <f t="shared" si="4"/>
         <v>65.62</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K34" s="29">
         <v>17.5</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L34" s="30">
         <f t="shared" si="1"/>
         <v>57.417500000000004</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="M34" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N34" s="15">
         <f t="shared" si="2"/>
         <v>228.39594980314962</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P34" t="s">
         <v>359</v>
       </c>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E35" s="26">
         <v>78.424999999999997</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F35" s="26">
         <f t="shared" si="0"/>
         <v>30.875984251968504</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G35" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H35" s="34">
         <v>35.466000000000001</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I35" s="35">
         <f t="shared" si="4"/>
         <v>116.36394600000001</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K35" s="29">
         <v>17.983000000000001</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L35" s="30">
         <f t="shared" si="1"/>
         <v>59.002223000000001</v>
       </c>
-      <c r="M33" s="31" t="s">
+      <c r="M35" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N35" s="21">
         <f t="shared" si="2"/>
         <v>228.11418511614173</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>36.147170000000003</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>-86.801055000000005</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E36" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F36" s="26">
         <f t="shared" si="0"/>
         <v>48.818897637795274</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H36" s="13">
         <v>17</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I36" s="21">
         <f t="shared" si="4"/>
         <v>55.777000000000001</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J36" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K36" s="29">
         <v>20.75</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L36" s="30">
         <f t="shared" si="1"/>
         <v>68.080750000000009</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M36" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N36" s="15">
         <f t="shared" si="2"/>
         <v>226.16614812992125</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P36" t="s">
         <v>360</v>
       </c>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>36.145836000000003</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>-86.802235999999994</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E37" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F37" s="26">
         <f t="shared" si="0"/>
         <v>42.913385826771652</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G37" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="13">
-        <f>I35/3.281</f>
+      <c r="H37" s="13">
+        <f>I37/3.281</f>
         <v>22.005486132276744</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I37" s="23">
         <v>72.2</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K37" s="39">
         <v>19</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L37" s="41">
         <f t="shared" si="1"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M37" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N37" s="15">
         <f t="shared" si="2"/>
         <v>222.60101377952756</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P37" t="s">
         <v>368</v>
       </c>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C38" s="3">
         <v>36.147970000000001</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D38" s="3">
         <v>-86.802019000000001</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="26">
-        <f t="shared" ref="F36:F67" si="5">E36/2.54</f>
+      <c r="F38" s="26">
+        <f t="shared" ref="F38:F54" si="5">E38/2.54</f>
         <v>40.944881889763778</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G38" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H38" s="13">
         <v>23.67</v>
       </c>
-      <c r="I36" s="21">
-        <f>H36*3.281</f>
+      <c r="I38" s="21">
+        <f>H38*3.281</f>
         <v>77.661270000000002</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K38" s="29">
         <v>17.07</v>
       </c>
-      <c r="L36" s="30">
-        <f t="shared" ref="L36:L67" si="6">K36*3.281</f>
+      <c r="L38" s="30">
+        <f t="shared" ref="L38:L54" si="6">K38*3.281</f>
         <v>56.006670000000007</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M38" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N36" s="35">
-        <f t="shared" ref="N36:N52" si="7">IF(K36=0,0,E36/2.54*3.14159+H36*3.281+K36*3.281/4)</f>
+      <c r="N38" s="35">
+        <f t="shared" ref="N38:N54" si="7">IF(K38=0,0,E38/2.54*3.14159+H38*3.281+K38*3.281/4)</f>
         <v>220.29496899606298</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C39" s="8">
         <v>36.146864000000001</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D39" s="8">
         <v>-86.801839000000001</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E39" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F39" s="26">
         <f t="shared" si="5"/>
         <v>32.677165354330711</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G39" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="13">
-        <f>I37/3.281</f>
+      <c r="H39" s="13">
+        <f>I39/3.281</f>
         <v>28.649801889667781</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I39" s="23">
         <v>94</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K39" s="29">
         <v>20.5</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L39" s="30">
         <f t="shared" si="6"/>
         <v>67.260500000000008</v>
       </c>
-      <c r="M37" s="27" t="s">
+      <c r="M39" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N39" s="15">
         <f t="shared" si="7"/>
         <v>213.47338090551179</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>36.148797999999999</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>-86.801866000000004</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E40" s="26">
         <v>107.53</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F40" s="26">
         <f t="shared" si="5"/>
         <v>42.334645669291341</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G40" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H40" s="13">
         <v>20.420000000000002</v>
       </c>
-      <c r="I38" s="21">
-        <f>H38*3.281</f>
+      <c r="I40" s="21">
+        <f>H40*3.281</f>
         <v>66.998020000000011</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K40" s="29">
         <v>14.87</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L40" s="30">
         <f t="shared" si="6"/>
         <v>48.788469999999997</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M40" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N40" s="35">
         <f t="shared" si="7"/>
         <v>212.19323698818897</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>36.146563999999998</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>-86.801297000000005</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F41" s="26">
         <f t="shared" si="5"/>
         <v>43.7007874015748</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G41" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="13">
-        <f>I39/3.281</f>
+      <c r="H41" s="13">
+        <f>I41/3.281</f>
         <v>18.40902163974398</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I41" s="23">
         <v>60.4</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K41" s="39">
         <v>16</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L41" s="41">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="M41" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N41" s="15">
         <f t="shared" si="7"/>
         <v>210.81395669291337</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P41" t="s">
         <v>366</v>
       </c>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C42" s="3">
         <v>36.148634000000001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D42" s="3">
         <v>-86.801985999999999</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F42" s="26">
         <f t="shared" si="5"/>
         <v>39.763779527559052</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G42" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H42" s="13">
         <v>19.5</v>
       </c>
-      <c r="I40" s="21">
-        <f>H40*3.281</f>
+      <c r="I42" s="21">
+        <f>H42*3.281</f>
         <v>63.979500000000002</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K42" s="29">
         <v>18</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L42" s="30">
         <f t="shared" si="6"/>
         <v>59.058</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M42" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N42" s="15">
         <f t="shared" si="7"/>
         <v>203.66549212598426</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P42" t="s">
         <v>361</v>
       </c>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C43" s="3">
         <v>36.148558999999999</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D43" s="3">
         <v>-86.803090999999995</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E43" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F43" s="26">
         <f t="shared" si="5"/>
         <v>39.370078740157481</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G43" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H43" s="13">
         <v>18</v>
       </c>
-      <c r="I41" s="21">
-        <f>H41*3.281</f>
+      <c r="I43" s="21">
+        <f>H43*3.281</f>
         <v>59.058</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K43" s="29">
         <v>23.5</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L43" s="30">
         <f t="shared" si="6"/>
         <v>77.103499999999997</v>
       </c>
-      <c r="M41" s="27" t="s">
+      <c r="M43" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N43" s="15">
         <f t="shared" si="7"/>
         <v>202.01852066929132</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C44" s="3">
         <v>36.148681000000003</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>-86.802809999999994</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E44" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F44" s="26">
         <f t="shared" si="5"/>
         <v>37.401574803149607</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G44" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="13">
-        <f>I42/3.281</f>
+      <c r="H44" s="13">
+        <f>I44/3.281</f>
         <v>19.597683633038706</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I44" s="21">
         <v>64.3</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K44" s="40">
         <v>23</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L44" s="42">
         <f t="shared" si="6"/>
         <v>75.463000000000008</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N44" s="15">
         <f t="shared" si="7"/>
         <v>200.66616338582676</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>36.148788000000003</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>-86.803242999999995</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E45" s="26">
         <v>95.5</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F45" s="26">
         <f t="shared" si="5"/>
         <v>37.598425196850393</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G45" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H45" s="13">
         <v>16.78</v>
       </c>
-      <c r="I43" s="21">
-        <f t="shared" ref="I43:I52" si="8">H43*3.281</f>
+      <c r="I45" s="21">
+        <f t="shared" ref="I45:I54" si="8">H45*3.281</f>
         <v>55.055180000000007</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J45" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K45" s="29">
         <v>21.25</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L45" s="30">
         <f t="shared" si="6"/>
         <v>69.721249999999998</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M45" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N45" s="15">
         <f t="shared" si="7"/>
         <v>190.60432911417325</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>36.142912000000003</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>-86.798676</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F46" s="26">
         <f t="shared" si="5"/>
         <v>37.204724409448815</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G46" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H46" s="13">
         <v>18.100000000000001</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I46" s="21">
         <f t="shared" si="8"/>
         <v>59.386100000000006</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K46" s="29">
         <v>13.5</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L46" s="30">
         <f t="shared" si="6"/>
         <v>44.293500000000002</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M46" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N46" s="15">
         <f t="shared" si="7"/>
         <v>187.34146515748031</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P46" t="s">
         <v>412</v>
       </c>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>36.146026999999997</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>-86.802841999999998</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F47" s="26">
         <f t="shared" si="5"/>
         <v>38.188976377952756</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H47" s="37">
         <v>13.5</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I47" s="21">
         <f t="shared" si="8"/>
         <v>44.293500000000002</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K47" s="39">
         <v>22.5</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L47" s="41">
         <f t="shared" si="6"/>
         <v>73.822500000000005</v>
       </c>
-      <c r="M45" s="38" t="s">
+      <c r="M47" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N47" s="15">
         <f t="shared" si="7"/>
         <v>182.72323129921259</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>36.142820999999998</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>-86.798294999999996</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F48" s="26">
         <f t="shared" si="5"/>
         <v>33.85826771653543</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G48" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H48" s="13">
         <v>16.3</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I48" s="21">
         <f t="shared" si="8"/>
         <v>53.480300000000007</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K48" s="40">
         <v>15.6</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L48" s="42">
         <f t="shared" si="6"/>
         <v>51.183599999999998</v>
       </c>
-      <c r="M46" s="33" t="s">
+      <c r="M48" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N48" s="15">
         <f t="shared" si="7"/>
         <v>172.64499527559053</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P48" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>36.145698000000003</v>
       </c>
-      <c r="D47">
+      <c r="D49">
         <v>-86.802318</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E49" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F49" s="26">
         <f t="shared" si="5"/>
         <v>29.724409448818896</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G49" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H49" s="37">
         <v>19.600000000000001</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I49" s="21">
         <f t="shared" si="8"/>
         <v>64.307600000000008</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J49" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K49" s="39">
         <v>16</v>
       </c>
-      <c r="L47" s="41">
+      <c r="L49" s="41">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M47" s="38" t="s">
+      <c r="M49" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N49" s="15">
         <f t="shared" si="7"/>
         <v>170.81350748031494</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P49" t="s">
         <v>376</v>
       </c>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C50" s="9">
         <v>36.143526999999999</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D50" s="9">
         <v>-86.802790999999999</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F50" s="26">
         <f t="shared" si="5"/>
         <v>28.346456692913385</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G50" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H50" s="37">
         <v>17.8</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I50" s="21">
         <f t="shared" si="8"/>
         <v>58.401800000000001</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J50" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K50" s="13">
         <v>19</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L50" s="21">
         <f t="shared" si="6"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="M48" s="38" t="s">
+      <c r="M50" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N50" s="15">
         <f t="shared" si="7"/>
         <v>163.03949488188977</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O50" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P50" t="s">
         <v>378</v>
       </c>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>36.148434000000002</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>-86.802249000000003</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E51" s="26">
         <v>58.31</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F51" s="26">
         <f t="shared" si="5"/>
         <v>22.956692913385826</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G51" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H51" s="13">
         <v>19.327400000000001</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I51" s="21">
         <f t="shared" si="8"/>
         <v>63.413199400000003</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K51" s="29">
         <v>18.28</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L51" s="30">
         <f t="shared" si="6"/>
         <v>59.976680000000009</v>
       </c>
-      <c r="M49" s="31" t="s">
+      <c r="M51" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N51" s="15">
         <f t="shared" si="7"/>
         <v>150.52788628976379</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>36.147074000000003</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>-86.801820000000006</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E52" s="26">
         <v>69.53</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F52" s="26">
         <f t="shared" si="5"/>
         <v>27.374015748031496</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G52" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H52" s="13">
         <v>15.6058</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I52" s="21">
         <f t="shared" si="8"/>
         <v>51.202629800000004</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K52" s="29">
         <v>15.54</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L52" s="30">
         <f t="shared" si="6"/>
         <v>50.986739999999998</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M52" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="7"/>
         <v>149.94724893385825</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>36.142907000000001</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>-86.798353000000006</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E53" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F53" s="26">
         <f t="shared" si="5"/>
         <v>24.606299212598426</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H53" s="13">
         <v>16.2</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I53" s="21">
         <f t="shared" si="8"/>
         <v>53.152200000000001</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K53" s="29">
         <v>14.75</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L53" s="30">
         <f t="shared" si="6"/>
         <v>48.394750000000002</v>
       </c>
-      <c r="M51" s="27" t="s">
+      <c r="M53" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N53" s="15">
         <f t="shared" si="7"/>
         <v>142.55379104330709</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P53" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C54" s="44">
         <v>36.143264000000002</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D54" s="44">
         <v>-86.798715000000001</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E54" s="26">
         <v>32</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F54" s="26">
         <f t="shared" si="5"/>
         <v>12.598425196850393</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G54" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H54" s="13">
         <v>6.6</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I54" s="21">
         <f t="shared" si="8"/>
         <v>21.654599999999999</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J54" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K54" s="40">
         <v>8.85</v>
       </c>
-      <c r="L52" s="42">
+      <c r="L54" s="42">
         <f t="shared" si="6"/>
         <v>29.036850000000001</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M54" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N54" s="15">
         <f t="shared" si="7"/>
         <v>68.492899114173227</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C55" s="3">
         <v>36.146718</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
         <v>-86.802537000000001</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E55" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="26">
-        <f t="shared" ref="F53:F71" si="9">E53/2.54</f>
+      <c r="F55" s="26">
+        <f t="shared" ref="F55:F71" si="9">E55/2.54</f>
         <v>46.45669291338583</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="21">
-        <f t="shared" ref="I53:I77" si="10">H53*3.281</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="30">
-        <f t="shared" ref="L53:L71" si="11">K53*3.281</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="27"/>
-      <c r="N53" s="15">
-        <f t="shared" ref="N53:N71" si="12">IF(K53=0,0,E53/2.54*3.14159+H53*3.281+K53*3.281/4)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P53" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="9">
-        <v>36.144139000000003</v>
-      </c>
-      <c r="D54" s="9">
-        <v>-86.798651000000007</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F54" s="26">
-        <f t="shared" si="9"/>
-        <v>45.472440944881889</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="33"/>
-      <c r="N54" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P54" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="9">
-        <v>36.146543999999999</v>
-      </c>
-      <c r="D55" s="9">
-        <v>-86.802206999999996</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="26">
-        <f t="shared" si="9"/>
-        <v>45.275590551181104</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="13"/>
       <c r="I55" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I55:I77" si="10">H55*3.281</f>
         <v>0</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="29"/>
       <c r="L55" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L55:L71" si="11">K55*3.281</f>
         <v>0</v>
       </c>
       <c r="M55" s="27"/>
       <c r="N55" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>111</v>
+        <f t="shared" ref="N55:N71" si="12">IF(K55=0,0,E55/2.54*3.14159+H55*3.281+K55*3.281/4)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
+        <v>362</v>
       </c>
       <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C56" s="9">
-        <v>36.143636999999998</v>
-      </c>
-      <c r="D56" s="8">
-        <v>-86.798165999999995</v>
+        <v>36.146543999999999</v>
+      </c>
+      <c r="D56" s="9">
+        <v>-86.802206999999996</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F56" s="26">
         <f t="shared" si="9"/>
-        <v>44.488188976377955</v>
+        <v>45.275590551181104</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="21">
@@ -5689,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P56" t="s">
-        <v>365</v>
+        <v>112</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="Q56" s="6"/>
     </row>
@@ -21353,1009 +21372,1009 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>primary!A19</f>
+        <f>primary!A20</f>
         <v>4-522</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>primary!B19</f>
+        <f>primary!B20</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C17" s="1">
-        <f>primary!C19</f>
+        <f>primary!C20</f>
         <v>36.147728999999998</v>
       </c>
       <c r="D17" s="1">
-        <f>primary!D19</f>
+        <f>primary!D20</f>
         <v>-86.802057000000005</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>primary!E19</f>
+        <f>primary!E20</f>
         <v>111</v>
       </c>
       <c r="F17" s="14">
-        <f>primary!H19</f>
+        <f>primary!H20</f>
         <v>28</v>
       </c>
       <c r="G17" s="1">
-        <f>primary!K19</f>
+        <f>primary!K20</f>
         <v>24.5</v>
       </c>
       <c r="H17" s="22">
-        <f>primary!N19</f>
+        <f>primary!N20</f>
         <v>249.25408169291339</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>primary!O19</f>
+        <f>primary!O20</f>
         <v>west of Furman, north of Benson</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f>primary!P19</f>
+        <f>primary!P20</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/3-108</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>primary!A20</f>
+        <f>primary!A21</f>
         <v>2-402</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>primary!B20</f>
+        <f>primary!B21</f>
         <v>Liriodendron tulipifera</v>
       </c>
       <c r="C18" s="1">
-        <f>primary!C20</f>
+        <f>primary!C21</f>
         <v>36.148034000000003</v>
       </c>
       <c r="D18" s="1">
-        <f>primary!D20</f>
+        <f>primary!D21</f>
         <v>-86.801743999999999</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>primary!E20</f>
+        <f>primary!E21</f>
         <v>118</v>
       </c>
       <c r="F18" s="14">
-        <f>primary!H20</f>
+        <f>primary!H21</f>
         <v>26.2</v>
       </c>
       <c r="G18" s="1">
-        <f>primary!K20</f>
+        <f>primary!K21</f>
         <v>21</v>
       </c>
       <c r="H18" s="22">
-        <f>primary!N20</f>
+        <f>primary!N21</f>
         <v>249.13533188976376</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>primary!O20</f>
+        <f>primary!O21</f>
         <v>northwest corner of Furman Hall</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f>primary!P20</f>
+        <f>primary!P21</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/1-134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>primary!A21</f>
+        <f>primary!A23</f>
         <v>2-638</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>primary!B21</f>
+        <f>primary!B23</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C19" s="1">
-        <f>primary!C21</f>
+        <f>primary!C23</f>
         <v>36.148788000000003</v>
       </c>
       <c r="D19" s="1">
-        <f>primary!D21</f>
+        <f>primary!D23</f>
         <v>-86.803242999999995</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>primary!E21</f>
+        <f>primary!E23</f>
         <v>90</v>
       </c>
       <c r="F19" s="14">
-        <f>primary!H21</f>
+        <f>primary!H23</f>
         <v>35.35507467235599</v>
       </c>
       <c r="G19" s="1">
-        <f>primary!K21</f>
+        <f>primary!K23</f>
         <v>25.76</v>
       </c>
       <c r="H19" s="22">
-        <f>primary!N21</f>
+        <f>primary!N23</f>
         <v>248.4458211023622</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>primary!O21</f>
+        <f>primary!O23</f>
         <v>east of Barnard Hall</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f>primary!P21</f>
+        <f>primary!P23</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/3-108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>primary!A22</f>
+        <f>primary!A24</f>
         <v>4-522</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>primary!B22</f>
+        <f>primary!B24</f>
         <v>Celtis laevigata</v>
       </c>
       <c r="C20" s="1">
-        <f>primary!C22</f>
+        <f>primary!C24</f>
         <v>36.144267999999997</v>
       </c>
       <c r="D20" s="1">
-        <f>primary!D22</f>
+        <f>primary!D24</f>
         <v>-86.804064999999994</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>primary!E22</f>
+        <f>primary!E24</f>
         <v>131</v>
       </c>
       <c r="F20" s="14">
-        <f>primary!H22</f>
+        <f>primary!H24</f>
         <v>20</v>
       </c>
       <c r="G20" s="1">
-        <f>primary!K22</f>
+        <f>primary!K24</f>
         <v>22.5</v>
       </c>
       <c r="H20" s="22">
-        <f>primary!N22</f>
+        <f>primary!N24</f>
         <v>246.10251082677163</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>primary!O22</f>
+        <f>primary!O24</f>
         <v>south of Community Partnership House</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>primary!P22</f>
+        <f>primary!P24</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/10-185</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>primary!A23</f>
+        <f>primary!A25</f>
         <v>3-419</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>primary!B23</f>
+        <f>primary!B25</f>
         <v>Quercus rubra</v>
       </c>
       <c r="C21" s="1">
-        <f>primary!C23</f>
+        <f>primary!C25</f>
         <v>36.147948999999997</v>
       </c>
       <c r="D21" s="1">
-        <f>primary!D23</f>
+        <f>primary!D25</f>
         <v>-86.804061000000004</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>primary!E23</f>
+        <f>primary!E25</f>
         <v>106</v>
       </c>
       <c r="F21" s="14">
-        <f>primary!H23</f>
+        <f>primary!H25</f>
         <v>28.131667174641876</v>
       </c>
       <c r="G21" s="1">
-        <f>primary!K23</f>
+        <f>primary!K25</f>
         <v>26</v>
       </c>
       <c r="H21" s="22">
-        <f>primary!N23</f>
+        <f>primary!N25</f>
         <v>244.7322244094488</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>primary!O23</f>
+        <f>primary!O25</f>
         <v>north end of Alumni Lawn</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f>primary!P23</f>
+        <f>primary!P25</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/5-76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>primary!A24</f>
+        <f>primary!A26</f>
         <v>2-791</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>primary!B24</f>
+        <f>primary!B26</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>primary!C24</f>
+        <f>primary!C26</f>
         <v>36.148494</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>primary!D24</f>
+        <f>primary!D26</f>
         <v>-86.802021</v>
       </c>
       <c r="E22" s="1">
-        <f>primary!E24</f>
+        <f>primary!E26</f>
         <v>127</v>
       </c>
       <c r="F22" s="14">
-        <f>primary!H24</f>
+        <f>primary!H26</f>
         <v>22.52</v>
       </c>
       <c r="G22" s="1">
-        <f>primary!K24</f>
+        <f>primary!K26</f>
         <v>13.89</v>
       </c>
       <c r="H22" s="22">
-        <f>primary!N24</f>
+        <f>primary!N26</f>
         <v>242.36089250000001</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>primary!O24</f>
+        <f>primary!O26</f>
         <v>east of the drive near Kirkland Hall</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f>primary!P24</f>
+        <f>primary!P26</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/1-187</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>primary!A25</f>
+        <f>primary!A27</f>
         <v>3-62</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>primary!B25</f>
+        <f>primary!B27</f>
         <v>Populus deltoides</v>
       </c>
       <c r="C23" s="1">
-        <f>primary!C25</f>
+        <f>primary!C27</f>
         <v>36.146698000000001</v>
       </c>
       <c r="D23" s="1">
-        <f>primary!D25</f>
+        <f>primary!D27</f>
         <v>-86.805678</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>primary!E25</f>
+        <f>primary!E27</f>
         <v>110</v>
       </c>
       <c r="F23" s="14">
-        <f>primary!H25</f>
+        <f>primary!H27</f>
         <v>27</v>
       </c>
       <c r="G23" s="1">
-        <f>primary!K25</f>
+        <f>primary!K27</f>
         <v>20</v>
       </c>
       <c r="H23" s="22">
-        <f>primary!N25</f>
+        <f>primary!N27</f>
         <v>241.04511023622049</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>primary!O25</f>
+        <f>primary!O27</f>
         <v>Kensington and 24th Ave. S.</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f>primary!P25</f>
+        <f>primary!P27</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/8-103</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
-        <f>primary!A26</f>
+        <f>primary!A28</f>
         <v>3-327</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>primary!B26</f>
+        <f>primary!B28</f>
         <v>Quercus shumardii</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>primary!C26</f>
+        <f>primary!C28</f>
         <v>36.1465</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>primary!D26</f>
+        <f>primary!D28</f>
         <v>-86.804112</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>primary!E26</f>
+        <f>primary!E28</f>
         <v>104</v>
       </c>
       <c r="F24" s="14">
-        <f>primary!H26</f>
+        <f>primary!H28</f>
         <v>27.400182871075891</v>
       </c>
       <c r="G24" s="1">
-        <f>primary!K26</f>
+        <f>primary!K28</f>
         <v>25.5</v>
       </c>
       <c r="H24" s="22">
-        <f>primary!N26</f>
+        <f>primary!N28</f>
         <v>239.448406496063</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>primary!O26</f>
+        <f>primary!O28</f>
         <v>Big Al's twin on the other side of the sidewalk in front of Cole Hall</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f>primary!P26</f>
+        <f>primary!P28</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-225</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
-        <f>primary!A27</f>
+        <f>primary!A29</f>
         <v>9-4</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>primary!B27</f>
+        <f>primary!B29</f>
         <v>Tilia americana</v>
       </c>
       <c r="C25" s="1">
-        <f>primary!C27</f>
+        <f>primary!C29</f>
         <v>36.144891999999999</v>
       </c>
       <c r="D25" s="1">
-        <f>primary!D27</f>
+        <f>primary!D29</f>
         <v>-86.797360999999995</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>primary!E27</f>
+        <f>primary!E29</f>
         <v>124.5</v>
       </c>
       <c r="F25" s="14">
-        <f>primary!H27</f>
+        <f>primary!H29</f>
         <v>21</v>
       </c>
       <c r="G25" s="1">
-        <f>primary!K27</f>
+        <f>primary!K29</f>
         <v>19.25</v>
       </c>
       <c r="H25" s="22">
-        <f>primary!N27</f>
+        <f>primary!N29</f>
         <v>238.67819635826768</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>primary!O27</f>
+        <f>primary!O29</f>
         <v>in front of 1110 19th Ave. S.</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f>primary!P27</f>
+        <f>primary!P29</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/13-427</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f>primary!A28</f>
+        <f>primary!A30</f>
         <v>1-730</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>primary!B28</f>
+        <f>primary!B30</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C26" s="1">
-        <f>primary!C28</f>
+        <f>primary!C30</f>
         <v>36.142924000000001</v>
       </c>
       <c r="D26" s="1">
-        <f>primary!D28</f>
+        <f>primary!D30</f>
         <v>-86.798512000000002</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>primary!E28</f>
+        <f>primary!E30</f>
         <v>122.5</v>
       </c>
       <c r="F26" s="14">
-        <f>primary!H28</f>
+        <f>primary!H30</f>
         <v>22.5</v>
       </c>
       <c r="G26" s="1">
-        <f>primary!K28</f>
+        <f>primary!K30</f>
         <v>15</v>
       </c>
       <c r="H26" s="22">
-        <f>primary!N28</f>
+        <f>primary!N30</f>
         <v>237.63994094488189</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>primary!O28</f>
+        <f>primary!O30</f>
         <v>center magnolia in Magnolia Lawn along Magnolia Circle</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f>primary!P28</f>
+        <f>primary!P30</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-191</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>primary!A29</f>
+        <f>primary!A31</f>
         <v>2-209</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>primary!B29</f>
+        <f>primary!B31</f>
         <v>Quercus nigra</v>
       </c>
       <c r="C27" s="1">
-        <f>primary!C29</f>
+        <f>primary!C31</f>
         <v>36.147565999999998</v>
       </c>
       <c r="D27" s="1">
-        <f>primary!D29</f>
+        <f>primary!D31</f>
         <v>-86.802029000000005</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>primary!E29</f>
+        <f>primary!E31</f>
         <v>120</v>
       </c>
       <c r="F27" s="14">
-        <f>primary!H29</f>
+        <f>primary!H31</f>
         <v>20.5</v>
       </c>
       <c r="G27" s="1">
-        <f>primary!K29</f>
+        <f>primary!K31</f>
         <v>21.75</v>
       </c>
       <c r="H27" s="22">
-        <f>primary!N29</f>
+        <f>primary!N31</f>
         <v>233.52251230314963</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>primary!O29</f>
+        <f>primary!O31</f>
         <v>north of Benson Hall</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f>primary!P29</f>
+        <f>primary!P31</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/3-164</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>primary!A30</f>
+        <f>primary!A32</f>
         <v>3-52</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>primary!B30</f>
+        <f>primary!B32</f>
         <v>Platanus occidentalis</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>primary!C30</f>
+        <f>primary!C32</f>
         <v>36.146281</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>primary!D30</f>
+        <f>primary!D32</f>
         <v>-86.804103</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>primary!E30</f>
+        <f>primary!E32</f>
         <v>103</v>
       </c>
       <c r="F28" s="14">
-        <f>primary!H30</f>
+        <f>primary!H32</f>
         <v>25</v>
       </c>
       <c r="G28" s="1">
-        <f>primary!K30</f>
+        <f>primary!K32</f>
         <v>27.5</v>
       </c>
       <c r="H28" s="22">
-        <f>primary!N30</f>
+        <f>primary!N32</f>
         <v>231.97706003937009</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>primary!O30</f>
+        <f>primary!O32</f>
         <v>south of Cole Hall</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f>primary!P30</f>
+        <f>primary!P32</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-205</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>primary!A31</f>
+        <f>primary!A33</f>
         <v>4-702</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>primary!B31</f>
+        <f>primary!B33</f>
         <v>Platanus occidentalis</v>
       </c>
       <c r="C29" s="1">
-        <f>primary!C31</f>
+        <f>primary!C33</f>
         <v>36.145141000000002</v>
       </c>
       <c r="D29" s="1">
-        <f>primary!D31</f>
+        <f>primary!D33</f>
         <v>-86.802242000000007</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>primary!E31</f>
+        <f>primary!E33</f>
         <v>94</v>
       </c>
       <c r="F29" s="14">
-        <f>primary!H31</f>
+        <f>primary!H33</f>
         <v>27</v>
       </c>
       <c r="G29" s="1">
-        <f>primary!K31</f>
+        <f>primary!K33</f>
         <v>29</v>
       </c>
       <c r="H29" s="22">
-        <f>primary!N31</f>
+        <f>primary!N33</f>
         <v>228.63781692913383</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>primary!O31</f>
+        <f>primary!O33</f>
         <v>Recognize by white bark, largest tree in Stevenson Courtyard</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f>primary!P31</f>
+        <f>primary!P33</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/11-283</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>primary!A32</f>
+        <f>primary!A34</f>
         <v>1-429</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>primary!B32</f>
+        <f>primary!B34</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C30" s="1">
-        <f>primary!C32</f>
+        <f>primary!C34</f>
         <v>36.143189999999997</v>
       </c>
       <c r="D30" s="1">
-        <f>primary!D32</f>
+        <f>primary!D34</f>
         <v>-86.798900000000003</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>primary!E32</f>
+        <f>primary!E34</f>
         <v>120</v>
       </c>
       <c r="F30" s="14">
-        <f>primary!H32</f>
+        <f>primary!H34</f>
         <v>20</v>
       </c>
       <c r="G30" s="1">
-        <f>primary!K32</f>
+        <f>primary!K34</f>
         <v>17.5</v>
       </c>
       <c r="H30" s="22">
-        <f>primary!N32</f>
+        <f>primary!N34</f>
         <v>228.39594980314962</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>primary!O32</f>
+        <f>primary!O34</f>
         <v>Magnolia Lawn, east of Kennedy Center</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f>primary!P32</f>
+        <f>primary!P34</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-178</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>primary!A43</f>
+        <f>primary!A45</f>
         <v>2-1006</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>primary!B33</f>
+        <f>primary!B35</f>
         <v>Liriodendron tulipifera</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>primary!C33</f>
+        <f>primary!C35</f>
         <v>36.147728</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>primary!D33</f>
+        <f>primary!D35</f>
         <v>-86.800839</v>
       </c>
       <c r="E31" s="1">
-        <f>primary!E33</f>
+        <f>primary!E35</f>
         <v>78.424999999999997</v>
       </c>
       <c r="F31" s="14">
-        <f>primary!H33</f>
+        <f>primary!H35</f>
         <v>35.466000000000001</v>
       </c>
       <c r="G31" s="1">
-        <f>primary!K33</f>
+        <f>primary!K35</f>
         <v>17.983000000000001</v>
       </c>
       <c r="H31" s="22">
-        <f>primary!N33</f>
+        <f>primary!N35</f>
         <v>228.11418511614173</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>primary!O33</f>
+        <f>primary!O35</f>
         <v>Between the Law building and Furman Hall</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f>primary!P33</f>
+        <f>primary!P35</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/4-189</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>primary!A34</f>
+        <f>primary!A36</f>
         <v>2-411</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>primary!B34</f>
+        <f>primary!B36</f>
         <v>Maclura pomifera</v>
       </c>
       <c r="C32" s="1">
-        <f>primary!C34</f>
+        <f>primary!C36</f>
         <v>36.147170000000003</v>
       </c>
       <c r="D32" s="1">
-        <f>primary!D34</f>
+        <f>primary!D36</f>
         <v>-86.801055000000005</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>primary!E34</f>
+        <f>primary!E36</f>
         <v>124</v>
       </c>
       <c r="F32" s="14">
-        <f>primary!H34</f>
+        <f>primary!H36</f>
         <v>17</v>
       </c>
       <c r="G32" s="1">
-        <f>primary!K34</f>
+        <f>primary!K36</f>
         <v>20.75</v>
       </c>
       <c r="H32" s="22">
-        <f>primary!N34</f>
+        <f>primary!N36</f>
         <v>226.16614812992125</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>primary!O34</f>
+        <f>primary!O36</f>
         <v>east of Calhoun Hall</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f>primary!P34</f>
+        <f>primary!P36</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/4-162</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>primary!A35</f>
+        <f>primary!A37</f>
         <v>4-943</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>primary!B35</f>
+        <f>primary!B37</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C33" s="1">
-        <f>primary!C35</f>
+        <f>primary!C37</f>
         <v>36.145836000000003</v>
       </c>
       <c r="D33" s="1">
-        <f>primary!D35</f>
+        <f>primary!D37</f>
         <v>-86.802235999999994</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>primary!E35</f>
+        <f>primary!E37</f>
         <v>109</v>
       </c>
       <c r="F33" s="14">
-        <f>primary!H35</f>
+        <f>primary!H37</f>
         <v>22.005486132276744</v>
       </c>
       <c r="G33" s="1">
-        <f>primary!K35</f>
+        <f>primary!K37</f>
         <v>19</v>
       </c>
       <c r="H33" s="22">
-        <f>primary!N35</f>
+        <f>primary!N37</f>
         <v>222.60101377952756</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>primary!O35</f>
+        <f>primary!O37</f>
         <v>front Buttrick, s. of entry walk</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f>primary!P35</f>
+        <f>primary!P37</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>primary!A36</f>
+        <f>primary!A38</f>
         <v>2-780</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>primary!B36</f>
+        <f>primary!B38</f>
         <v>Liriodendron tulipifera</v>
       </c>
       <c r="C34" s="1">
-        <f>primary!C36</f>
+        <f>primary!C38</f>
         <v>36.147970000000001</v>
       </c>
       <c r="D34" s="1">
-        <f>primary!D36</f>
+        <f>primary!D38</f>
         <v>-86.802019000000001</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>primary!E36</f>
+        <f>primary!E38</f>
         <v>104</v>
       </c>
       <c r="F34" s="14">
-        <f>primary!H36</f>
+        <f>primary!H38</f>
         <v>23.67</v>
       </c>
       <c r="G34" s="1">
-        <f>primary!K36</f>
+        <f>primary!K38</f>
         <v>17.07</v>
       </c>
       <c r="H34" s="22">
-        <f>primary!N36</f>
+        <f>primary!N38</f>
         <v>220.29496899606298</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>primary!O36</f>
+        <f>primary!O38</f>
         <v>Between Kirkland and Furman Halls</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f>primary!P36</f>
+        <f>primary!P38</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/3-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f>primary!A37</f>
+        <f>primary!A39</f>
         <v>2-528</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>primary!B37</f>
+        <f>primary!B39</f>
         <v>Ulmus serotina</v>
       </c>
       <c r="C35" s="1">
-        <f>primary!C37</f>
+        <f>primary!C39</f>
         <v>36.146864000000001</v>
       </c>
       <c r="D35" s="1">
-        <f>primary!D37</f>
+        <f>primary!D39</f>
         <v>-86.801839000000001</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>primary!E37</f>
+        <f>primary!E39</f>
         <v>83</v>
       </c>
       <c r="F35" s="14">
-        <f>primary!H37</f>
+        <f>primary!H39</f>
         <v>28.649801889667781</v>
       </c>
       <c r="G35" s="1">
-        <f>primary!K37</f>
+        <f>primary!K39</f>
         <v>20.5</v>
       </c>
       <c r="H35" s="22">
-        <f>primary!N37</f>
+        <f>primary!N39</f>
         <v>213.47338090551179</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>primary!O37</f>
+        <f>primary!O39</f>
         <v>Between Benson Hall and Garland Hall</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f>primary!P37</f>
+        <f>primary!P39</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-340</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f>primary!A38</f>
+        <f>primary!A40</f>
         <v>2-1002</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>primary!B38</f>
+        <f>primary!B40</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C36" s="1">
-        <f>primary!C38</f>
+        <f>primary!C40</f>
         <v>36.148797999999999</v>
       </c>
       <c r="D36" s="1">
-        <f>primary!D38</f>
+        <f>primary!D40</f>
         <v>-86.801866000000004</v>
       </c>
       <c r="E36" s="1">
-        <f>primary!E38</f>
+        <f>primary!E40</f>
         <v>107.53</v>
       </c>
       <c r="F36" s="14">
-        <f>primary!H38</f>
+        <f>primary!H40</f>
         <v>20.420000000000002</v>
       </c>
       <c r="G36" s="1">
-        <f>primary!K38</f>
+        <f>primary!K40</f>
         <v>14.87</v>
       </c>
       <c r="H36" s="22">
-        <f>primary!N38</f>
+        <f>primary!N40</f>
         <v>212.19323698818897</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>primary!O38</f>
+        <f>primary!O40</f>
         <v>between Kissam Dorms and Curry Field</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f>primary!P38</f>
+        <f>primary!P40</f>
         <v>none</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>primary!A39</f>
+        <f>primary!A41</f>
         <v>2-182</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>primary!B39</f>
+        <f>primary!B41</f>
         <v>Catalpa speciosa</v>
       </c>
       <c r="C37" s="1">
-        <f>primary!C39</f>
+        <f>primary!C41</f>
         <v>36.146563999999998</v>
       </c>
       <c r="D37" s="1">
-        <f>primary!D39</f>
+        <f>primary!D41</f>
         <v>-86.801297000000005</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>primary!E39</f>
+        <f>primary!E41</f>
         <v>111</v>
       </c>
       <c r="F37" s="14">
-        <f>primary!H39</f>
+        <f>primary!H41</f>
         <v>18.40902163974398</v>
       </c>
       <c r="G37" s="1">
-        <f>primary!K39</f>
+        <f>primary!K41</f>
         <v>16</v>
       </c>
       <c r="H37" s="22">
-        <f>primary!N39</f>
+        <f>primary!N41</f>
         <v>210.81395669291337</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>primary!O39</f>
+        <f>primary!O41</f>
         <v>Between the Divinity School and Garland Hall</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f>primary!P39</f>
+        <f>primary!P41</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/6-159</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>primary!A40</f>
+        <f>primary!A42</f>
         <v>2-861</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>primary!B40</f>
+        <f>primary!B42</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C38" s="1">
-        <f>primary!C40</f>
+        <f>primary!C42</f>
         <v>36.148634000000001</v>
       </c>
       <c r="D38" s="1">
-        <f>primary!D40</f>
+        <f>primary!D42</f>
         <v>-86.801985999999999</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>primary!E40</f>
+        <f>primary!E42</f>
         <v>101</v>
       </c>
       <c r="F38" s="14">
-        <f>primary!H40</f>
+        <f>primary!H42</f>
         <v>19.5</v>
       </c>
       <c r="G38" s="1">
-        <f>primary!K40</f>
+        <f>primary!K42</f>
         <v>18</v>
       </c>
       <c r="H38" s="22">
-        <f>primary!N40</f>
+        <f>primary!N42</f>
         <v>203.66549212598426</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>primary!O40</f>
+        <f>primary!O42</f>
         <v>beteen Kirkland and Curry Field</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f>primary!P40</f>
+        <f>primary!P42</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/1-183</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>primary!A41</f>
+        <f>primary!A43</f>
         <v>2-185</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>primary!B41</f>
+        <f>primary!B43</f>
         <v>Ginkgo biloba</v>
       </c>
       <c r="C39" s="1">
-        <f>primary!C41</f>
+        <f>primary!C43</f>
         <v>36.148558999999999</v>
       </c>
       <c r="D39" s="1">
-        <f>primary!D41</f>
+        <f>primary!D43</f>
         <v>-86.803090999999995</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>primary!E41</f>
+        <f>primary!E43</f>
         <v>100</v>
       </c>
       <c r="F39" s="14">
-        <f>primary!H41</f>
+        <f>primary!H43</f>
         <v>18</v>
       </c>
       <c r="G39" s="1">
-        <f>primary!K41</f>
+        <f>primary!K43</f>
         <v>23.5</v>
       </c>
       <c r="H39" s="22">
-        <f>primary!N41</f>
+        <f>primary!N43</f>
         <v>202.01852066929132</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>primary!O41</f>
+        <f>primary!O43</f>
         <v>between Kirkland and Barnard Halls; "Galloway's ginkgo"</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f>primary!P41</f>
+        <f>primary!P43</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/2-101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>primary!A42</f>
+        <f>primary!A44</f>
         <v>2-759</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>primary!B42</f>
+        <f>primary!B44</f>
         <v>Quercus alba</v>
       </c>
       <c r="C40" s="1">
-        <f>primary!C42</f>
+        <f>primary!C44</f>
         <v>36.148681000000003</v>
       </c>
       <c r="D40" s="1">
-        <f>primary!D42</f>
+        <f>primary!D44</f>
         <v>-86.802809999999994</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>primary!E42</f>
+        <f>primary!E44</f>
         <v>95</v>
       </c>
       <c r="F40" s="14">
-        <f>primary!H42</f>
+        <f>primary!H44</f>
         <v>19.597683633038706</v>
       </c>
       <c r="G40" s="1">
-        <f>primary!K42</f>
+        <f>primary!K44</f>
         <v>23</v>
       </c>
       <c r="H40" s="22">
-        <f>primary!N42</f>
+        <f>primary!N44</f>
         <v>200.66616338582676</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>primary!O42</f>
+        <f>primary!O44</f>
         <v>between Kirkland and West End Ave.</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f>primary!P42</f>
+        <f>primary!P44</f>
         <v>none</v>
       </c>
     </row>
@@ -22365,417 +22384,417 @@
         <v>#REF!</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>primary!B43</f>
+        <f>primary!B45</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C41" s="1">
-        <f>primary!C43</f>
+        <f>primary!C45</f>
         <v>36.148788000000003</v>
       </c>
       <c r="D41" s="1">
-        <f>primary!D43</f>
+        <f>primary!D45</f>
         <v>-86.803242999999995</v>
       </c>
       <c r="E41" s="1">
-        <f>primary!E43</f>
+        <f>primary!E45</f>
         <v>95.5</v>
       </c>
       <c r="F41" s="14">
-        <f>primary!H43</f>
+        <f>primary!H45</f>
         <v>16.78</v>
       </c>
       <c r="G41" s="1">
-        <f>primary!K43</f>
+        <f>primary!K45</f>
         <v>21.25</v>
       </c>
       <c r="H41" s="22">
-        <f>primary!N43</f>
+        <f>primary!N45</f>
         <v>190.60432911417325</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>primary!O43</f>
+        <f>primary!O45</f>
         <v>next to the a/c unit, behind Barnard Hall; surrounded by shrubs and mosquitoes</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f>primary!P43</f>
+        <f>primary!P45</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/2-95</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>primary!A44</f>
+        <f>primary!A46</f>
         <v>1-727</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>primary!B44</f>
+        <f>primary!B46</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C42" s="1">
-        <f>primary!C44</f>
+        <f>primary!C46</f>
         <v>36.142912000000003</v>
       </c>
       <c r="D42" s="1">
-        <f>primary!D44</f>
+        <f>primary!D46</f>
         <v>-86.798676</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>primary!E44</f>
+        <f>primary!E46</f>
         <v>94.5</v>
       </c>
       <c r="F42" s="14">
-        <f>primary!H44</f>
+        <f>primary!H46</f>
         <v>18.100000000000001</v>
       </c>
       <c r="G42" s="1">
-        <f>primary!K44</f>
+        <f>primary!K46</f>
         <v>13.5</v>
       </c>
       <c r="H42" s="22">
-        <f>primary!N44</f>
+        <f>primary!N46</f>
         <v>187.34146515748031</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>primary!O44</f>
+        <f>primary!O46</f>
         <v>western magnolia in Magnolia Lawn along Magnolia Circle</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f>primary!P44</f>
+        <f>primary!P46</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-190</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>primary!A45</f>
+        <f>primary!A47</f>
         <v>3-140</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>primary!B45</f>
+        <f>primary!B47</f>
         <v>Quercus muhlenbergii</v>
       </c>
       <c r="C43" s="1">
-        <f>primary!C45</f>
+        <f>primary!C47</f>
         <v>36.146026999999997</v>
       </c>
       <c r="D43" s="1">
-        <f>primary!D45</f>
+        <f>primary!D47</f>
         <v>-86.802841999999998</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>primary!E45</f>
+        <f>primary!E47</f>
         <v>97</v>
       </c>
       <c r="F43" s="14">
-        <f>primary!H45</f>
+        <f>primary!H47</f>
         <v>13.5</v>
       </c>
       <c r="G43" s="1">
-        <f>primary!K45</f>
+        <f>primary!K47</f>
         <v>22.5</v>
       </c>
       <c r="H43" s="22">
-        <f>primary!N45</f>
+        <f>primary!N47</f>
         <v>182.72323129921259</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>primary!O45</f>
+        <f>primary!O47</f>
         <v>By Station B post office entrance</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f>primary!P45</f>
+        <f>primary!P47</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-282</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>primary!A46</f>
+        <f>primary!A48</f>
         <v>1-731</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>primary!B46</f>
+        <f>primary!B48</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C44" s="1">
-        <f>primary!C46</f>
+        <f>primary!C48</f>
         <v>36.142820999999998</v>
       </c>
       <c r="D44" s="1">
-        <f>primary!D46</f>
+        <f>primary!D48</f>
         <v>-86.798294999999996</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>primary!E46</f>
+        <f>primary!E48</f>
         <v>86</v>
       </c>
       <c r="F44" s="14">
-        <f>primary!H46</f>
+        <f>primary!H48</f>
         <v>16.3</v>
       </c>
       <c r="G44" s="1">
-        <f>primary!K46</f>
+        <f>primary!K48</f>
         <v>15.6</v>
       </c>
       <c r="H44" s="22">
-        <f>primary!N46</f>
+        <f>primary!N48</f>
         <v>172.64499527559053</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>primary!O46</f>
+        <f>primary!O48</f>
         <v>southeastern magnolia in Magnolia Lawn along Magnolia Circle</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f>primary!P46</f>
+        <f>primary!P48</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-192</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f>primary!A47</f>
+        <f>primary!A49</f>
         <v>4-208</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>primary!B47</f>
+        <f>primary!B49</f>
         <v>Sophora japonica</v>
       </c>
       <c r="C45" s="1">
-        <f>primary!C47</f>
+        <f>primary!C49</f>
         <v>36.145698000000003</v>
       </c>
       <c r="D45" s="1">
-        <f>primary!D47</f>
+        <f>primary!D49</f>
         <v>-86.802318</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>primary!E47</f>
+        <f>primary!E49</f>
         <v>75.5</v>
       </c>
       <c r="F45" s="14">
-        <f>primary!H47</f>
+        <f>primary!H49</f>
         <v>19.600000000000001</v>
       </c>
       <c r="G45" s="1">
-        <f>primary!K47</f>
+        <f>primary!K49</f>
         <v>16</v>
       </c>
       <c r="H45" s="22">
-        <f>primary!N47</f>
+        <f>primary!N49</f>
         <v>170.81350748031494</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>primary!O47</f>
+        <f>primary!O49</f>
         <v>east of Buttrick Hall; former state champion</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f>primary!P47</f>
+        <f>primary!P49</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-29</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
-        <f>primary!A48</f>
+        <f>primary!A50</f>
         <v>4-616</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>primary!B48</f>
+        <f>primary!B50</f>
         <v>Juglans nigra</v>
       </c>
       <c r="C46" s="1">
-        <f>primary!C48</f>
+        <f>primary!C50</f>
         <v>36.143526999999999</v>
       </c>
       <c r="D46" s="1">
-        <f>primary!D48</f>
+        <f>primary!D50</f>
         <v>-86.802790999999999</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>primary!E48</f>
+        <f>primary!E50</f>
         <v>72</v>
       </c>
       <c r="F46" s="14">
-        <f>primary!H48</f>
+        <f>primary!H50</f>
         <v>17.8</v>
       </c>
       <c r="G46" s="1">
-        <f>primary!K48</f>
+        <f>primary!K50</f>
         <v>19</v>
       </c>
       <c r="H46" s="22">
-        <f>primary!N48</f>
+        <f>primary!N50</f>
         <v>163.03949488188977</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>primary!O48</f>
+        <f>primary!O50</f>
         <v>between McTyeire and the Round Wing</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f>primary!P48</f>
+        <f>primary!P50</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/11-221</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
-        <f>primary!A53</f>
+        <f>primary!A55</f>
         <v>2-319</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>primary!B53</f>
+        <f>primary!B55</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C47" s="1">
-        <f>primary!C53</f>
+        <f>primary!C55</f>
         <v>36.146718</v>
       </c>
       <c r="D47" s="1">
-        <f>primary!D53</f>
+        <f>primary!D55</f>
         <v>-86.802537000000001</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>primary!E53</f>
+        <f>primary!E55</f>
         <v>118</v>
       </c>
       <c r="F47" s="14">
-        <f>primary!H53</f>
+        <f>primary!H55</f>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f>primary!K53</f>
+        <f>primary!K55</f>
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <f>primary!N53</f>
+        <f>primary!N55</f>
         <v>0</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>primary!O53</f>
+        <f>primary!O55</f>
         <v>between Rand and Old Central; note: also has another 59 cm dbh stem</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f>primary!P53</f>
+        <f>primary!P55</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-309</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
-        <f>primary!A54</f>
+        <f>primary!A22</f>
         <v>n/a</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>primary!B54</f>
+        <f>primary!B22</f>
         <v>Quercus rubra</v>
       </c>
       <c r="C48" s="1">
-        <f>primary!C54</f>
+        <f>primary!C22</f>
         <v>36.144139000000003</v>
       </c>
       <c r="D48" s="1">
-        <f>primary!D54</f>
+        <f>primary!D22</f>
         <v>-86.798651000000007</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>primary!E54</f>
+        <f>primary!E22</f>
         <v>115.5</v>
       </c>
       <c r="F48" s="14">
-        <f>primary!H54</f>
-        <v>0</v>
+        <f>primary!H22</f>
+        <v>26</v>
       </c>
       <c r="G48" s="1">
-        <f>primary!K54</f>
-        <v>0</v>
+        <f>primary!K22</f>
+        <v>24</v>
       </c>
       <c r="H48" s="22">
-        <f>primary!N54</f>
-        <v>0</v>
+        <f>primary!N22</f>
+        <v>247.84776574803149</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>primary!O54</f>
+        <f>primary!O22</f>
         <v>In front of University School of Nashville (formerly Peabody Demonstration School)</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f>primary!P54</f>
+        <f>primary!P22</f>
         <v>http://bioimages.vanderbilt.edu/ind-baskauf/90696</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
-        <f>primary!A55</f>
+        <f>primary!A56</f>
         <v>2-854</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>primary!B55</f>
+        <f>primary!B56</f>
         <v>Quercus velutina</v>
       </c>
       <c r="C49" s="1">
-        <f>primary!C55</f>
+        <f>primary!C56</f>
         <v>36.146543999999999</v>
       </c>
       <c r="D49" s="1">
-        <f>primary!D55</f>
+        <f>primary!D56</f>
         <v>-86.802206999999996</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>primary!E55</f>
+        <f>primary!E56</f>
         <v>115</v>
       </c>
       <c r="F49" s="14">
-        <f>primary!H55</f>
+        <f>primary!H56</f>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>primary!K55</f>
+        <f>primary!K56</f>
         <v>0</v>
       </c>
       <c r="H49" s="22">
-        <f>primary!N55</f>
+        <f>primary!N56</f>
         <v>0</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>primary!O55</f>
+        <f>primary!O56</f>
         <v>north of Bicentennial Oak and east of Rand</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f>primary!P55</f>
+        <f>primary!P56</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-313</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
-        <f>primary!A56</f>
+        <f>primary!A19</f>
         <v>1-625</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>primary!B56</f>
+        <f>primary!B19</f>
         <v>Quercus palustris</v>
       </c>
       <c r="C50" s="1">
-        <f>primary!C56</f>
+        <f>primary!C19</f>
         <v>36.143636999999998</v>
       </c>
       <c r="D50" s="1">
-        <f>primary!D56</f>
+        <f>primary!D19</f>
         <v>-86.798165999999995</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>primary!E56</f>
+        <f>primary!E19</f>
         <v>113</v>
       </c>
       <c r="F50" s="14">
-        <f>primary!H56</f>
-        <v>0</v>
+        <f>primary!H19</f>
+        <v>27.5</v>
       </c>
       <c r="G50" s="1">
-        <f>primary!K56</f>
-        <v>0</v>
+        <f>primary!K19</f>
+        <v>25.5</v>
       </c>
       <c r="H50" s="22">
-        <f>primary!N56</f>
-        <v>0</v>
+        <f>primary!N19</f>
+        <v>250.90752460629926</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>primary!O56</f>
+        <f>primary!O19</f>
         <v>tallest tree in northeast Magnolia Lawn</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f>primary!P56</f>
+        <f>primary!P19</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-215</v>
       </c>
     </row>
@@ -23537,43 +23556,43 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
-        <f>primary!A49</f>
+        <f>primary!A51</f>
         <v>2-1036</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>primary!B49</f>
+        <f>primary!B51</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C69" s="1">
-        <f>primary!C49</f>
+        <f>primary!C51</f>
         <v>36.148434000000002</v>
       </c>
       <c r="D69" s="1">
-        <f>primary!D49</f>
+        <f>primary!D51</f>
         <v>-86.802249000000003</v>
       </c>
       <c r="E69" s="1">
-        <f>primary!E49</f>
+        <f>primary!E51</f>
         <v>58.31</v>
       </c>
       <c r="F69" s="14">
-        <f>primary!H49</f>
+        <f>primary!H51</f>
         <v>19.327400000000001</v>
       </c>
       <c r="G69" s="1">
-        <f>primary!K49</f>
+        <f>primary!K51</f>
         <v>18.28</v>
       </c>
       <c r="H69" s="22">
-        <f>primary!N49</f>
+        <f>primary!N51</f>
         <v>150.52788628976379</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>primary!O49</f>
+        <f>primary!O51</f>
         <v>east of Kirkland Hall; southwest of Kissam Quad; in between two other trees</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>primary!P49</f>
+        <f>primary!P51</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/2-35</v>
       </c>
     </row>
@@ -24167,43 +24186,43 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
-        <f>primary!A50</f>
+        <f>primary!A52</f>
         <v>2-886</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>primary!B50</f>
+        <f>primary!B52</f>
         <v>Acer saccharum</v>
       </c>
       <c r="C84" s="1">
-        <f>primary!C50</f>
+        <f>primary!C52</f>
         <v>36.147074000000003</v>
       </c>
       <c r="D84" s="1">
-        <f>primary!D50</f>
+        <f>primary!D52</f>
         <v>-86.801820000000006</v>
       </c>
       <c r="E84" s="1">
-        <f>primary!E50</f>
+        <f>primary!E52</f>
         <v>69.53</v>
       </c>
       <c r="F84" s="14">
-        <f>primary!H50</f>
+        <f>primary!H52</f>
         <v>15.6058</v>
       </c>
       <c r="G84" s="1">
-        <f>primary!K50</f>
+        <f>primary!K52</f>
         <v>15.54</v>
       </c>
       <c r="H84" s="22">
-        <f>primary!N50</f>
+        <f>primary!N52</f>
         <v>149.94724893385825</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>primary!O50</f>
+        <f>primary!O52</f>
         <v>next to the left side of Benson Hall from the front</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f>primary!P50</f>
+        <f>primary!P52</f>
         <v>none</v>
       </c>
     </row>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="14040" tabRatio="347"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">primary!$A$3:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>Steven J Baskauf</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1">
+    <comment ref="E11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1">
+    <comment ref="H11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="1">
+    <comment ref="H23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0">
+    <comment ref="K23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="1">
+    <comment ref="E26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="1">
+    <comment ref="H26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="1">
+    <comment ref="E35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="1">
+    <comment ref="H35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0">
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="1">
+    <comment ref="H38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K38" authorId="1">
+    <comment ref="K38" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0">
+    <comment ref="I39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="1">
+    <comment ref="E40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="1">
+    <comment ref="H40" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0">
+    <comment ref="I41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="1">
+    <comment ref="B42" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="1">
+    <comment ref="H44" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0">
+    <comment ref="I44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K44" authorId="0">
+    <comment ref="K44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="1">
+    <comment ref="E45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="1">
+    <comment ref="H45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0">
+    <comment ref="H47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0">
+    <comment ref="H49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0">
+    <comment ref="H50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="1">
+    <comment ref="E51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="1">
+    <comment ref="H51" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="1">
+    <comment ref="E52" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H52" authorId="1">
+    <comment ref="H52" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0">
+    <comment ref="A73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E99" authorId="0">
+    <comment ref="E99" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E100" authorId="1">
+    <comment ref="E100" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0">
+    <comment ref="B102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E103" authorId="0">
+    <comment ref="E103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1189,9 +1194,6 @@
     <t>4-522</t>
   </si>
   <si>
-    <t>south of Community Partnership House</t>
-  </si>
-  <si>
     <t>4-855</t>
   </si>
   <si>
@@ -2261,6 +2263,9 @@
   </si>
   <si>
     <t>2015-11-04</t>
+  </si>
+  <si>
+    <t>south of Community Partnership House. On 2015-11-10, I noticed that two major trunks on the south side had been removed, so the crown spread is probably much smaller and needs to be remeasured.</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2737,11 +2742,11 @@
   <dimension ref="A1:Q684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3330" ySplit="600" topLeftCell="C1" activePane="bottomRight"/>
+      <pane xSplit="3330" ySplit="600" topLeftCell="N1" activePane="bottomRight"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="K3" sqref="K3"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,16 +2771,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="6"/>
@@ -2798,34 +2803,34 @@
         <v>6</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="J3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>7</v>
@@ -2849,14 +2854,14 @@
         <v>-86.800506999999996</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="26">
         <f t="shared" ref="F4:F37" si="0">E4/2.54</f>
         <v>53.1496062992126</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="13">
         <f>I4/3.281</f>
@@ -2866,7 +2871,7 @@
         <v>104</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K4" s="29">
         <v>29.25</v>
@@ -2876,7 +2881,7 @@
         <v>95.969250000000002</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" ref="N4:N37" si="2">IF(K4=0,0,E4/2.54*3.14159+H4*3.281+K4*3.281/4)</f>
@@ -2904,14 +2909,14 @@
         <v>-86.800944000000001</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>57.480314960629919</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="12">
         <v>28.5</v>
@@ -2921,7 +2926,7 @@
         <v>93.508499999999998</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K5" s="29">
         <v>21</v>
@@ -2931,7 +2936,7 @@
         <v>68.900999999999996</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="2"/>
@@ -2941,7 +2946,7 @@
         <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="6"/>
     </row>
@@ -2959,14 +2964,14 @@
         <v>-86.802183999999997</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>58.661417322834644</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="12">
         <v>25</v>
@@ -2976,7 +2981,7 @@
         <v>82.025000000000006</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K6" s="29">
         <v>30</v>
@@ -2986,7 +2991,7 @@
         <v>98.43</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" si="2"/>
@@ -3014,14 +3019,14 @@
         <v>-86.800025000000005</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="0"/>
         <v>51.968503937007874</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="12">
         <v>32</v>
@@ -3031,7 +3036,7 @@
         <v>104.992</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K7" s="29">
         <v>27.5</v>
@@ -3041,7 +3046,7 @@
         <v>90.227500000000006</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="2"/>
@@ -3057,7 +3062,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>43</v>
@@ -3069,14 +3074,14 @@
         <v>-86.805047000000002</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="0"/>
         <v>49.212598425196852</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="13">
         <v>31</v>
@@ -3086,7 +3091,7 @@
         <v>101.711</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K8" s="29">
         <v>30</v>
@@ -3096,17 +3101,17 @@
         <v>98.43</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="2"/>
         <v>280.92430708661419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3123,14 +3128,14 @@
         <v>-86.796852000000001</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="0"/>
         <v>60.629921259842519</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="13">
         <v>23</v>
@@ -3140,7 +3145,7 @@
         <v>75.463000000000008</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K9" s="29">
         <v>18</v>
@@ -3150,17 +3155,17 @@
         <v>59.058</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="2"/>
         <v>280.70185433070867</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
@@ -3178,14 +3183,14 @@
         <v>-86.799863000000002</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="26">
         <f t="shared" si="0"/>
         <v>46.062992125984252</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="12">
         <v>32</v>
@@ -3195,7 +3200,7 @@
         <v>104.992</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K10" s="29">
         <v>26</v>
@@ -3205,7 +3210,7 @@
         <v>85.305999999999997</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="2"/>
@@ -3220,16 +3225,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="E11" s="26">
         <v>98.676000000000002</v>
@@ -3239,7 +3244,7 @@
         <v>38.848818897637798</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H11" s="34">
         <v>40.008000000000003</v>
@@ -3249,7 +3254,7 @@
         <v>131.26624800000002</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K11" s="29">
         <v>21</v>
@@ -3259,14 +3264,14 @@
         <v>68.900999999999996</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="2"/>
         <v>270.53855896062993</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
@@ -3274,10 +3279,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>36.147533000000003</v>
@@ -3286,14 +3291,14 @@
         <v>-86.801242999999999</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="26">
         <f t="shared" si="0"/>
         <v>50.393700787401571</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="13">
         <v>27</v>
@@ -3303,7 +3308,7 @@
         <v>88.587000000000003</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K12" s="29">
         <v>28</v>
@@ -3313,25 +3318,25 @@
         <v>91.868000000000009</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" si="2"/>
         <v>269.87034645669286</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>36.148834999999998</v>
@@ -3340,14 +3345,14 @@
         <v>-86.801614999999998</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="0"/>
         <v>46.062992125984252</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="13">
         <v>28</v>
@@ -3357,7 +3362,7 @@
         <v>91.868000000000009</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K13" s="29">
         <v>34.5</v>
@@ -3367,22 +3372,22 @@
         <v>113.19450000000001</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="2"/>
         <v>264.8776604330709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>55</v>
@@ -3394,14 +3399,14 @@
         <v>-86.802075000000002</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="0"/>
         <v>52.952755905511808</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="13">
         <v>25</v>
@@ -3411,7 +3416,7 @@
         <v>82.025000000000006</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K14" s="29">
         <v>17.75</v>
@@ -3421,22 +3426,22 @@
         <v>58.237750000000005</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="2"/>
         <v>262.9402859251968</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>33</v>
@@ -3448,14 +3453,14 @@
         <v>-86.804361</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="0"/>
         <v>48.425196850393704</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="12">
         <v>29</v>
@@ -3465,7 +3470,7 @@
         <v>95.149000000000001</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K15" s="29">
         <v>17.5</v>
@@ -3475,26 +3480,26 @@
         <v>57.417500000000004</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="2"/>
         <v>261.63548917322834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <v>36.142294</v>
@@ -3503,14 +3508,14 @@
         <v>-86.798445999999998</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>46.45669291338583</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="13">
         <v>29.5</v>
@@ -3520,7 +3525,7 @@
         <v>96.789500000000004</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K16" s="29">
         <v>20.5</v>
@@ -3530,17 +3535,17 @@
         <v>67.260500000000008</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N16" s="15">
         <f t="shared" si="2"/>
         <v>259.55250688976378</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="Q16" s="6"/>
     </row>
@@ -3558,14 +3563,14 @@
         <v>-86.800296000000003</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>44.881889763779526</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="13">
         <f>I17/3.281</f>
@@ -3575,7 +3580,7 @@
         <v>99</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K17" s="29">
         <v>20</v>
@@ -3585,7 +3590,7 @@
         <v>65.62</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N17" s="15">
         <f t="shared" si="2"/>
@@ -3612,14 +3617,14 @@
         <v>-86.800894</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>49.606299212598422</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="13">
         <v>22</v>
@@ -3629,7 +3634,7 @@
         <v>72.182000000000002</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K18" s="29">
         <v>27.75</v>
@@ -3639,7 +3644,7 @@
         <v>91.047750000000008</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N18" s="15">
         <f t="shared" si="2"/>
@@ -3649,15 +3654,15 @@
         <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="9">
         <v>36.143636999999998</v>
@@ -3666,14 +3671,14 @@
         <v>-86.798165999999995</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="26">
         <f>E19/2.54</f>
         <v>44.488188976377955</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="12">
         <v>27.5</v>
@@ -3683,7 +3688,7 @@
         <v>90.227500000000006</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K19" s="29">
         <v>25.5</v>
@@ -3693,17 +3698,17 @@
         <v>83.665500000000009</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N19" s="15">
         <f>IF(K19=0,0,E19/2.54*3.14159+H19*3.281+K19*3.281/4)</f>
         <v>250.90752460629926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="6"/>
     </row>
@@ -3712,7 +3717,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8">
         <v>36.147728999999998</v>
@@ -3721,14 +3726,14 @@
         <v>-86.802057000000005</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="0"/>
         <v>43.7007874015748</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="12">
         <v>28</v>
@@ -3738,7 +3743,7 @@
         <v>91.868000000000009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K20" s="29">
         <v>24.5</v>
@@ -3748,22 +3753,22 @@
         <v>80.384500000000003</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="2"/>
         <v>249.25408169291339</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>40</v>
@@ -3775,14 +3780,14 @@
         <v>-86.801743999999999</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
         <v>46.45669291338583</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="37">
         <v>26.2</v>
@@ -3792,7 +3797,7 @@
         <v>85.962199999999996</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K21" s="39">
         <v>21</v>
@@ -3802,25 +3807,25 @@
         <v>68.900999999999996</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="2"/>
         <v>249.13533188976376</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="9">
         <v>36.144139000000003</v>
@@ -3829,14 +3834,14 @@
         <v>-86.798651000000007</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F22" s="26">
         <f>E22/2.54</f>
         <v>45.472440944881889</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H22" s="13">
         <v>26</v>
@@ -3846,7 +3851,7 @@
         <v>85.305999999999997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K22" s="40">
         <v>24</v>
@@ -3856,26 +3861,26 @@
         <v>78.744</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N22" s="15">
         <f>IF(K22=0,0,E22/2.54*3.14159+H22*3.281+K22*3.281/4)</f>
         <v>247.84776574803149</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="8">
         <v>36.148788000000003</v>
@@ -3884,14 +3889,14 @@
         <v>-86.803242999999995</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="0"/>
         <v>35.433070866141733</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="36">
         <f>I23/3.281</f>
@@ -3901,7 +3906,7 @@
         <v>116</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K23" s="29">
         <v>25.76</v>
@@ -3911,17 +3916,17 @@
         <v>84.518560000000008</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="2"/>
         <v>248.4458211023622</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="6"/>
     </row>
@@ -3939,14 +3944,14 @@
         <v>-86.804064999999994</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" si="0"/>
         <v>51.574803149606296</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H24" s="13">
         <v>20</v>
@@ -3956,7 +3961,7 @@
         <v>65.62</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K24" s="29">
         <v>22.5</v>
@@ -3966,26 +3971,26 @@
         <v>73.822500000000005</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="2"/>
         <v>246.10251082677163</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="P24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="C25">
         <v>36.147948999999997</v>
@@ -3994,14 +3999,14 @@
         <v>-86.804061000000004</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="0"/>
         <v>41.732283464566926</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H25" s="13">
         <f>I25/3.281</f>
@@ -4011,7 +4016,7 @@
         <v>92.3</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K25" s="39">
         <v>26</v>
@@ -4021,32 +4026,32 @@
         <v>85.305999999999997</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="2"/>
         <v>244.7322244094488</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E26" s="26">
         <v>127</v>
@@ -4056,7 +4061,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26" s="14">
         <v>22.52</v>
@@ -4066,7 +4071,7 @@
         <v>73.888120000000001</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K26" s="29">
         <v>13.89</v>
@@ -4076,17 +4081,17 @@
         <v>45.573090000000001</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N26" s="21">
         <f t="shared" si="2"/>
         <v>242.36089250000001</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="6"/>
     </row>
@@ -4104,14 +4109,14 @@
         <v>-86.805678</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>43.30708661417323</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="13">
         <v>27</v>
@@ -4121,7 +4126,7 @@
         <v>88.587000000000003</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K27" s="29">
         <v>20</v>
@@ -4131,7 +4136,7 @@
         <v>65.62</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="2"/>
@@ -4141,32 +4146,32 @@
         <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E28" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>40.944881889763778</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="13">
         <f>I28/3.281</f>
@@ -4176,7 +4181,7 @@
         <v>89.9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K28" s="39">
         <v>25.5</v>
@@ -4186,25 +4191,25 @@
         <v>83.665500000000009</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="2"/>
         <v>239.448406496063</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29">
         <v>36.144891999999999</v>
@@ -4213,14 +4218,14 @@
         <v>-86.797360999999995</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="26">
         <f t="shared" si="0"/>
         <v>49.015748031496059</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H29" s="13">
         <v>21</v>
@@ -4230,7 +4235,7 @@
         <v>68.900999999999996</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K29" s="29">
         <v>19.25</v>
@@ -4240,23 +4245,23 @@
         <v>63.15925</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="2"/>
         <v>238.67819635826768</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>55</v>
@@ -4268,14 +4273,14 @@
         <v>-86.798512000000002</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>48.228346456692911</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H30" s="12">
         <v>22.5</v>
@@ -4285,7 +4290,7 @@
         <v>73.822500000000005</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K30" s="29">
         <v>15</v>
@@ -4295,26 +4300,26 @@
         <v>49.215000000000003</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="2"/>
         <v>237.63994094488189</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>36.147565999999998</v>
@@ -4323,14 +4328,14 @@
         <v>-86.802029000000005</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="0"/>
         <v>47.244094488188978</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H31" s="13">
         <v>20.5</v>
@@ -4340,7 +4345,7 @@
         <v>67.260500000000008</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K31" s="29">
         <v>21.75</v>
@@ -4350,41 +4355,41 @@
         <v>71.361750000000001</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="2"/>
         <v>233.52251230314963</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="F32" s="26">
         <f t="shared" si="0"/>
         <v>40.551181102362207</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H32" s="13">
         <v>25</v>
@@ -4394,7 +4399,7 @@
         <v>82.025000000000006</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" s="29">
         <v>27.5</v>
@@ -4404,17 +4409,17 @@
         <v>90.227500000000006</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" si="2"/>
         <v>231.97706003937009</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -4431,14 +4436,14 @@
         <v>-86.802242000000007</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="26">
         <f t="shared" si="0"/>
         <v>37.00787401574803</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="12">
         <v>27</v>
@@ -4448,7 +4453,7 @@
         <v>88.587000000000003</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K33" s="29">
         <v>29</v>
@@ -4458,7 +4463,7 @@
         <v>95.149000000000001</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="2"/>
@@ -4468,12 +4473,12 @@
         <v>8</v>
       </c>
       <c r="P33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>55</v>
@@ -4485,14 +4490,14 @@
         <v>-86.798900000000003</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="26">
         <f t="shared" si="0"/>
         <v>47.244094488188978</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="13">
         <v>20</v>
@@ -4502,7 +4507,7 @@
         <v>65.62</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K34" s="29">
         <v>17.5</v>
@@ -4512,32 +4517,32 @@
         <v>57.417500000000004</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="2"/>
         <v>228.39594980314962</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E35" s="26">
         <v>78.424999999999997</v>
@@ -4547,7 +4552,7 @@
         <v>30.875984251968504</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H35" s="34">
         <v>35.466000000000001</v>
@@ -4557,7 +4562,7 @@
         <v>116.36394600000001</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K35" s="29">
         <v>17.983000000000001</v>
@@ -4567,23 +4572,23 @@
         <v>59.002223000000001</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N35" s="21">
         <f t="shared" si="2"/>
         <v>228.11418511614173</v>
       </c>
       <c r="O35" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>49</v>
@@ -4595,14 +4600,14 @@
         <v>-86.801055000000005</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="26">
         <f t="shared" si="0"/>
         <v>48.818897637795274</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" s="13">
         <v>17</v>
@@ -4612,7 +4617,7 @@
         <v>55.777000000000001</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K36" s="29">
         <v>20.75</v>
@@ -4622,23 +4627,23 @@
         <v>68.080750000000009</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="2"/>
         <v>226.16614812992125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q36" s="6"/>
     </row>
     <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>55</v>
@@ -4650,14 +4655,14 @@
         <v>-86.802235999999994</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="26">
         <f t="shared" si="0"/>
         <v>42.913385826771652</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H37" s="13">
         <f>I37/3.281</f>
@@ -4667,7 +4672,7 @@
         <v>72.2</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K37" s="39">
         <v>19</v>
@@ -4677,17 +4682,17 @@
         <v>62.339000000000006</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="2"/>
         <v>222.60101377952756</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q37" s="6"/>
     </row>
@@ -4705,14 +4710,14 @@
         <v>-86.802019000000001</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="26">
         <f t="shared" ref="F38:F54" si="5">E38/2.54</f>
         <v>40.944881889763778</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H38" s="13">
         <v>23.67</v>
@@ -4722,7 +4727,7 @@
         <v>77.661270000000002</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K38" s="29">
         <v>17.07</v>
@@ -4732,7 +4737,7 @@
         <v>56.006670000000007</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N38" s="35">
         <f t="shared" ref="N38:N54" si="7">IF(K38=0,0,E38/2.54*3.14159+H38*3.281+K38*3.281/4)</f>
@@ -4760,14 +4765,14 @@
         <v>-86.801839000000001</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="26">
         <f t="shared" si="5"/>
         <v>32.677165354330711</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H39" s="13">
         <f>I39/3.281</f>
@@ -4777,7 +4782,7 @@
         <v>94</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K39" s="29">
         <v>20.5</v>
@@ -4787,7 +4792,7 @@
         <v>67.260500000000008</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" si="7"/>
@@ -4802,7 +4807,7 @@
     </row>
     <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>55</v>
@@ -4821,7 +4826,7 @@
         <v>42.334645669291341</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H40" s="13">
         <v>20.420000000000002</v>
@@ -4831,7 +4836,7 @@
         <v>66.998020000000011</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K40" s="29">
         <v>14.87</v>
@@ -4841,14 +4846,14 @@
         <v>48.788469999999997</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N40" s="35">
         <f t="shared" si="7"/>
         <v>212.19323698818897</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>34</v>
@@ -4857,10 +4862,10 @@
     </row>
     <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="C41">
         <v>36.146563999999998</v>
@@ -4869,14 +4874,14 @@
         <v>-86.801297000000005</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="26">
         <f t="shared" si="5"/>
         <v>43.7007874015748</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H41" s="13">
         <f>I41/3.281</f>
@@ -4886,7 +4891,7 @@
         <v>60.4</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K41" s="39">
         <v>16</v>
@@ -4896,26 +4901,26 @@
         <v>52.496000000000002</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="7"/>
         <v>210.81395669291337</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3">
         <v>36.148634000000001</v>
@@ -4924,14 +4929,14 @@
         <v>-86.801985999999999</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F42" s="26">
         <f t="shared" si="5"/>
         <v>39.763779527559052</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H42" s="13">
         <v>19.5</v>
@@ -4941,7 +4946,7 @@
         <v>63.979500000000002</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K42" s="29">
         <v>18</v>
@@ -4951,26 +4956,26 @@
         <v>59.058</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N42" s="15">
         <f t="shared" si="7"/>
         <v>203.66549212598426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q42" s="6"/>
     </row>
     <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3">
         <v>36.148558999999999</v>
@@ -4979,14 +4984,14 @@
         <v>-86.803090999999995</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="26">
         <f t="shared" si="5"/>
         <v>39.370078740157481</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" s="13">
         <v>18</v>
@@ -4996,7 +5001,7 @@
         <v>59.058</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K43" s="29">
         <v>23.5</v>
@@ -5006,26 +5011,26 @@
         <v>77.103499999999997</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N43" s="15">
         <f t="shared" si="7"/>
         <v>202.01852066929132</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q43" s="6"/>
     </row>
     <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="3">
         <v>36.148681000000003</v>
@@ -5034,14 +5039,14 @@
         <v>-86.802809999999994</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="26">
         <f t="shared" si="5"/>
         <v>37.401574803149607</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H44" s="13">
         <f>I44/3.281</f>
@@ -5051,7 +5056,7 @@
         <v>64.3</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K44" s="40">
         <v>23</v>
@@ -5061,14 +5066,14 @@
         <v>75.463000000000008</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="7"/>
         <v>200.66616338582676</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>34</v>
@@ -5077,10 +5082,10 @@
     </row>
     <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>36.148788000000003</v>
@@ -5096,7 +5101,7 @@
         <v>37.598425196850393</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H45" s="13">
         <v>16.78</v>
@@ -5106,7 +5111,7 @@
         <v>55.055180000000007</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K45" s="29">
         <v>21.25</v>
@@ -5116,23 +5121,23 @@
         <v>69.721249999999998</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N45" s="15">
         <f t="shared" si="7"/>
         <v>190.60432911417325</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>55</v>
@@ -5144,14 +5149,14 @@
         <v>-86.798676</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F46" s="26">
         <f t="shared" si="5"/>
         <v>37.204724409448815</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="13">
         <v>18.100000000000001</v>
@@ -5161,7 +5166,7 @@
         <v>59.386100000000006</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K46" s="29">
         <v>13.5</v>
@@ -5171,26 +5176,26 @@
         <v>44.293500000000002</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N46" s="15">
         <f t="shared" si="7"/>
         <v>187.34146515748031</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="C47">
         <v>36.146026999999997</v>
@@ -5199,14 +5204,14 @@
         <v>-86.802841999999998</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="26">
         <f t="shared" si="5"/>
         <v>38.188976377952756</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="37">
         <v>13.5</v>
@@ -5216,7 +5221,7 @@
         <v>44.293500000000002</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K47" s="39">
         <v>22.5</v>
@@ -5226,23 +5231,23 @@
         <v>73.822500000000005</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N47" s="15">
         <f t="shared" si="7"/>
         <v>182.72323129921259</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>55</v>
@@ -5254,14 +5259,14 @@
         <v>-86.798294999999996</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="26">
         <f t="shared" si="5"/>
         <v>33.85826771653543</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H48" s="13">
         <v>16.3</v>
@@ -5271,7 +5276,7 @@
         <v>53.480300000000007</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K48" s="40">
         <v>15.6</v>
@@ -5281,25 +5286,25 @@
         <v>51.183599999999998</v>
       </c>
       <c r="M48" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N48" s="15">
         <f t="shared" si="7"/>
         <v>172.64499527559053</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="C49">
         <v>36.145698000000003</v>
@@ -5308,14 +5313,14 @@
         <v>-86.802318</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F49" s="26">
         <f t="shared" si="5"/>
         <v>29.724409448818896</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H49" s="37">
         <v>19.600000000000001</v>
@@ -5325,7 +5330,7 @@
         <v>64.307600000000008</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K49" s="39">
         <v>16</v>
@@ -5335,26 +5340,26 @@
         <v>52.496000000000002</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N49" s="15">
         <f t="shared" si="7"/>
         <v>170.81350748031494</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q49" s="6"/>
     </row>
     <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="9">
         <v>36.143526999999999</v>
@@ -5363,14 +5368,14 @@
         <v>-86.802790999999999</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="26">
         <f t="shared" si="5"/>
         <v>28.346456692913385</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" s="37">
         <v>17.8</v>
@@ -5380,7 +5385,7 @@
         <v>58.401800000000001</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K50" s="13">
         <v>19</v>
@@ -5390,23 +5395,23 @@
         <v>62.339000000000006</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="7"/>
         <v>163.03949488188977</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>55</v>
@@ -5425,7 +5430,7 @@
         <v>22.956692913385826</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H51" s="13">
         <v>19.327400000000001</v>
@@ -5435,7 +5440,7 @@
         <v>63.413199400000003</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K51" s="29">
         <v>18.28</v>
@@ -5445,25 +5450,25 @@
         <v>59.976680000000009</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="7"/>
         <v>150.52788628976379</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C52">
         <v>36.147074000000003</v>
@@ -5479,7 +5484,7 @@
         <v>27.374015748031496</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H52" s="13">
         <v>15.6058</v>
@@ -5489,7 +5494,7 @@
         <v>51.202629800000004</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K52" s="29">
         <v>15.54</v>
@@ -5499,14 +5504,14 @@
         <v>50.986739999999998</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N52" s="15">
         <f t="shared" si="7"/>
         <v>149.94724893385825</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>34</v>
@@ -5514,7 +5519,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>55</v>
@@ -5526,14 +5531,14 @@
         <v>-86.798353000000006</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F53" s="26">
         <f t="shared" si="5"/>
         <v>24.606299212598426</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H53" s="13">
         <v>16.2</v>
@@ -5543,7 +5548,7 @@
         <v>53.152200000000001</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K53" s="29">
         <v>14.75</v>
@@ -5553,25 +5558,25 @@
         <v>48.394750000000002</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N53" s="15">
         <f t="shared" si="7"/>
         <v>142.55379104330709</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="44">
         <v>36.143264000000002</v>
@@ -5587,7 +5592,7 @@
         <v>12.598425196850393</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H54" s="13">
         <v>6.6</v>
@@ -5597,7 +5602,7 @@
         <v>21.654599999999999</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K54" s="40">
         <v>8.85</v>
@@ -5607,17 +5612,17 @@
         <v>29.036850000000001</v>
       </c>
       <c r="M54" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N54" s="15">
         <f t="shared" si="7"/>
         <v>68.492899114173227</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q54" s="6"/>
     </row>
@@ -5635,14 +5640,14 @@
         <v>-86.802537000000001</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="26">
         <f t="shared" ref="F55:F71" si="9">E55/2.54</f>
         <v>46.45669291338583</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="21">
@@ -5661,19 +5666,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="C56" s="9">
         <v>36.146543999999999</v>
@@ -5682,14 +5687,14 @@
         <v>-86.802206999999996</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F56" s="26">
         <f t="shared" si="9"/>
         <v>45.275590551181104</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="21">
@@ -5708,16 +5713,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q56" s="6"/>
     </row>
     <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>55</v>
@@ -5729,14 +5734,14 @@
         <v>-86.801046999999997</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="26">
         <f t="shared" si="9"/>
         <v>43.30708661417323</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="21">
@@ -5755,16 +5760,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q57" s="6"/>
     </row>
     <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>55</v>
@@ -5776,14 +5781,14 @@
         <v>-86.801186000000001</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58" s="26">
         <f t="shared" si="9"/>
         <v>42.913385826771652</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="21">
@@ -5802,16 +5807,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q58" s="6"/>
     </row>
     <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>23</v>
@@ -5823,14 +5828,14 @@
         <v>-86.799206999999996</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="26">
         <f t="shared" si="9"/>
         <v>41.732283464566926</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="21">
@@ -5849,19 +5854,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q59" s="6"/>
     </row>
     <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60">
         <v>36.143653999999998</v>
@@ -5870,14 +5875,14 @@
         <v>-86.799683000000002</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="9"/>
         <v>41.338582677165356</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="21">
@@ -5896,19 +5901,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q60" s="6"/>
     </row>
     <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>36.147402</v>
@@ -5917,14 +5922,14 @@
         <v>-86.801837000000006</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" s="26">
         <f t="shared" si="9"/>
         <v>39.763779527559052</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="21">
@@ -5943,19 +5948,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62">
         <v>36.142541999999999</v>
@@ -5964,14 +5969,14 @@
         <v>-86.798874999999995</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F62" s="26">
         <f t="shared" si="9"/>
         <v>39.566929133858267</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="21">
@@ -5989,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -6009,14 +6014,14 @@
         <v>-86.804118000000003</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="26">
         <f t="shared" si="9"/>
         <v>39.370078740157481</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="21">
@@ -6037,15 +6042,15 @@
         <v>45</v>
       </c>
       <c r="P63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64">
         <v>36.143405000000001</v>
@@ -6054,14 +6059,14 @@
         <v>-86.798804000000004</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" s="26">
         <f t="shared" si="9"/>
         <v>39.173228346456689</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="21">
@@ -6080,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>34</v>
@@ -6088,10 +6093,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65">
         <v>36.141818999999998</v>
@@ -6100,14 +6105,14 @@
         <v>-86.799561999999995</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" s="26">
         <f t="shared" si="9"/>
         <v>39.173228346456689</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="21">
@@ -6125,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>34</v>
@@ -6133,7 +6138,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>52</v>
@@ -6145,14 +6150,14 @@
         <v>-86.806738999999993</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F66" s="26">
         <f t="shared" si="9"/>
         <v>38.976377952755904</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="21">
@@ -6170,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>34</v>
@@ -6178,10 +6183,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C67" s="3">
         <v>36.143763</v>
@@ -6190,14 +6195,14 @@
         <v>-86.802875</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F67" s="26">
         <f t="shared" si="9"/>
         <v>38.582677165354333</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="21">
@@ -6216,15 +6221,15 @@
         <v>0</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>52</v>
@@ -6236,14 +6241,14 @@
         <v>-86.798821000000004</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" s="26">
         <f t="shared" si="9"/>
         <v>38.582677165354333</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="21">
@@ -6261,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>34</v>
@@ -6269,7 +6274,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>4</v>
@@ -6281,14 +6286,14 @@
         <v>-86.799510999999995</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F69" s="26">
         <f t="shared" si="9"/>
         <v>38.582677165354333</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="21">
@@ -6306,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>34</v>
@@ -6326,14 +6331,14 @@
         <v>-86.805170000000004</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" s="26">
         <f t="shared" si="9"/>
         <v>37.795275590551178</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="21">
@@ -6359,10 +6364,10 @@
     </row>
     <row r="71" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71">
         <v>36.145279000000002</v>
@@ -6371,14 +6376,14 @@
         <v>-86.802920999999998</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F71" s="26">
         <f t="shared" si="9"/>
         <v>37.795275590551178</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="21">
@@ -6397,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>34</v>
@@ -6406,10 +6411,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72">
         <v>36.146515000000001</v>
@@ -6418,14 +6423,14 @@
         <v>-86.801902999999996</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F72" s="26">
         <f t="shared" ref="F72:F100" si="13">E72/2.54</f>
         <v>37.795275590551178</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="21">
@@ -6444,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>34</v>
@@ -6452,7 +6457,7 @@
     </row>
     <row r="73" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>52</v>
@@ -6464,14 +6469,14 @@
         <v>-86.799771000000007</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" s="26">
         <f t="shared" si="13"/>
         <v>37.795275590551178</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="21">
@@ -6490,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>34</v>
@@ -6499,7 +6504,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>11</v>
@@ -6511,14 +6516,14 @@
         <v>-86.801195000000007</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F74" s="26">
         <f t="shared" si="13"/>
         <v>37.401574803149607</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="21">
@@ -6536,15 +6541,15 @@
         <v>0</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>43</v>
@@ -6556,14 +6561,14 @@
         <v>-86.797725999999997</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" s="26">
         <f t="shared" si="13"/>
         <v>37.00787401574803</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="21">
@@ -6581,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>34</v>
@@ -6589,7 +6594,7 @@
     </row>
     <row r="76" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>55</v>
@@ -6601,14 +6606,14 @@
         <v>-86.802161999999996</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F76" s="26">
         <f t="shared" si="13"/>
         <v>37.00787401574803</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="21">
@@ -6627,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>34</v>
@@ -6636,10 +6641,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77">
         <v>36.143839999999997</v>
@@ -6648,14 +6653,14 @@
         <v>-86.799430999999998</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" s="26">
         <f t="shared" si="13"/>
         <v>36.614173228346459</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="21">
@@ -6673,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>34</v>
@@ -6681,10 +6686,10 @@
     </row>
     <row r="78" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78">
         <v>36.146383999999998</v>
@@ -6693,14 +6698,14 @@
         <v>-86.800358000000003</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78" s="26">
         <f t="shared" si="13"/>
         <v>35.826771653543304</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="21">
@@ -6719,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>34</v>
@@ -6728,26 +6733,26 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E79" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F79" s="26">
         <f t="shared" si="13"/>
         <v>35.433070866141733</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="21">
@@ -6765,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6785,14 +6790,14 @@
         <v>-86.806319999999999</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F80" s="26">
         <f t="shared" si="13"/>
         <v>35.433070866141733</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="21">
@@ -6820,10 +6825,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81">
         <v>36.148166000000003</v>
@@ -6832,14 +6837,14 @@
         <v>-86.79974</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" s="26">
         <f t="shared" si="13"/>
         <v>35.433070866141733</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="21">
@@ -6857,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>34</v>
@@ -6865,7 +6870,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>55</v>
@@ -6877,14 +6882,14 @@
         <v>-86.802684999999997</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="26">
         <f t="shared" si="13"/>
         <v>35.433070866141733</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="21">
@@ -6902,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>34</v>
@@ -6910,10 +6915,10 @@
     </row>
     <row r="83" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C83">
         <v>36.143422000000001</v>
@@ -6922,14 +6927,14 @@
         <v>-86.797563999999994</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F83" s="26">
         <f t="shared" si="13"/>
         <v>35.236220472440941</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="21">
@@ -6948,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>34</v>
@@ -6957,10 +6962,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84">
         <v>36.143245999999998</v>
@@ -6969,14 +6974,14 @@
         <v>-86.798028000000002</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F84" s="26">
         <f t="shared" si="13"/>
         <v>34.645669291338585</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="21">
@@ -6994,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>34</v>
@@ -7002,7 +7007,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>43</v>
@@ -7014,14 +7019,14 @@
         <v>-86.800766999999993</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F85" s="26">
         <f t="shared" si="13"/>
         <v>34.251968503937007</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="21">
@@ -7039,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>34</v>
@@ -7047,7 +7052,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>55</v>
@@ -7059,14 +7064,14 @@
         <v>-86.801035999999996</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F86" s="26">
         <f t="shared" si="13"/>
         <v>34.251968503937007</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="21">
@@ -7084,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>34</v>
@@ -7092,26 +7097,26 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E87" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F87" s="26">
         <f t="shared" si="13"/>
         <v>34.251968503937007</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="21">
@@ -7129,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>34</v>
@@ -7137,10 +7142,10 @@
     </row>
     <row r="88" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88">
         <v>36.142975</v>
@@ -7149,14 +7154,14 @@
         <v>-86.799812000000003</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F88" s="26">
         <f t="shared" si="13"/>
         <v>33.85826771653543</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="21">
@@ -7175,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>34</v>
@@ -7184,7 +7189,7 @@
     </row>
     <row r="89" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>23</v>
@@ -7196,14 +7201,14 @@
         <v>-86.798716999999996</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="26">
         <f t="shared" si="13"/>
         <v>33.464566929133859</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="21">
@@ -7222,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>34</v>
@@ -7231,7 +7236,7 @@
     </row>
     <row r="90" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>55</v>
@@ -7243,14 +7248,14 @@
         <v>-86.801242999999999</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F90" s="26">
         <f t="shared" si="13"/>
         <v>33.464566929133859</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="21">
@@ -7269,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>34</v>
@@ -7278,10 +7283,10 @@
     </row>
     <row r="91" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C91">
         <v>36.141778000000002</v>
@@ -7290,14 +7295,14 @@
         <v>-86.799700000000001</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F91" s="26">
         <f t="shared" si="13"/>
         <v>32.677165354330711</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="21">
@@ -7316,16 +7321,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>43</v>
@@ -7337,14 +7342,14 @@
         <v>-86.797910999999999</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F92" s="26">
         <f t="shared" si="13"/>
         <v>32.677165354330711</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="21">
@@ -7362,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>34</v>
@@ -7370,7 +7375,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>40</v>
@@ -7382,14 +7387,14 @@
         <v>-86.797843</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F93" s="26">
         <f t="shared" si="13"/>
         <v>32.677165354330711</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="21">
@@ -7407,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>34</v>
@@ -7415,7 +7420,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>55</v>
@@ -7427,14 +7432,14 @@
         <v>-86.802559000000002</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F94" s="26">
         <f t="shared" si="13"/>
         <v>32.677165354330711</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="21">
@@ -7452,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>34</v>
@@ -7460,7 +7465,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>4</v>
@@ -7472,14 +7477,14 @@
         <v>-86.799499999999995</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F95" s="26">
         <f t="shared" si="13"/>
         <v>32.283464566929133</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="21">
@@ -7497,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>34</v>
@@ -7505,10 +7510,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C96">
         <v>36.143656999999997</v>
@@ -7517,14 +7522,14 @@
         <v>-86.798911000000004</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F96" s="26">
         <f t="shared" si="13"/>
         <v>32.086614173228348</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="21">
@@ -7543,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P96" s="7" t="s">
         <v>34</v>
@@ -7551,7 +7556,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>43</v>
@@ -7563,14 +7568,14 @@
         <v>-86.800965000000005</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F97" s="26">
         <f t="shared" si="13"/>
         <v>31.102362204724407</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="21">
@@ -7588,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>34</v>
@@ -7596,10 +7601,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98" s="3">
         <v>36.145786999999999</v>
@@ -7608,14 +7613,14 @@
         <v>-86.806960000000004</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F98" s="26">
         <f t="shared" si="13"/>
         <v>29.133858267716533</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="21">
@@ -7634,15 +7639,15 @@
         <v>0</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>55</v>
@@ -7654,14 +7659,14 @@
         <v>-86.802178999999995</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F99" s="26">
         <f t="shared" si="13"/>
         <v>27.559055118110237</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="21">
@@ -7679,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>34</v>
@@ -7687,10 +7692,10 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C100">
         <v>36.146959000000003</v>
@@ -7699,14 +7704,14 @@
         <v>-86.800606999999999</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F100" s="26">
         <f t="shared" si="13"/>
         <v>23.622047244094489</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="21">
@@ -7724,18 +7729,18 @@
         <v>0</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C101" s="9">
         <v>36.143746999999998</v>
@@ -7744,14 +7749,14 @@
         <v>-86.802758999999995</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F101" s="26">
         <f t="shared" ref="F101:F104" si="17">E101/2.54</f>
         <v>21.456692913385826</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H101" s="13"/>
       <c r="I101" s="21">
@@ -7769,34 +7774,34 @@
         <v>0</v>
       </c>
       <c r="O101" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P101" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C102">
         <v>36.141719000000002</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F102" s="26">
         <f t="shared" si="17"/>
         <v>20.078740157480315</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="21">
@@ -7814,18 +7819,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P102" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103">
         <v>36.146720999999999</v>
@@ -7834,14 +7839,14 @@
         <v>-86.806877999999998</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F103" s="26">
         <f t="shared" si="17"/>
         <v>18.503937007874015</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="21">
@@ -7859,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>34</v>
@@ -7867,10 +7872,10 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="C104" s="9">
         <v>36.148018</v>
@@ -7879,14 +7884,14 @@
         <v>-86.802554000000001</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F104" s="26">
         <f t="shared" si="17"/>
         <v>13.385826771653543</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="21">
@@ -7904,10 +7909,10 @@
         <v>0</v>
       </c>
       <c r="O104" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P104" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -20723,13 +20728,13 @@
         <v>dbh (cm)</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="I1" s="1" t="str">
         <f>primary!O3</f>
@@ -21531,7 +21536,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f>primary!O24</f>
-        <v>south of Community Partnership House</v>
+        <v>south of Community Partnership House. On 2015-11-10, I noticed that two major trunks on the south side had been removed, so the crown spread is probably much smaller and needs to be remeasured.</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>primary!P24</f>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="14040" tabRatio="347"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">primary!$A$3:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>Steven J Baskauf</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1" shapeId="0">
+    <comment ref="E11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1" shapeId="0">
+    <comment ref="H11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0">
+    <comment ref="H21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="1" shapeId="0">
+    <comment ref="H22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -197,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="K22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0">
+    <comment ref="I25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="1" shapeId="0">
+    <comment ref="E34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="1" shapeId="0">
+    <comment ref="H34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -365,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0">
+    <comment ref="I38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="1" shapeId="0">
+    <comment ref="H39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -413,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K38" authorId="1" shapeId="0">
+    <comment ref="K39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -437,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0">
+    <comment ref="I40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0">
+    <comment ref="I42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="1" shapeId="0">
+    <comment ref="E44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -509,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="1" shapeId="0">
+    <comment ref="H44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -533,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="1" shapeId="0">
+    <comment ref="B45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -557,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="1" shapeId="0">
+    <comment ref="H47" authorId="1">
       <text>
         <r>
           <rPr>
@@ -581,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0">
+    <comment ref="I47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K46" authorId="0" shapeId="0">
+    <comment ref="K47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="1" shapeId="0">
+    <comment ref="E49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -653,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="1" shapeId="0">
+    <comment ref="H49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -677,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H51" authorId="0" shapeId="0">
+    <comment ref="H52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -701,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H56" authorId="0" shapeId="0">
+    <comment ref="H57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E57" authorId="0" shapeId="0">
+    <comment ref="E58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -749,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N57" authorId="1" shapeId="0">
+    <comment ref="N58" authorId="1">
       <text>
         <r>
           <rPr>
@@ -773,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E58" authorId="1" shapeId="0">
+    <comment ref="E59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -797,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H59" authorId="0" shapeId="0">
+    <comment ref="H60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="1" shapeId="0">
+    <comment ref="E61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -845,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H60" authorId="1" shapeId="0">
+    <comment ref="H61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="1" shapeId="0">
+    <comment ref="E63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -893,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H62" authorId="1" shapeId="0">
+    <comment ref="H63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -917,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K62" authorId="1" shapeId="0">
+    <comment ref="K63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -941,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N62" authorId="1" shapeId="0">
+    <comment ref="N63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -965,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0" shapeId="0">
+    <comment ref="A72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -989,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0" shapeId="0">
+    <comment ref="A82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E105" authorId="1" shapeId="0">
+    <comment ref="E105" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0" shapeId="0">
+    <comment ref="B107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0">
+    <comment ref="E108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1085,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="427">
   <si>
     <t>ID</t>
   </si>
@@ -2961,7 +2956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2972,11 +2967,11 @@
   <dimension ref="A1:Q684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3330" ySplit="600" topLeftCell="C68" activePane="bottomRight"/>
+      <pane xSplit="3330" ySplit="600" topLeftCell="G32" activePane="bottomLeft"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="K3" sqref="K3"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD72"/>
-      <selection pane="bottomRight" activeCell="P91" sqref="P91"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,1635 +4866,1644 @@
       </c>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="132">
+        <v>36.146718</v>
+      </c>
+      <c r="D37" s="132">
+        <v>-86.802537000000001</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="26">
+        <f>E37/2.54</f>
+        <v>46.45669291338583</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="13">
+        <v>20</v>
+      </c>
+      <c r="I37" s="21">
+        <f>H37*3.281</f>
+        <v>65.62</v>
+      </c>
+      <c r="J37" s="134" t="s">
+        <v>414</v>
+      </c>
+      <c r="K37" s="29">
+        <v>16.5</v>
+      </c>
+      <c r="L37" s="30">
+        <f>K37*3.281</f>
+        <v>54.136500000000005</v>
+      </c>
+      <c r="M37" s="134" t="s">
+        <v>414</v>
+      </c>
+      <c r="N37" s="15">
+        <f>IF(K37=0,0,E37/2.54*3.14159+H37*3.281+K37*3.281/4)</f>
+        <v>225.10200688976377</v>
+      </c>
+      <c r="O37" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="129" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>36.145836000000003</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>-86.802235999999994</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E38" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F38" s="26">
         <f t="shared" si="5"/>
         <v>42.913385826771652</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G38" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="13">
-        <f>I37/3.281</f>
+      <c r="H38" s="13">
+        <f>I38/3.281</f>
         <v>22.005486132276744</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I38" s="23">
         <v>72.2</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K38" s="36">
         <v>19</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L38" s="37">
         <f t="shared" si="6"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="M37" s="35" t="s">
+      <c r="M38" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N38" s="15">
         <f t="shared" si="7"/>
         <v>222.60101377952756</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P38" t="s">
         <v>366</v>
       </c>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="3">
         <v>36.147970000000001</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39" s="3">
         <v>-86.802019000000001</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E39" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F39" s="26">
         <f t="shared" si="5"/>
         <v>40.944881889763778</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G39" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>23.67</v>
       </c>
-      <c r="I38" s="21">
-        <f>H38*3.281</f>
+      <c r="I39" s="21">
+        <f>H39*3.281</f>
         <v>77.661270000000002</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K39" s="29">
         <v>17.07</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L39" s="30">
         <f t="shared" si="6"/>
         <v>56.006670000000007</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M39" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="N38" s="33">
+      <c r="N39" s="33">
         <f t="shared" si="7"/>
         <v>220.29496899606298</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C40" s="8">
         <v>36.146864000000001</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>-86.801839000000001</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E40" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F40" s="26">
         <f t="shared" si="5"/>
         <v>32.677165354330711</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G40" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H39" s="13">
-        <f>I39/3.281</f>
+      <c r="H40" s="13">
+        <f>I40/3.281</f>
         <v>28.649801889667781</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I40" s="23">
         <v>94</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K40" s="29">
         <v>20.5</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L40" s="30">
         <f t="shared" si="6"/>
         <v>67.260500000000008</v>
       </c>
-      <c r="M39" s="27" t="s">
+      <c r="M40" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N40" s="15">
         <f t="shared" si="7"/>
         <v>213.47338090551179</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B41" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="132">
+      <c r="C41" s="132">
         <v>36.145913999999998</v>
       </c>
-      <c r="D40" s="132">
+      <c r="D41" s="132">
         <v>-86.801046999999997</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E41" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F41" s="66">
         <f t="shared" si="5"/>
         <v>43.30708661417323</v>
       </c>
-      <c r="G40" s="145" t="s">
+      <c r="G41" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H41" s="62">
         <v>18.5</v>
       </c>
-      <c r="I40" s="65">
-        <f>H40*3.281</f>
+      <c r="I41" s="65">
+        <f>H41*3.281</f>
         <v>60.698500000000003</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J41" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="K40" s="159">
+      <c r="K41" s="159">
         <v>17.75</v>
       </c>
-      <c r="L40" s="67">
+      <c r="L41" s="67">
         <f t="shared" si="6"/>
         <v>58.237750000000005</v>
       </c>
-      <c r="M40" s="134" t="s">
+      <c r="M41" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="N40" s="64">
+      <c r="N41" s="64">
         <f t="shared" si="7"/>
         <v>211.31104773622047</v>
       </c>
-      <c r="O40" s="134" t="s">
+      <c r="O41" s="134" t="s">
         <v>330</v>
       </c>
-      <c r="P40" s="129" t="s">
+      <c r="P41" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>36.146563999999998</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>-86.801297000000005</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E42" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F42" s="26">
         <f t="shared" si="5"/>
         <v>43.7007874015748</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G42" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H41" s="13">
-        <f>I41/3.281</f>
+      <c r="H42" s="13">
+        <f>I42/3.281</f>
         <v>18.40902163974398</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I42" s="23">
         <v>60.4</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K42" s="36">
         <v>16</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L42" s="37">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M41" s="35" t="s">
+      <c r="M42" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N42" s="15">
         <f t="shared" si="7"/>
         <v>210.81395669291337</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P42" t="s">
         <v>364</v>
       </c>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="134" t="s">
+      <c r="B43" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="129">
+      <c r="C43" s="129">
         <v>36.146968000000001</v>
       </c>
-      <c r="D42" s="129">
+      <c r="D43" s="129">
         <v>-86.801186000000001</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E43" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F43" s="26">
         <f t="shared" si="5"/>
         <v>42.913385826771652</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G43" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>18.5</v>
       </c>
-      <c r="I42" s="21">
-        <f>H42*3.281</f>
+      <c r="I43" s="21">
+        <f>H43*3.281</f>
         <v>60.698500000000003</v>
       </c>
-      <c r="J42" s="134" t="s">
+      <c r="J43" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K43" s="29">
         <v>16</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L43" s="30">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M42" s="150" t="s">
+      <c r="M43" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N43" s="15">
         <f t="shared" si="7"/>
         <v>208.63876377952755</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P43" t="s">
         <v>367</v>
       </c>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B44" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="129">
+      <c r="C44" s="129">
         <v>36.148797999999999</v>
       </c>
-      <c r="D43" s="129">
+      <c r="D44" s="129">
         <v>-86.801866000000004</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E44" s="26">
         <v>106</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F44" s="26">
         <f t="shared" si="5"/>
         <v>41.732283464566926</v>
       </c>
-      <c r="G43" s="150" t="s">
+      <c r="G44" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>19</v>
       </c>
-      <c r="I43" s="21">
-        <f>H43*3.281</f>
+      <c r="I44" s="21">
+        <f>H44*3.281</f>
         <v>62.339000000000006</v>
       </c>
-      <c r="J43" s="134" t="s">
+      <c r="J44" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="K43" s="158">
+      <c r="K44" s="158">
         <v>17.25</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L44" s="30">
         <f t="shared" si="6"/>
         <v>56.597250000000003</v>
       </c>
-      <c r="M43" s="150" t="s">
+      <c r="M44" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N44" s="15">
         <f t="shared" si="7"/>
         <v>207.59403690944882</v>
       </c>
-      <c r="O43" s="130" t="s">
+      <c r="O44" s="130" t="s">
         <v>402</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B45" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>36.148634000000001</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>-86.801985999999999</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E45" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F45" s="26">
         <f t="shared" si="5"/>
         <v>39.763779527559052</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G45" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>19.5</v>
       </c>
-      <c r="I44" s="21">
-        <f>H44*3.281</f>
+      <c r="I45" s="21">
+        <f>H45*3.281</f>
         <v>63.979500000000002</v>
       </c>
-      <c r="J44" s="131" t="s">
+      <c r="J45" s="131" t="s">
         <v>340</v>
       </c>
-      <c r="K44" s="159">
+      <c r="K45" s="159">
         <v>18</v>
       </c>
-      <c r="L44" s="161">
+      <c r="L45" s="161">
         <f t="shared" si="6"/>
         <v>59.058</v>
       </c>
-      <c r="M44" s="152" t="s">
+      <c r="M45" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N45" s="15">
         <f t="shared" si="7"/>
         <v>203.66549212598426</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P44" s="129" t="s">
+      <c r="P45" s="129" t="s">
         <v>359</v>
       </c>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B46" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="132">
+      <c r="C46" s="132">
         <v>36.148558999999999</v>
       </c>
-      <c r="D45" s="132">
+      <c r="D46" s="132">
         <v>-86.803090999999995</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F46" s="26">
         <f t="shared" si="5"/>
         <v>39.370078740157481</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G46" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>18</v>
       </c>
-      <c r="I45" s="21">
-        <f>H45*3.281</f>
+      <c r="I46" s="21">
+        <f>H46*3.281</f>
         <v>59.058</v>
       </c>
-      <c r="J45" s="157" t="s">
+      <c r="J46" s="157" t="s">
         <v>340</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K46" s="29">
         <v>23.5</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L46" s="30">
         <f t="shared" si="6"/>
         <v>77.103499999999997</v>
       </c>
-      <c r="M45" s="147" t="s">
+      <c r="M46" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N46" s="15">
         <f t="shared" si="7"/>
         <v>202.01852066929132</v>
       </c>
-      <c r="O45" s="134" t="s">
+      <c r="O46" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="132">
+      <c r="C47" s="132">
         <v>36.148681000000003</v>
       </c>
-      <c r="D46" s="132">
+      <c r="D47" s="132">
         <v>-86.802809999999994</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F47" s="26">
         <f t="shared" si="5"/>
         <v>37.401574803149607</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G47" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="13">
-        <f>I46/3.281</f>
+      <c r="H47" s="13">
+        <f>I47/3.281</f>
         <v>19.597683633038706</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I47" s="21">
         <v>64.3</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K46" s="148">
+      <c r="K47" s="148">
         <v>23</v>
       </c>
-      <c r="L46" s="149">
+      <c r="L47" s="149">
         <f t="shared" si="6"/>
         <v>75.463000000000008</v>
       </c>
-      <c r="M46" s="150" t="s">
+      <c r="M47" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N47" s="15">
         <f t="shared" si="7"/>
         <v>200.66616338582676</v>
       </c>
-      <c r="O46" s="134" t="s">
+      <c r="O47" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="P46" s="134" t="s">
+      <c r="P47" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B48" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>36.148344000000002</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>-86.802238000000003</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E48" s="26">
         <v>107</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F48" s="26">
         <f t="shared" si="5"/>
         <v>42.125984251968504</v>
       </c>
-      <c r="G47" s="150" t="s">
+      <c r="G48" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H47" s="140">
+      <c r="H48" s="140">
         <v>15</v>
       </c>
-      <c r="I47" s="21">
-        <f t="shared" ref="I47:I78" si="8">H47*3.281</f>
+      <c r="I48" s="21">
+        <f t="shared" ref="I48:I78" si="8">H48*3.281</f>
         <v>49.215000000000003</v>
       </c>
-      <c r="J47" s="134" t="s">
+      <c r="J48" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="K47" s="148">
+      <c r="K48" s="148">
         <v>15.25</v>
       </c>
-      <c r="L47" s="149">
+      <c r="L48" s="149">
         <f t="shared" si="6"/>
         <v>50.035250000000005</v>
       </c>
-      <c r="M47" s="150" t="s">
+      <c r="M48" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N48" s="15">
         <f t="shared" si="7"/>
         <v>194.06638336614174</v>
       </c>
-      <c r="O47" s="130" t="s">
+      <c r="O48" s="130" t="s">
         <v>417</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="131" t="s">
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="130" t="s">
+      <c r="B49" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>36.148788000000003</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>-86.803242999999995</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E49" s="26">
         <v>95.5</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F49" s="26">
         <f t="shared" si="5"/>
         <v>37.598425196850393</v>
       </c>
-      <c r="G48" s="150" t="s">
+      <c r="G49" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>16.78</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I49" s="21">
         <f t="shared" si="8"/>
         <v>55.055180000000007</v>
       </c>
-      <c r="J48" s="134" t="s">
+      <c r="J49" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="K48" s="159">
+      <c r="K49" s="159">
         <v>21.25</v>
       </c>
-      <c r="L48" s="161">
+      <c r="L49" s="161">
         <f t="shared" si="6"/>
         <v>69.721249999999998</v>
       </c>
-      <c r="M48" s="134" t="s">
+      <c r="M49" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N49" s="15">
         <f t="shared" si="7"/>
         <v>190.60432911417325</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="P48" s="130" t="s">
+      <c r="P49" s="130" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="130" t="s">
+    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="134" t="s">
+      <c r="B50" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>36.142912000000003</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>-86.798676</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F50" s="26">
         <f t="shared" si="5"/>
         <v>37.204724409448815</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G50" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="140">
+      <c r="H50" s="140">
         <v>18.100000000000001</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I50" s="21">
         <f t="shared" si="8"/>
         <v>59.386100000000006</v>
       </c>
-      <c r="J49" s="150" t="s">
+      <c r="J50" s="150" t="s">
         <v>403</v>
       </c>
-      <c r="K49" s="148">
+      <c r="K50" s="148">
         <v>13.5</v>
       </c>
-      <c r="L49" s="149">
+      <c r="L50" s="149">
         <f t="shared" si="6"/>
         <v>44.293500000000002</v>
       </c>
-      <c r="M49" s="147" t="s">
+      <c r="M50" s="147" t="s">
         <v>403</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N50" s="15">
         <f t="shared" si="7"/>
         <v>187.34146515748031</v>
       </c>
-      <c r="O49" s="130" t="s">
+      <c r="O50" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P50" t="s">
         <v>409</v>
       </c>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="130" t="s">
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="134" t="s">
+      <c r="B51" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="129">
+      <c r="C51" s="129">
         <v>36.146942000000003</v>
       </c>
-      <c r="D50" s="129">
+      <c r="D51" s="129">
         <v>-86.801242999999999</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F51" s="26">
         <f t="shared" si="5"/>
         <v>33.464566929133859</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G51" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H50" s="140">
+      <c r="H51" s="140">
         <v>19</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I51" s="21">
         <f t="shared" si="8"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="J50" s="150" t="s">
+      <c r="J51" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="K50" s="159">
+      <c r="K51" s="159">
         <v>21.25</v>
       </c>
-      <c r="L50" s="161">
+      <c r="L51" s="161">
         <f t="shared" si="6"/>
         <v>69.721249999999998</v>
       </c>
-      <c r="M50" s="150" t="s">
+      <c r="M51" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N51" s="15">
         <f t="shared" si="7"/>
         <v>184.90126131889764</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O51" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P51" t="s">
         <v>418</v>
       </c>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="137" t="s">
+      <c r="B52" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C52" s="38">
         <v>36.146026999999997</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D52" s="38">
         <v>-86.802841999999998</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E52" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F52" s="43">
         <f t="shared" si="5"/>
         <v>38.188976377952756</v>
       </c>
-      <c r="G51" s="145" t="s">
+      <c r="G52" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="156">
+      <c r="H52" s="156">
         <v>13.5</v>
       </c>
-      <c r="I51" s="42">
+      <c r="I52" s="42">
         <f t="shared" si="8"/>
         <v>44.293500000000002</v>
       </c>
-      <c r="J51" s="131" t="s">
+      <c r="J52" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="K51" s="158">
+      <c r="K52" s="158">
         <v>22.5</v>
       </c>
-      <c r="L51" s="160">
+      <c r="L52" s="160">
         <f t="shared" si="6"/>
         <v>73.822500000000005</v>
       </c>
-      <c r="M51" s="157" t="s">
+      <c r="M52" s="157" t="s">
         <v>401</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N52" s="41">
         <f t="shared" si="7"/>
         <v>182.72323129921259</v>
       </c>
-      <c r="O51" s="134" t="s">
+      <c r="O52" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="P52" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="134" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="134" t="s">
         <v>419</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>36.148625000000003</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>-86.802114000000003</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E53" s="26">
         <v>89</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F53" s="26">
         <f t="shared" si="5"/>
         <v>35.039370078740156</v>
       </c>
-      <c r="G52" s="150" t="s">
+      <c r="G53" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>18</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I53" s="21">
         <f t="shared" si="8"/>
         <v>59.058</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K53" s="29">
         <v>15</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L53" s="30">
         <f t="shared" si="6"/>
         <v>49.215000000000003</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M53" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N53" s="15">
         <f t="shared" si="7"/>
         <v>181.44108464566929</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="134" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="134" t="s">
         <v>421</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B54" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>36.148536</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>-86.802197000000007</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E54" s="26">
         <v>83</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F54" s="26">
         <f t="shared" si="5"/>
         <v>32.677165354330711</v>
       </c>
-      <c r="G53" s="134" t="s">
+      <c r="G54" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>20</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I54" s="21">
         <f t="shared" si="8"/>
         <v>65.62</v>
       </c>
-      <c r="J53" s="134" t="s">
+      <c r="J54" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="K53" s="148">
+      <c r="K54" s="148">
         <v>16</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L54" s="30">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M53" s="150" t="s">
+      <c r="M54" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N54" s="15">
         <f t="shared" si="7"/>
         <v>181.40225590551179</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P53" s="130" t="s">
+      <c r="P54" s="130" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="131" t="s">
+    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="134" t="s">
+      <c r="B55" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="129">
+      <c r="C55" s="129">
         <v>36.145916999999997</v>
       </c>
-      <c r="D54" s="129">
+      <c r="D55" s="129">
         <v>-86.802161999999996</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E55" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F55" s="26">
         <f t="shared" si="5"/>
         <v>37.00787401574803</v>
       </c>
-      <c r="G54" s="145" t="s">
+      <c r="G55" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>15.5</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I55" s="21">
         <f t="shared" si="8"/>
         <v>50.855499999999999</v>
       </c>
-      <c r="J54" s="150" t="s">
+      <c r="J55" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="K54" s="159">
+      <c r="K55" s="159">
         <v>15.5</v>
       </c>
-      <c r="L54" s="161">
+      <c r="L55" s="161">
         <f t="shared" si="6"/>
         <v>50.855499999999999</v>
       </c>
-      <c r="M54" s="150" t="s">
+      <c r="M55" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N55" s="15">
         <f t="shared" si="7"/>
         <v>179.83294192913385</v>
       </c>
-      <c r="O54" s="131" t="s">
+      <c r="O55" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="P54" s="131" t="s">
+      <c r="P55" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="130" t="s">
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="134" t="s">
+      <c r="B56" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="129">
+      <c r="C56" s="129">
         <v>36.142820999999998</v>
       </c>
-      <c r="D55" s="129">
+      <c r="D56" s="129">
         <v>-86.798294999999996</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E56" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F56" s="26">
         <f t="shared" si="5"/>
         <v>33.85826771653543</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G56" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>16.3</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I56" s="21">
         <f t="shared" si="8"/>
         <v>53.480300000000007</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K55" s="148">
+      <c r="K56" s="148">
         <v>15.6</v>
       </c>
-      <c r="L55" s="149">
+      <c r="L56" s="149">
         <f t="shared" si="6"/>
         <v>51.183599999999998</v>
       </c>
-      <c r="M55" s="147" t="s">
+      <c r="M56" s="147" t="s">
         <v>403</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N56" s="15">
         <f t="shared" si="7"/>
         <v>172.64499527559053</v>
       </c>
-      <c r="O55" s="130" t="s">
+      <c r="O56" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P56" t="s">
         <v>410</v>
       </c>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C56" s="129">
+      <c r="C57" s="129">
         <v>36.145698000000003</v>
       </c>
-      <c r="D56" s="129">
+      <c r="D57" s="129">
         <v>-86.802318</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E57" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F57" s="26">
         <f t="shared" si="5"/>
         <v>29.724409448818896</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G57" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="H56" s="156">
+      <c r="H57" s="156">
         <v>19.600000000000001</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I57" s="21">
         <f t="shared" si="8"/>
         <v>64.307600000000008</v>
       </c>
-      <c r="J56" s="131" t="s">
+      <c r="J57" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="K56" s="158">
+      <c r="K57" s="158">
         <v>16</v>
       </c>
-      <c r="L56" s="160">
+      <c r="L57" s="160">
         <f t="shared" si="6"/>
         <v>52.496000000000002</v>
       </c>
-      <c r="M56" s="157" t="s">
+      <c r="M57" s="157" t="s">
         <v>401</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N57" s="15">
         <f t="shared" si="7"/>
         <v>170.81350748031494</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O57" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P56" s="129" t="s">
+      <c r="P57" s="129" t="s">
         <v>374</v>
       </c>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="130" t="s">
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B58" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="129">
+      <c r="C58" s="129">
         <v>36.147545999999998</v>
       </c>
-      <c r="D57" s="129">
+      <c r="D58" s="129">
         <v>-86.802178999999995</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E58" s="48">
         <v>71</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F58" s="48">
         <f t="shared" si="5"/>
         <v>27.952755905511811</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G58" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H58" s="45">
         <v>20.5</v>
       </c>
-      <c r="I57" s="46">
+      <c r="I58" s="46">
         <f t="shared" si="8"/>
         <v>67.260500000000008</v>
       </c>
-      <c r="J57" s="44" t="s">
+      <c r="J58" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="K57" s="49">
+      <c r="K58" s="49">
         <v>18</v>
       </c>
-      <c r="L57" s="50">
+      <c r="L58" s="50">
         <f t="shared" si="6"/>
         <v>59.058</v>
       </c>
-      <c r="M57" s="150" t="s">
+      <c r="M58" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N57" s="144">
+      <c r="N58" s="144">
         <f t="shared" si="7"/>
         <v>169.84109842519683</v>
       </c>
-      <c r="O57" s="130" t="s">
+      <c r="O58" s="130" t="s">
         <v>279</v>
       </c>
-      <c r="P57" s="130" t="s">
+      <c r="P58" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="130" t="s">
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="130" t="s">
+      <c r="B59" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C59" s="51">
         <v>36.145654</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D59" s="51">
         <v>-86.801035999999996</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E59" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F59" s="57">
         <f t="shared" si="5"/>
         <v>34.251968503937007</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G59" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H58" s="53">
+      <c r="H59" s="53">
         <v>13</v>
       </c>
-      <c r="I58" s="55">
+      <c r="I59" s="55">
         <f t="shared" si="8"/>
         <v>42.652999999999999</v>
       </c>
-      <c r="J58" s="52" t="s">
+      <c r="J59" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="K58" s="58">
+      <c r="K59" s="58">
         <v>17.5</v>
       </c>
-      <c r="L58" s="59">
+      <c r="L59" s="59">
         <f t="shared" si="6"/>
         <v>57.417500000000004</v>
       </c>
-      <c r="M58" s="60" t="s">
+      <c r="M59" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="N58" s="54">
+      <c r="N59" s="54">
         <f t="shared" si="7"/>
         <v>164.61301673228346</v>
       </c>
-      <c r="O58" s="130" t="s">
+      <c r="O59" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="P58" s="130" t="s">
+      <c r="P59" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="137" t="s">
+      <c r="B60" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="136">
+      <c r="C60" s="136">
         <v>36.143526999999999</v>
       </c>
-      <c r="D59" s="136">
+      <c r="D60" s="136">
         <v>-86.802790999999999</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E60" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F60" s="26">
         <f t="shared" si="5"/>
         <v>28.346456692913385</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G60" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H59" s="156">
+      <c r="H60" s="156">
         <v>17.8</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I60" s="21">
         <f t="shared" si="8"/>
         <v>58.401800000000001</v>
       </c>
-      <c r="J59" s="131" t="s">
+      <c r="J60" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="K59" s="158">
+      <c r="K60" s="158">
         <v>19</v>
       </c>
-      <c r="L59" s="160">
+      <c r="L60" s="160">
         <f t="shared" si="6"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="M59" s="157" t="s">
+      <c r="M60" s="157" t="s">
         <v>401</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N60" s="15">
         <f t="shared" si="7"/>
         <v>163.03949488188977</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O60" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P60" t="s">
         <v>376</v>
       </c>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="131" t="s">
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>36.147074000000003</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>-86.801820000000006</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E61" s="26">
         <v>69.53</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F61" s="26">
         <f t="shared" si="5"/>
         <v>27.374015748031496</v>
       </c>
-      <c r="G60" s="150" t="s">
+      <c r="G61" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>15.6058</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I61" s="21">
         <f t="shared" si="8"/>
         <v>51.202629800000004</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K61" s="29">
         <v>15.54</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L61" s="30">
         <f t="shared" si="6"/>
         <v>50.986739999999998</v>
       </c>
-      <c r="M60" s="150" t="s">
+      <c r="M61" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N61" s="15">
         <f t="shared" si="7"/>
         <v>149.94724893385825</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="P60" s="130" t="s">
+      <c r="P61" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134" t="s">
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="B61" s="130" t="s">
+      <c r="B62" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>36.148497999999996</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>-86.802300000000002</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E62" s="26">
         <v>67</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F62" s="26">
         <f t="shared" si="5"/>
         <v>26.377952755905511</v>
       </c>
-      <c r="G61" s="150" t="s">
+      <c r="G62" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>17</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I62" s="21">
         <f t="shared" si="8"/>
         <v>55.777000000000001</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J62" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K62" s="29">
         <v>13</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L62" s="30">
         <f t="shared" si="6"/>
         <v>42.652999999999999</v>
       </c>
-      <c r="M61" s="150" t="s">
+      <c r="M62" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N62" s="15">
         <f t="shared" si="7"/>
         <v>149.30896259842518</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="133" t="s">
         <v>382</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="130" t="s">
+      <c r="C63" s="130" t="s">
         <v>386</v>
       </c>
-      <c r="D62" s="130" t="s">
+      <c r="D63" s="130" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E63" s="26">
         <v>58</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F63" s="26">
         <f t="shared" si="5"/>
         <v>22.834645669291337</v>
       </c>
-      <c r="G62" s="150" t="s">
+      <c r="G63" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H62" s="141">
+      <c r="H63" s="141">
         <v>19</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I63" s="21">
         <f t="shared" si="8"/>
         <v>62.339000000000006</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K63" s="29">
         <v>17.75</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L63" s="30">
         <f t="shared" si="6"/>
         <v>58.237750000000005</v>
       </c>
-      <c r="M62" s="150" t="s">
+      <c r="M63" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="N62" s="144">
+      <c r="N63" s="144">
         <f t="shared" si="7"/>
         <v>148.63553198818897</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P62" s="130" t="s">
+      <c r="P63" s="130" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="130" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B64" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="129">
+      <c r="C64" s="129">
         <v>36.142907000000001</v>
       </c>
-      <c r="D63" s="129">
+      <c r="D64" s="129">
         <v>-86.798353000000006</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E64" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F64" s="26">
         <f t="shared" si="5"/>
         <v>24.606299212598426</v>
       </c>
-      <c r="G63" s="145" t="s">
+      <c r="G64" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>16.2</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I64" s="21">
         <f t="shared" si="8"/>
         <v>53.152200000000001</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K64" s="29">
         <v>14.75</v>
       </c>
-      <c r="L63" s="30">
+      <c r="L64" s="30">
         <f t="shared" si="6"/>
         <v>48.394750000000002</v>
       </c>
-      <c r="M63" s="27" t="s">
+      <c r="M64" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N64" s="15">
         <f t="shared" si="7"/>
         <v>142.55379104330709</v>
       </c>
-      <c r="O63" s="130" t="s">
+      <c r="O64" s="130" t="s">
         <v>337</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B64" s="130" t="s">
+      <c r="B65" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>36.148297999999997</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>-86.802287000000007</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E65" s="26">
         <v>61</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F65" s="26">
         <f t="shared" si="5"/>
         <v>24.015748031496063</v>
       </c>
-      <c r="G64" s="150" t="s">
+      <c r="G65" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>12.5</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I65" s="21">
         <f t="shared" si="8"/>
         <v>41.012500000000003</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K65" s="29">
         <v>14.5</v>
       </c>
-      <c r="L64" s="30">
+      <c r="L65" s="30">
         <f t="shared" si="6"/>
         <v>47.5745</v>
       </c>
-      <c r="M64" s="134" t="s">
+      <c r="M65" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N65" s="15">
         <f t="shared" si="7"/>
         <v>128.35375885826772</v>
       </c>
-      <c r="O64" s="130" t="s">
+      <c r="O65" s="130" t="s">
         <v>426</v>
       </c>
-      <c r="P64" s="130" t="s">
+      <c r="P65" s="130" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="162" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="162" t="s">
         <v>406</v>
       </c>
-      <c r="B65" s="138" t="s">
+      <c r="B66" s="138" t="s">
         <v>404</v>
       </c>
-      <c r="C65" s="163">
+      <c r="C66" s="163">
         <v>36.143264000000002</v>
       </c>
-      <c r="D65" s="163">
+      <c r="D66" s="163">
         <v>-86.798715000000001</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E66" s="26">
         <v>32</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F66" s="26">
         <f t="shared" si="5"/>
         <v>12.598425196850393</v>
       </c>
-      <c r="G65" s="150" t="s">
+      <c r="G66" s="150" t="s">
         <v>405</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>6.6</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I66" s="21">
         <f t="shared" si="8"/>
         <v>21.654599999999999</v>
       </c>
-      <c r="J65" s="134" t="s">
+      <c r="J66" s="134" t="s">
         <v>405</v>
       </c>
-      <c r="K65" s="148">
+      <c r="K66" s="148">
         <v>8.85</v>
       </c>
-      <c r="L65" s="149">
+      <c r="L66" s="149">
         <f t="shared" si="6"/>
         <v>29.036850000000001</v>
       </c>
-      <c r="M65" s="150" t="s">
+      <c r="M66" s="150" t="s">
         <v>405</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N66" s="15">
         <f t="shared" si="7"/>
         <v>68.492899114173227</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="132">
-        <v>36.146718</v>
-      </c>
-      <c r="D66" s="132">
-        <v>-86.802537000000001</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="26">
-        <f t="shared" si="5"/>
-        <v>46.45669291338583</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="P66" s="129" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -7077,7 +7081,7 @@
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="21">
-        <f t="shared" ref="I79:I110" si="12">H79*3.281</f>
+        <f t="shared" ref="I79:I109" si="12">H79*3.281</f>
         <v>0</v>
       </c>
       <c r="J79" s="7"/>
@@ -8031,7 +8035,7 @@
         <v>82</v>
       </c>
       <c r="F100" s="26">
-        <f t="shared" ref="F100:F131" si="13">E100/2.54</f>
+        <f t="shared" ref="F100:F109" si="13">E100/2.54</f>
         <v>32.677165354330711</v>
       </c>
       <c r="G100" s="151" t="s">
@@ -8045,7 +8049,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="29"/>
       <c r="L100" s="30">
-        <f t="shared" ref="L100:L131" si="14">K100*3.281</f>
+        <f t="shared" ref="L100:L109" si="14">K100*3.281</f>
         <v>0</v>
       </c>
       <c r="N100" s="15">
@@ -22411,7 +22415,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>primary!A45</f>
+        <f>primary!A46</f>
         <v>2-185</v>
       </c>
       <c r="B31" s="1" t="str">
@@ -22495,337 +22499,337 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>primary!A37</f>
+        <f>primary!A38</f>
         <v>4-943</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>primary!B37</f>
+        <f>primary!B38</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C33" s="1">
-        <f>primary!C37</f>
+        <f>primary!C38</f>
         <v>36.145836000000003</v>
       </c>
       <c r="D33" s="1">
-        <f>primary!D37</f>
+        <f>primary!D38</f>
         <v>-86.802235999999994</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>primary!E37</f>
+        <f>primary!E38</f>
         <v>109</v>
       </c>
       <c r="F33" s="14">
-        <f>primary!H37</f>
+        <f>primary!H38</f>
         <v>22.005486132276744</v>
       </c>
       <c r="G33" s="1">
-        <f>primary!K37</f>
+        <f>primary!K38</f>
         <v>19</v>
       </c>
       <c r="H33" s="22">
-        <f>primary!N37</f>
+        <f>primary!N38</f>
         <v>222.60101377952756</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>primary!O37</f>
+        <f>primary!O38</f>
         <v>front Buttrick, s. of entry walk</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f>primary!P37</f>
+        <f>primary!P38</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>primary!A38</f>
+        <f>primary!A39</f>
         <v>2-780</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>primary!B38</f>
+        <f>primary!B39</f>
         <v>Liriodendron tulipifera</v>
       </c>
       <c r="C34" s="1">
-        <f>primary!C38</f>
+        <f>primary!C39</f>
         <v>36.147970000000001</v>
       </c>
       <c r="D34" s="1">
-        <f>primary!D38</f>
+        <f>primary!D39</f>
         <v>-86.802019000000001</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>primary!E38</f>
+        <f>primary!E39</f>
         <v>104</v>
       </c>
       <c r="F34" s="14">
-        <f>primary!H38</f>
+        <f>primary!H39</f>
         <v>23.67</v>
       </c>
       <c r="G34" s="1">
-        <f>primary!K38</f>
+        <f>primary!K39</f>
         <v>17.07</v>
       </c>
       <c r="H34" s="22">
-        <f>primary!N38</f>
+        <f>primary!N39</f>
         <v>220.29496899606298</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>primary!O38</f>
+        <f>primary!O39</f>
         <v>Between Kirkland and Furman Halls</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f>primary!P38</f>
+        <f>primary!P39</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/3-4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f>primary!A39</f>
+        <f>primary!A40</f>
         <v>2-528</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>primary!B39</f>
+        <f>primary!B40</f>
         <v>Ulmus serotina</v>
       </c>
       <c r="C35" s="1">
-        <f>primary!C39</f>
+        <f>primary!C40</f>
         <v>36.146864000000001</v>
       </c>
       <c r="D35" s="1">
-        <f>primary!D39</f>
+        <f>primary!D40</f>
         <v>-86.801839000000001</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>primary!E39</f>
+        <f>primary!E40</f>
         <v>83</v>
       </c>
       <c r="F35" s="14">
-        <f>primary!H39</f>
+        <f>primary!H40</f>
         <v>28.649801889667781</v>
       </c>
       <c r="G35" s="1">
-        <f>primary!K39</f>
+        <f>primary!K40</f>
         <v>20.5</v>
       </c>
       <c r="H35" s="22">
-        <f>primary!N39</f>
+        <f>primary!N40</f>
         <v>213.47338090551179</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>primary!O39</f>
+        <f>primary!O40</f>
         <v>Between Benson Hall and Garland Hall</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f>primary!P39</f>
+        <f>primary!P40</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-340</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f>primary!A40</f>
+        <f>primary!A41</f>
         <v>2-247</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>primary!B40</f>
+        <f>primary!B41</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C36" s="1">
-        <f>primary!C40</f>
+        <f>primary!C41</f>
         <v>36.145913999999998</v>
       </c>
       <c r="D36" s="1">
-        <f>primary!D40</f>
+        <f>primary!D41</f>
         <v>-86.801046999999997</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>primary!E40</f>
+        <f>primary!E41</f>
         <v>110</v>
       </c>
       <c r="F36" s="14">
-        <f>primary!H40</f>
+        <f>primary!H41</f>
         <v>18.5</v>
       </c>
       <c r="G36" s="1">
-        <f>primary!K40</f>
+        <f>primary!K41</f>
         <v>17.75</v>
       </c>
       <c r="H36" s="22">
-        <f>primary!N40</f>
+        <f>primary!N41</f>
         <v>211.31104773622047</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>primary!O40</f>
+        <f>primary!O41</f>
         <v>in front of central library veering north</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f>primary!P40</f>
+        <f>primary!P41</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/6-143</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>primary!A41</f>
+        <f>primary!A42</f>
         <v>2-182</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>primary!B41</f>
+        <f>primary!B42</f>
         <v>Catalpa speciosa</v>
       </c>
       <c r="C37" s="1">
-        <f>primary!C41</f>
+        <f>primary!C42</f>
         <v>36.146563999999998</v>
       </c>
       <c r="D37" s="1">
-        <f>primary!D41</f>
+        <f>primary!D42</f>
         <v>-86.801297000000005</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>primary!E41</f>
+        <f>primary!E42</f>
         <v>111</v>
       </c>
       <c r="F37" s="14">
-        <f>primary!H41</f>
+        <f>primary!H42</f>
         <v>18.40902163974398</v>
       </c>
       <c r="G37" s="1">
-        <f>primary!K41</f>
+        <f>primary!K42</f>
         <v>16</v>
       </c>
       <c r="H37" s="22">
-        <f>primary!N41</f>
+        <f>primary!N42</f>
         <v>210.81395669291337</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>primary!O41</f>
+        <f>primary!O42</f>
         <v>Between the Divinity School and Garland Hall</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f>primary!P41</f>
+        <f>primary!P42</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/6-159</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
-        <f>primary!A42</f>
+        <f>primary!A43</f>
         <v>2-663</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>primary!B42</f>
+        <f>primary!B43</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C38" s="1">
-        <f>primary!C42</f>
+        <f>primary!C43</f>
         <v>36.146968000000001</v>
       </c>
       <c r="D38" s="1">
-        <f>primary!D42</f>
+        <f>primary!D43</f>
         <v>-86.801186000000001</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>primary!E42</f>
+        <f>primary!E43</f>
         <v>109</v>
       </c>
       <c r="F38" s="14">
-        <f>primary!H42</f>
+        <f>primary!H43</f>
         <v>18.5</v>
       </c>
       <c r="G38" s="1">
-        <f>primary!K42</f>
+        <f>primary!K43</f>
         <v>16</v>
       </c>
       <c r="H38" s="22">
-        <f>primary!N42</f>
+        <f>primary!N43</f>
         <v>208.63876377952755</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>primary!O42</f>
+        <f>primary!O43</f>
         <v>northeast of Bishop McTyeire's tomb; trunk splits just above measured height</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f>primary!P42</f>
+        <f>primary!P43</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/4-155</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f>primary!A43</f>
+        <f>primary!A44</f>
         <v>2-1002</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>primary!B43</f>
+        <f>primary!B44</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C39" s="1">
-        <f>primary!C43</f>
+        <f>primary!C44</f>
         <v>36.148797999999999</v>
       </c>
       <c r="D39" s="1">
-        <f>primary!D43</f>
+        <f>primary!D44</f>
         <v>-86.801866000000004</v>
       </c>
       <c r="E39" s="1">
-        <f>primary!E43</f>
+        <f>primary!E44</f>
         <v>106</v>
       </c>
       <c r="F39" s="14">
-        <f>primary!H43</f>
+        <f>primary!H44</f>
         <v>19</v>
       </c>
       <c r="G39" s="1">
-        <f>primary!K43</f>
+        <f>primary!K44</f>
         <v>17.25</v>
       </c>
       <c r="H39" s="22">
-        <f>primary!N43</f>
+        <f>primary!N44</f>
         <v>207.59403690944882</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>primary!O43</f>
+        <f>primary!O44</f>
         <v>between Kissam Dorms and Curry Field</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f>primary!P43</f>
+        <f>primary!P44</f>
         <v>none</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>primary!A44</f>
+        <f>primary!A45</f>
         <v>2-861</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>primary!B44</f>
+        <f>primary!B45</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C40" s="1">
-        <f>primary!C44</f>
+        <f>primary!C45</f>
         <v>36.148634000000001</v>
       </c>
       <c r="D40" s="1">
-        <f>primary!D44</f>
+        <f>primary!D45</f>
         <v>-86.801985999999999</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>primary!E44</f>
+        <f>primary!E45</f>
         <v>101</v>
       </c>
       <c r="F40" s="14">
-        <f>primary!H44</f>
+        <f>primary!H45</f>
         <v>19.5</v>
       </c>
       <c r="G40" s="1">
-        <f>primary!K44</f>
+        <f>primary!K45</f>
         <v>18</v>
       </c>
       <c r="H40" s="22">
-        <f>primary!N44</f>
+        <f>primary!N45</f>
         <v>203.66549212598426</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>primary!O44</f>
+        <f>primary!O45</f>
         <v>beteen Kirkland and Curry Field</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f>primary!P44</f>
+        <f>primary!P45</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/1-183</v>
       </c>
     </row>
@@ -22835,291 +22839,291 @@
         <v>#REF!</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>primary!B45</f>
+        <f>primary!B46</f>
         <v>Ginkgo biloba</v>
       </c>
       <c r="C41" s="1">
-        <f>primary!C45</f>
+        <f>primary!C46</f>
         <v>36.148558999999999</v>
       </c>
       <c r="D41" s="1">
-        <f>primary!D45</f>
+        <f>primary!D46</f>
         <v>-86.803090999999995</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>primary!E45</f>
+        <f>primary!E46</f>
         <v>100</v>
       </c>
       <c r="F41" s="14">
-        <f>primary!H45</f>
+        <f>primary!H46</f>
         <v>18</v>
       </c>
       <c r="G41" s="1">
-        <f>primary!K45</f>
+        <f>primary!K46</f>
         <v>23.5</v>
       </c>
       <c r="H41" s="22">
-        <f>primary!N45</f>
+        <f>primary!N46</f>
         <v>202.01852066929132</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>primary!O45</f>
+        <f>primary!O46</f>
         <v>between Kirkland and Barnard Halls; "Galloway's ginkgo"</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f>primary!P45</f>
+        <f>primary!P46</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/2-101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>primary!A46</f>
+        <f>primary!A47</f>
         <v>2-759</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>primary!B46</f>
+        <f>primary!B47</f>
         <v>Quercus alba</v>
       </c>
       <c r="C42" s="1">
-        <f>primary!C46</f>
+        <f>primary!C47</f>
         <v>36.148681000000003</v>
       </c>
       <c r="D42" s="1">
-        <f>primary!D46</f>
+        <f>primary!D47</f>
         <v>-86.802809999999994</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>primary!E46</f>
+        <f>primary!E47</f>
         <v>95</v>
       </c>
       <c r="F42" s="14">
-        <f>primary!H46</f>
+        <f>primary!H47</f>
         <v>19.597683633038706</v>
       </c>
       <c r="G42" s="1">
-        <f>primary!K46</f>
+        <f>primary!K47</f>
         <v>23</v>
       </c>
       <c r="H42" s="22">
-        <f>primary!N46</f>
+        <f>primary!N47</f>
         <v>200.66616338582676</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>primary!O46</f>
+        <f>primary!O47</f>
         <v>between Kirkland and West End Ave.</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f>primary!P46</f>
+        <f>primary!P47</f>
         <v>none</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>primary!A47</f>
+        <f>primary!A48</f>
         <v>2-461</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>primary!B47</f>
+        <f>primary!B48</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C43" s="1">
-        <f>primary!C47</f>
+        <f>primary!C48</f>
         <v>36.148344000000002</v>
       </c>
       <c r="D43" s="1">
-        <f>primary!D47</f>
+        <f>primary!D48</f>
         <v>-86.802238000000003</v>
       </c>
       <c r="E43" s="1">
-        <f>primary!E47</f>
+        <f>primary!E48</f>
         <v>107</v>
       </c>
       <c r="F43" s="14">
-        <f>primary!H47</f>
+        <f>primary!H48</f>
         <v>15</v>
       </c>
       <c r="G43" s="1">
-        <f>primary!K47</f>
+        <f>primary!K48</f>
         <v>15.25</v>
       </c>
       <c r="H43" s="22">
-        <f>primary!N47</f>
+        <f>primary!N48</f>
         <v>194.06638336614174</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>primary!O47</f>
+        <f>primary!O48</f>
         <v>east of Kirkland Hall; southwest of Kissam Quad; second tree north of curve in drive</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f>primary!P47</f>
+        <f>primary!P48</f>
         <v>none</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>primary!A48</f>
+        <f>primary!A49</f>
         <v>2-1006</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>primary!B48</f>
+        <f>primary!B49</f>
         <v>Fraxinus americana</v>
       </c>
       <c r="C44" s="1">
-        <f>primary!C48</f>
+        <f>primary!C49</f>
         <v>36.148788000000003</v>
       </c>
       <c r="D44" s="1">
-        <f>primary!D48</f>
+        <f>primary!D49</f>
         <v>-86.803242999999995</v>
       </c>
       <c r="E44" s="1">
-        <f>primary!E48</f>
+        <f>primary!E49</f>
         <v>95.5</v>
       </c>
       <c r="F44" s="14">
-        <f>primary!H48</f>
+        <f>primary!H49</f>
         <v>16.78</v>
       </c>
       <c r="G44" s="1">
-        <f>primary!K48</f>
+        <f>primary!K49</f>
         <v>21.25</v>
       </c>
       <c r="H44" s="22">
-        <f>primary!N48</f>
+        <f>primary!N49</f>
         <v>190.60432911417325</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>primary!O48</f>
+        <f>primary!O49</f>
         <v>next to the a/c unit, behind Barnard Hall; surrounded by shrubs and mosquitoes</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f>primary!P48</f>
+        <f>primary!P49</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/2-95</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f>primary!A49</f>
+        <f>primary!A50</f>
         <v>1-727</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>primary!B49</f>
+        <f>primary!B50</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C45" s="1">
-        <f>primary!C49</f>
+        <f>primary!C50</f>
         <v>36.142912000000003</v>
       </c>
       <c r="D45" s="1">
-        <f>primary!D49</f>
+        <f>primary!D50</f>
         <v>-86.798676</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>primary!E49</f>
+        <f>primary!E50</f>
         <v>94.5</v>
       </c>
       <c r="F45" s="14">
-        <f>primary!H49</f>
+        <f>primary!H50</f>
         <v>18.100000000000001</v>
       </c>
       <c r="G45" s="1">
-        <f>primary!K49</f>
+        <f>primary!K50</f>
         <v>13.5</v>
       </c>
       <c r="H45" s="22">
-        <f>primary!N49</f>
+        <f>primary!N50</f>
         <v>187.34146515748031</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>primary!O49</f>
+        <f>primary!O50</f>
         <v>western magnolia in Magnolia Lawn along Magnolia Circle</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f>primary!P49</f>
+        <f>primary!P50</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-190</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
-        <f>primary!A50</f>
+        <f>primary!A51</f>
         <v>2-482</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>primary!B50</f>
+        <f>primary!B51</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C46" s="1">
-        <f>primary!C50</f>
+        <f>primary!C51</f>
         <v>36.146942000000003</v>
       </c>
       <c r="D46" s="1">
-        <f>primary!D50</f>
+        <f>primary!D51</f>
         <v>-86.801242999999999</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>primary!E50</f>
+        <f>primary!E51</f>
         <v>85</v>
       </c>
       <c r="F46" s="14">
-        <f>primary!H50</f>
+        <f>primary!H51</f>
         <v>19</v>
       </c>
       <c r="G46" s="1">
-        <f>primary!K50</f>
+        <f>primary!K51</f>
         <v>21.25</v>
       </c>
       <c r="H46" s="22">
-        <f>primary!N50</f>
+        <f>primary!N51</f>
         <v>184.90126131889764</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>primary!O50</f>
+        <f>primary!O51</f>
         <v>northwest of Bishop McTyeire's tomb; trunk splits just above measured height</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f>primary!P50</f>
+        <f>primary!P51</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/4-156</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
-        <f>primary!A55</f>
+        <f>primary!A56</f>
         <v>1-731</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>primary!B55</f>
+        <f>primary!B56</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C47" s="1">
-        <f>primary!C55</f>
+        <f>primary!C56</f>
         <v>36.142820999999998</v>
       </c>
       <c r="D47" s="1">
-        <f>primary!D55</f>
+        <f>primary!D56</f>
         <v>-86.798294999999996</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>primary!E55</f>
+        <f>primary!E56</f>
         <v>86</v>
       </c>
       <c r="F47" s="14">
-        <f>primary!H55</f>
+        <f>primary!H56</f>
         <v>16.3</v>
       </c>
       <c r="G47" s="1">
-        <f>primary!K55</f>
+        <f>primary!K56</f>
         <v>15.6</v>
       </c>
       <c r="H47" s="22">
-        <f>primary!N55</f>
+        <f>primary!N56</f>
         <v>172.64499527559053</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>primary!O55</f>
+        <f>primary!O56</f>
         <v>southeastern magnolia in Magnolia Lawn along Magnolia Circle</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f>primary!P55</f>
+        <f>primary!P56</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-192</v>
       </c>
     </row>
@@ -23167,43 +23171,43 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
-        <f>primary!A56</f>
+        <f>primary!A57</f>
         <v>4-208</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>primary!B56</f>
+        <f>primary!B57</f>
         <v>Sophora japonica</v>
       </c>
       <c r="C49" s="1">
-        <f>primary!C56</f>
+        <f>primary!C57</f>
         <v>36.145698000000003</v>
       </c>
       <c r="D49" s="1">
-        <f>primary!D56</f>
+        <f>primary!D57</f>
         <v>-86.802318</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>primary!E56</f>
+        <f>primary!E57</f>
         <v>75.5</v>
       </c>
       <c r="F49" s="14">
-        <f>primary!H56</f>
+        <f>primary!H57</f>
         <v>19.600000000000001</v>
       </c>
       <c r="G49" s="1">
-        <f>primary!K56</f>
+        <f>primary!K57</f>
         <v>16</v>
       </c>
       <c r="H49" s="22">
-        <f>primary!N56</f>
+        <f>primary!N57</f>
         <v>170.81350748031494</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>primary!O56</f>
+        <f>primary!O57</f>
         <v>east of Buttrick Hall; former state champion</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f>primary!P56</f>
+        <f>primary!P57</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-29</v>
       </c>
     </row>
@@ -23251,421 +23255,421 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
-        <f>primary!A57</f>
+        <f>primary!A58</f>
         <v>2-865</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>primary!B57</f>
+        <f>primary!B58</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C51" s="1">
-        <f>primary!C57</f>
+        <f>primary!C58</f>
         <v>36.147545999999998</v>
       </c>
       <c r="D51" s="1">
-        <f>primary!D57</f>
+        <f>primary!D58</f>
         <v>-86.802178999999995</v>
       </c>
       <c r="E51" s="1">
-        <f>primary!E57</f>
+        <f>primary!E58</f>
         <v>71</v>
       </c>
       <c r="F51" s="14">
-        <f>primary!H57</f>
+        <f>primary!H58</f>
         <v>20.5</v>
       </c>
       <c r="G51" s="1">
-        <f>primary!K57</f>
+        <f>primary!K58</f>
         <v>18</v>
       </c>
       <c r="H51" s="22">
-        <f>primary!N57</f>
+        <f>primary!N58</f>
         <v>169.84109842519683</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>primary!O57</f>
+        <f>primary!O58</f>
         <v>north of Benson Hall; by Margaret Branscomb statue</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f>primary!P57</f>
+        <f>primary!P58</f>
         <v>none</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
-        <f>primary!A58</f>
+        <f>primary!A59</f>
         <v>2-959</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>primary!B58</f>
+        <f>primary!B59</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C52" s="1">
-        <f>primary!C58</f>
+        <f>primary!C59</f>
         <v>36.145654</v>
       </c>
       <c r="D52" s="1">
-        <f>primary!D58</f>
+        <f>primary!D59</f>
         <v>-86.801035999999996</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>primary!E58</f>
+        <f>primary!E59</f>
         <v>87</v>
       </c>
       <c r="F52" s="14">
-        <f>primary!H58</f>
+        <f>primary!H59</f>
         <v>13</v>
       </c>
       <c r="G52" s="1">
-        <f>primary!K58</f>
+        <f>primary!K59</f>
         <v>17.5</v>
       </c>
       <c r="H52" s="22">
-        <f>primary!N58</f>
+        <f>primary!N59</f>
         <v>164.61301673228346</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>primary!O58</f>
+        <f>primary!O59</f>
         <v>in front of central library veering south</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f>primary!P58</f>
+        <f>primary!P59</f>
         <v>none</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
-        <f>primary!A59</f>
+        <f>primary!A60</f>
         <v>4-616</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>primary!B59</f>
+        <f>primary!B60</f>
         <v>Juglans nigra</v>
       </c>
       <c r="C53" s="1">
-        <f>primary!C59</f>
+        <f>primary!C60</f>
         <v>36.143526999999999</v>
       </c>
       <c r="D53" s="1">
-        <f>primary!D59</f>
+        <f>primary!D60</f>
         <v>-86.802790999999999</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>primary!E59</f>
+        <f>primary!E60</f>
         <v>72</v>
       </c>
       <c r="F53" s="14">
-        <f>primary!H59</f>
+        <f>primary!H60</f>
         <v>17.8</v>
       </c>
       <c r="G53" s="1">
-        <f>primary!K59</f>
+        <f>primary!K60</f>
         <v>19</v>
       </c>
       <c r="H53" s="22">
-        <f>primary!N59</f>
+        <f>primary!N60</f>
         <v>163.03949488188977</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>primary!O59</f>
+        <f>primary!O60</f>
         <v>between McTyeire and the Round Wing</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f>primary!P59</f>
+        <f>primary!P60</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/11-221</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
-        <f>primary!A60</f>
+        <f>primary!A61</f>
         <v>2-886</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>primary!B60</f>
+        <f>primary!B61</f>
         <v>Acer saccharum</v>
       </c>
       <c r="C54" s="1">
-        <f>primary!C60</f>
+        <f>primary!C61</f>
         <v>36.147074000000003</v>
       </c>
       <c r="D54" s="1">
-        <f>primary!D60</f>
+        <f>primary!D61</f>
         <v>-86.801820000000006</v>
       </c>
       <c r="E54" s="1">
-        <f>primary!E60</f>
+        <f>primary!E61</f>
         <v>69.53</v>
       </c>
       <c r="F54" s="14">
-        <f>primary!H60</f>
+        <f>primary!H61</f>
         <v>15.6058</v>
       </c>
       <c r="G54" s="1">
-        <f>primary!K60</f>
+        <f>primary!K61</f>
         <v>15.54</v>
       </c>
       <c r="H54" s="22">
-        <f>primary!N60</f>
+        <f>primary!N61</f>
         <v>149.94724893385825</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>primary!O60</f>
+        <f>primary!O61</f>
         <v>next to the left side of Benson Hall from the front</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f>primary!P60</f>
+        <f>primary!P61</f>
         <v>none</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
-        <f>primary!A61</f>
+        <f>primary!A62</f>
         <v>2-386</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>primary!B61</f>
+        <f>primary!B62</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C55" s="1">
-        <f>primary!C61</f>
+        <f>primary!C62</f>
         <v>36.148497999999996</v>
       </c>
       <c r="D55" s="1">
-        <f>primary!D61</f>
+        <f>primary!D62</f>
         <v>-86.802300000000002</v>
       </c>
       <c r="E55" s="1">
-        <f>primary!E61</f>
+        <f>primary!E62</f>
         <v>67</v>
       </c>
       <c r="F55" s="14">
-        <f>primary!H61</f>
+        <f>primary!H62</f>
         <v>17</v>
       </c>
       <c r="G55" s="1">
-        <f>primary!K61</f>
+        <f>primary!K62</f>
         <v>13</v>
       </c>
       <c r="H55" s="22">
-        <f>primary!N61</f>
+        <f>primary!N62</f>
         <v>149.30896259842518</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>primary!O61</f>
+        <f>primary!O62</f>
         <v>east of Kirkland Hall; southwest of Kissam Quad; fourth tree north of curve in drive (last one)</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f>primary!P61</f>
+        <f>primary!P62</f>
         <v>none</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
-        <f>primary!A62</f>
+        <f>primary!A63</f>
         <v>2-791</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>primary!B62</f>
+        <f>primary!B63</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>primary!C62</f>
+        <f>primary!C63</f>
         <v>36.148494</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>primary!D62</f>
+        <f>primary!D63</f>
         <v>-86.802021</v>
       </c>
       <c r="E56" s="1">
-        <f>primary!E62</f>
+        <f>primary!E63</f>
         <v>58</v>
       </c>
       <c r="F56" s="14">
-        <f>primary!H62</f>
+        <f>primary!H63</f>
         <v>19</v>
       </c>
       <c r="G56" s="1">
-        <f>primary!K62</f>
+        <f>primary!K63</f>
         <v>17.75</v>
       </c>
       <c r="H56" s="22">
-        <f>primary!N62</f>
+        <f>primary!N63</f>
         <v>148.63553198818897</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>primary!O62</f>
+        <f>primary!O63</f>
         <v>east of the drive near Kirkland Hall</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f>primary!P62</f>
+        <f>primary!P63</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/1-187</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
-        <f>primary!A63</f>
+        <f>primary!A64</f>
         <v>1-454</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>primary!B63</f>
+        <f>primary!B64</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C57" s="1">
-        <f>primary!C63</f>
+        <f>primary!C64</f>
         <v>36.142907000000001</v>
       </c>
       <c r="D57" s="1">
-        <f>primary!D63</f>
+        <f>primary!D64</f>
         <v>-86.798353000000006</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>primary!E63</f>
+        <f>primary!E64</f>
         <v>62.5</v>
       </c>
       <c r="F57" s="14">
-        <f>primary!H63</f>
+        <f>primary!H64</f>
         <v>16.2</v>
       </c>
       <c r="G57" s="1">
-        <f>primary!K63</f>
+        <f>primary!K64</f>
         <v>14.75</v>
       </c>
       <c r="H57" s="22">
-        <f>primary!N63</f>
+        <f>primary!N64</f>
         <v>142.55379104330709</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>primary!O63</f>
+        <f>primary!O64</f>
         <v>northeastern magnolia in Magnolia Lawn along Magnolia Circle; another stem is 42.5 cm DBH</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f>primary!P63</f>
+        <f>primary!P64</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-193</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
-        <f>primary!A64</f>
+        <f>primary!A65</f>
         <v>2-1027</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>primary!B64</f>
+        <f>primary!B65</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C58" s="1">
-        <f>primary!C64</f>
+        <f>primary!C65</f>
         <v>36.148297999999997</v>
       </c>
       <c r="D58" s="1">
-        <f>primary!D64</f>
+        <f>primary!D65</f>
         <v>-86.802287000000007</v>
       </c>
       <c r="E58" s="1">
-        <f>primary!E64</f>
+        <f>primary!E65</f>
         <v>61</v>
       </c>
       <c r="F58" s="14">
-        <f>primary!H64</f>
+        <f>primary!H65</f>
         <v>12.5</v>
       </c>
       <c r="G58" s="1">
-        <f>primary!K64</f>
+        <f>primary!K65</f>
         <v>14.5</v>
       </c>
       <c r="H58" s="22">
-        <f>primary!N64</f>
+        <f>primary!N65</f>
         <v>128.35375885826772</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>primary!O64</f>
+        <f>primary!O65</f>
         <v>east of Kirkland Hall; southwest of Kissam Quad; first tree north of curve in drive</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>primary!P64</f>
+        <f>primary!P65</f>
         <v>none</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
-        <f>primary!A65</f>
+        <f>primary!A66</f>
         <v>1-375</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>primary!B65</f>
+        <f>primary!B66</f>
         <v>Cornus florida</v>
       </c>
       <c r="C59" s="1">
-        <f>primary!C65</f>
+        <f>primary!C66</f>
         <v>36.143264000000002</v>
       </c>
       <c r="D59" s="1">
-        <f>primary!D65</f>
+        <f>primary!D66</f>
         <v>-86.798715000000001</v>
       </c>
       <c r="E59" s="1">
-        <f>primary!E65</f>
+        <f>primary!E66</f>
         <v>32</v>
       </c>
       <c r="F59" s="14">
-        <f>primary!H65</f>
+        <f>primary!H66</f>
         <v>6.6</v>
       </c>
       <c r="G59" s="1">
-        <f>primary!K65</f>
+        <f>primary!K66</f>
         <v>8.85</v>
       </c>
       <c r="H59" s="22">
-        <f>primary!N65</f>
+        <f>primary!N66</f>
         <v>68.492899114173227</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>primary!O65</f>
+        <f>primary!O66</f>
         <v>west side of Magnolia Lawn on north side of the sidewalk that crosses the lawn; other stems: 24 cm and 21 cm DBH</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f>primary!P65</f>
+        <f>primary!P66</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/12-176</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
-        <f>primary!A66</f>
+        <f>primary!A37</f>
         <v>2-319</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>primary!B66</f>
+        <f>primary!B37</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C60" s="1">
-        <f>primary!C66</f>
+        <f>primary!C37</f>
         <v>36.146718</v>
       </c>
       <c r="D60" s="1">
-        <f>primary!D66</f>
+        <f>primary!D37</f>
         <v>-86.802537000000001</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>primary!E66</f>
+        <f>primary!E37</f>
         <v>118</v>
       </c>
       <c r="F60" s="14">
-        <f>primary!H66</f>
-        <v>0</v>
+        <f>primary!H37</f>
+        <v>20</v>
       </c>
       <c r="G60" s="1">
-        <f>primary!K66</f>
-        <v>0</v>
+        <f>primary!K37</f>
+        <v>16.5</v>
       </c>
       <c r="H60" s="22">
-        <f>primary!N66</f>
-        <v>0</v>
+        <f>primary!N37</f>
+        <v>225.10200688976377</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>primary!O66</f>
+        <f>primary!O37</f>
         <v>between Rand and Old Central; note: also has another 59 cm dbh stem</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f>primary!P66</f>
+        <f>primary!P37</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-309</v>
       </c>
     </row>
@@ -24007,43 +24011,43 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
-        <f>primary!A51</f>
+        <f>primary!A52</f>
         <v>3-140</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>primary!B51</f>
+        <f>primary!B52</f>
         <v>Quercus muhlenbergii</v>
       </c>
       <c r="C69" s="1">
-        <f>primary!C51</f>
+        <f>primary!C52</f>
         <v>36.146026999999997</v>
       </c>
       <c r="D69" s="1">
-        <f>primary!D51</f>
+        <f>primary!D52</f>
         <v>-86.802841999999998</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>primary!E51</f>
+        <f>primary!E52</f>
         <v>97</v>
       </c>
       <c r="F69" s="14">
-        <f>primary!H51</f>
+        <f>primary!H52</f>
         <v>13.5</v>
       </c>
       <c r="G69" s="1">
-        <f>primary!K51</f>
+        <f>primary!K52</f>
         <v>22.5</v>
       </c>
       <c r="H69" s="22">
-        <f>primary!N51</f>
+        <f>primary!N52</f>
         <v>182.72323129921259</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>primary!O51</f>
+        <f>primary!O52</f>
         <v>By Station B post office entrance</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>primary!P51</f>
+        <f>primary!P52</f>
         <v>http://bioimages.vanderbilt.edu/vanderbilt/7-282</v>
       </c>
     </row>
@@ -24637,43 +24641,43 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
-        <f>primary!A52</f>
+        <f>primary!A53</f>
         <v>2-907</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>primary!B52</f>
+        <f>primary!B53</f>
         <v>Magnolia grandiflora</v>
       </c>
       <c r="C84" s="1">
-        <f>primary!C52</f>
+        <f>primary!C53</f>
         <v>36.148625000000003</v>
       </c>
       <c r="D84" s="1">
-        <f>primary!D52</f>
+        <f>primary!D53</f>
         <v>-86.802114000000003</v>
       </c>
       <c r="E84" s="1">
-        <f>primary!E52</f>
+        <f>primary!E53</f>
         <v>89</v>
       </c>
       <c r="F84" s="14">
-        <f>primary!H52</f>
+        <f>primary!H53</f>
         <v>18</v>
       </c>
       <c r="G84" s="1">
-        <f>primary!K52</f>
+        <f>primary!K53</f>
         <v>15</v>
       </c>
       <c r="H84" s="22">
-        <f>primary!N52</f>
+        <f>primary!N53</f>
         <v>181.44108464566929</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>primary!O52</f>
+        <f>primary!O53</f>
         <v>east of Kirkland Hall; southwest of Kissam Quad; away from the drive and closer to the dorms</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f>primary!P52</f>
+        <f>primary!P53</f>
         <v>none</v>
       </c>
     </row>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="14040" tabRatio="347"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">primary!$A$3:$P$104</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>Steven J Baskauf</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1">
+    <comment ref="E11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1">
+    <comment ref="H11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="1">
+    <comment ref="H22" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="K22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="1">
+    <comment ref="E34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="1">
+    <comment ref="H34" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0">
+    <comment ref="I38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="1">
+    <comment ref="H39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="1">
+    <comment ref="K39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0">
+    <comment ref="I40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0">
+    <comment ref="I42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="1">
+    <comment ref="E44" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="1">
+    <comment ref="H44" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1">
+    <comment ref="B45" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="1">
+    <comment ref="H47" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0">
+    <comment ref="I47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0">
+    <comment ref="K47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="1">
+    <comment ref="E49" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="1">
+    <comment ref="H49" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H52" authorId="0">
+    <comment ref="H52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0">
+    <comment ref="H57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E58" authorId="0">
+    <comment ref="E58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N58" authorId="1">
+    <comment ref="N58" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="1">
+    <comment ref="E59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H60" authorId="0">
+    <comment ref="H60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1">
+    <comment ref="E61" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="1">
+    <comment ref="H61" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E63" authorId="1">
+    <comment ref="E63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -888,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H63" authorId="1">
+    <comment ref="H63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K63" authorId="1">
+    <comment ref="K63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N63" authorId="1">
+    <comment ref="N63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0">
+    <comment ref="A72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0">
+    <comment ref="A82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1008,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E105" authorId="1">
+    <comment ref="E105" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B107" authorId="0">
+    <comment ref="B107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1061,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0">
+    <comment ref="E108" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1080,12 +1085,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="E110" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>additional trunks: 63 cm and 45 cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E113" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Additional trunks: 60 cm and 32 cm</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="447">
   <si>
     <t>ID</t>
   </si>
@@ -2366,6 +2399,66 @@
   </si>
   <si>
     <t>east of Kirkland Hall; southwest of Kissam Quad; first tree north of curve in drive</t>
+  </si>
+  <si>
+    <t>2-468</t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
+  </si>
+  <si>
+    <t>west of Vanderbilt Hall, to be removed for construction</t>
+  </si>
+  <si>
+    <t>36.148395</t>
+  </si>
+  <si>
+    <t>-86.804136</t>
+  </si>
+  <si>
+    <t>2-910</t>
+  </si>
+  <si>
+    <t>36.1488</t>
+  </si>
+  <si>
+    <t>-86.803725</t>
+  </si>
+  <si>
+    <t>north of Barnhard Hall, to be removed for construction</t>
+  </si>
+  <si>
+    <t>2-616</t>
+  </si>
+  <si>
+    <t>36.148811</t>
+  </si>
+  <si>
+    <t>-86.80329</t>
+  </si>
+  <si>
+    <t>northeast of Barnhard Hall, to be removed for construction</t>
+  </si>
+  <si>
+    <t>2-596</t>
+  </si>
+  <si>
+    <t>36.148651</t>
+  </si>
+  <si>
+    <t>-86.803173</t>
+  </si>
+  <si>
+    <t>2-891</t>
+  </si>
+  <si>
+    <t>36.148385</t>
+  </si>
+  <si>
+    <t>-86.803485</t>
+  </si>
+  <si>
+    <t>south of Barnhard Hall, to be removed for construction</t>
   </si>
 </sst>
 </file>
@@ -2956,7 +3049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2967,11 +3060,11 @@
   <dimension ref="A1:Q684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3330" ySplit="600" topLeftCell="G32" activePane="bottomLeft"/>
+      <pane xSplit="3330" ySplit="600" topLeftCell="A76" activePane="bottomRight"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="K3" sqref="K3"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomRight" activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8476,116 +8569,261 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E110" s="26"/>
+      <c r="A110" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E110" s="26">
+        <v>63</v>
+      </c>
       <c r="F110" s="26">
         <f t="shared" ref="F110:F129" si="16">E110/2.54</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="14"/>
+        <v>24.803149606299211</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="H110" s="14">
+        <v>19.600000000000001</v>
+      </c>
       <c r="I110" s="21">
         <f t="shared" ref="I110:I130" si="17">H110*3.281</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="29"/>
+        <v>64.307600000000008</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K110" s="29">
+        <v>15.5</v>
+      </c>
       <c r="L110" s="30">
         <f t="shared" ref="L110:L130" si="18">K110*3.281</f>
-        <v>0</v>
+        <v>50.855499999999999</v>
+      </c>
+      <c r="M110" s="27" t="s">
+        <v>428</v>
       </c>
       <c r="N110" s="15">
         <f t="shared" ref="N110:N130" si="19">IF(K110=0,0,E110/2.54*3.14159+H110*3.281+K110*3.281/4)</f>
-        <v>0</v>
+        <v>154.94280177165356</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E111" s="26"/>
+      <c r="A111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E111" s="26">
+        <v>115</v>
+      </c>
       <c r="F111" s="26">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="14"/>
+        <v>45.275590551181104</v>
+      </c>
+      <c r="G111" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="H111" s="14">
+        <v>16</v>
+      </c>
       <c r="I111" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="29"/>
+        <v>52.496000000000002</v>
+      </c>
+      <c r="J111" s="134" t="s">
+        <v>428</v>
+      </c>
+      <c r="K111" s="29">
+        <v>18</v>
+      </c>
       <c r="L111" s="30">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>59.058</v>
+      </c>
+      <c r="M111" s="147" t="s">
+        <v>428</v>
       </c>
       <c r="N111" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>209.49784251968504</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E112" s="26"/>
+      <c r="A112" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B112" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E112" s="26">
+        <v>76</v>
+      </c>
       <c r="F112" s="26">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="14"/>
+        <v>29.921259842519685</v>
+      </c>
+      <c r="G112" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="H112" s="14">
+        <v>13.7</v>
+      </c>
       <c r="I112" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="29"/>
+        <v>44.9497</v>
+      </c>
+      <c r="J112" s="134" t="s">
+        <v>428</v>
+      </c>
+      <c r="K112" s="29">
+        <v>11</v>
+      </c>
       <c r="L112" s="30">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>36.091000000000001</v>
+      </c>
+      <c r="M112" s="147" t="s">
+        <v>428</v>
       </c>
       <c r="N112" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E113" s="26"/>
+        <v>147.97278070866142</v>
+      </c>
+      <c r="O112" s="130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B113" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E113" s="26">
+        <v>74</v>
+      </c>
       <c r="F113" s="26">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="14"/>
+        <v>29.133858267716533</v>
+      </c>
+      <c r="G113" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="H113" s="14">
+        <v>14</v>
+      </c>
       <c r="I113" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="7"/>
-      <c r="K113" s="29"/>
+        <v>45.934000000000005</v>
+      </c>
+      <c r="J113" s="134" t="s">
+        <v>428</v>
+      </c>
+      <c r="K113" s="29">
+        <v>15.5</v>
+      </c>
       <c r="L113" s="30">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>50.855499999999999</v>
+      </c>
+      <c r="M113" s="147" t="s">
+        <v>428</v>
       </c>
       <c r="N113" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E114" s="26"/>
+        <v>150.17451279527558</v>
+      </c>
+      <c r="O113" s="130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B114" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E114" s="26">
+        <v>101</v>
+      </c>
       <c r="F114" s="26">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="14"/>
+        <v>39.763779527559052</v>
+      </c>
+      <c r="G114" s="145" t="s">
+        <v>428</v>
+      </c>
+      <c r="H114" s="14">
+        <v>15</v>
+      </c>
       <c r="I114" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="7"/>
-      <c r="K114" s="29"/>
+        <v>49.215000000000003</v>
+      </c>
+      <c r="J114" s="134" t="s">
+        <v>428</v>
+      </c>
+      <c r="K114" s="29">
+        <v>14.25</v>
+      </c>
       <c r="L114" s="30">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>46.754249999999999</v>
+      </c>
+      <c r="M114" s="147" t="s">
+        <v>428</v>
       </c>
       <c r="N114" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="5:14" x14ac:dyDescent="0.25">
+        <v>185.82505462598425</v>
+      </c>
+      <c r="O114" s="130" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E115" s="26"/>
       <c r="F115" s="26">
         <f t="shared" si="16"/>
@@ -8607,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E116" s="26"/>
       <c r="F116" s="26">
         <f t="shared" si="16"/>
@@ -8629,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E117" s="26"/>
       <c r="F117" s="26">
         <f t="shared" si="16"/>
@@ -8651,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E118" s="26"/>
       <c r="F118" s="26">
         <f t="shared" si="16"/>
@@ -8673,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E119" s="26"/>
       <c r="F119" s="26">
         <f t="shared" si="16"/>
@@ -8695,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E120" s="26"/>
       <c r="F120" s="26">
         <f t="shared" si="16"/>
@@ -8717,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E121" s="26"/>
       <c r="F121" s="26">
         <f t="shared" si="16"/>
@@ -8739,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E122" s="26"/>
       <c r="F122" s="26">
         <f t="shared" si="16"/>
@@ -8761,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E123" s="26"/>
       <c r="F123" s="26">
         <f t="shared" si="16"/>
@@ -8783,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E124" s="26"/>
       <c r="F124" s="26">
         <f t="shared" si="16"/>
@@ -8805,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E125" s="26"/>
       <c r="F125" s="26">
         <f t="shared" si="16"/>
@@ -8827,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E126" s="26"/>
       <c r="F126" s="26">
         <f t="shared" si="16"/>
@@ -8849,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E127" s="26"/>
       <c r="F127" s="26">
         <f t="shared" si="16"/>
@@ -8871,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E128" s="26"/>
       <c r="F128" s="26">
         <f t="shared" si="16"/>

--- a/measured-trees.xlsx
+++ b/measured-trees.xlsx
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by surveying class 2014-04</t>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students.  Verify this.</t>
@@ -109,7 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by surveying class 2014-04</t>
@@ -133,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by Vanderbilt School for Science and Math Students</t>
@@ -181,7 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -190,7 +190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by Vanderbilt School for Science and Math Students</t>
@@ -205,7 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -214,7 +214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by Vanderbilt School for Science and Math Students</t>
@@ -229,7 +229,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -238,7 +238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -262,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students, verify this</t>
@@ -277,7 +277,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -286,7 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by Vanderbilt School for Science and Math Students</t>
@@ -301,7 +301,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -310,7 +310,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -325,7 +325,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -334,7 +334,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -349,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -358,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by surveying class</t>
@@ -373,7 +373,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -382,7 +382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured in feet by Vanderbilt School for Science and Math Students</t>
@@ -397,7 +397,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -406,7 +406,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students as 107.5 cm on 2014-08-20.  Note: splits at head height to two trunks</t>
@@ -421,7 +421,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -430,7 +430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students at 20.4 m on 2014-08-20</t>
@@ -445,7 +445,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>cut down in 2014</t>
         </r>
@@ -459,7 +459,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -468,7 +468,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 large branch about 90 years old, so tree is about 100 ya in 2014</t>
@@ -483,7 +483,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -492,7 +492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -507,7 +507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -516,7 +516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by vssm students</t>
@@ -531,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -540,7 +540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by vssm</t>
@@ -555,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -579,7 +579,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -588,7 +588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -603,7 +603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -612,7 +612,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by Vanderbilt School for Science and Math Students</t>
@@ -627,7 +627,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -636,7 +636,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by Vanderbilt School for Science and Math Students</t>
@@ -675,7 +675,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -684,7 +684,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 would be 218 if a single stem</t>
@@ -699,7 +699,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -708,7 +708,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note: this tree is larger than its diameter would indicate because a number of branches that were touching the ground have sprouted and are now auxillary trees around the main one (clones)</t>
@@ -723,7 +723,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -732,7 +732,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by Vanderbilt School for Science and Math Students</t>
@@ -747,7 +747,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -756,7 +756,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -771,7 +771,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -780,7 +780,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students</t>
@@ -795,7 +795,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -804,7 +804,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students to be 127 cm dbh on 2014-08-20.  However, I checked it and it actually has a three-way split trunk that forks below breast height, with 58, 56, and 52 cm trunks.</t>
@@ -819,7 +819,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -828,7 +828,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students to be 22.5 m on 2014-08-20</t>
@@ -843,7 +843,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -852,7 +852,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured at 13.9 m on 2014-08-20 by SSMV students</t>
@@ -867,7 +867,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -876,7 +876,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note: this value underestimates the tree's size.  It would probably be well over 200 points if the trunk didn't split into three</t>
@@ -891,7 +891,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -900,7 +900,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cut down in 2015</t>
@@ -1011,7 +1011,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>additional trunks: 63 cm and 45 cm</t>
         </r>
@@ -1025,7 +1025,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Additional trunks: 60 cm and 32 cm</t>
         </r>
@@ -1039,7 +1039,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -1048,7 +1048,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This record is really messed up.  The ID number is incorrect for the location description and the description of the tree as having three trunks is also wrong relative to the actual tree at that location.  I have corrected the tree at this location with data from 2016 but I don't know what tree was actually being described here.</t>
@@ -1087,7 +1087,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven J Baskauf:</t>
         </r>
@@ -1096,7 +1096,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by SSMV students, my previous estimate was 28 m, so verification would be good</t>
@@ -1111,7 +1111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -1120,7 +1120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by vssm students</t>
@@ -1135,7 +1135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steve Baskauf:</t>
         </r>
@@ -1144,7 +1144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 measured by vssm students</t>
@@ -1156,7 +1156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="458">
   <si>
     <t>ID</t>
   </si>
@@ -2515,6 +2515,21 @@
   </si>
   <si>
     <t>http://bioimages.vanderbilt.edu/vanderbilt/2-83</t>
+  </si>
+  <si>
+    <t>http://bioimages.vanderbilt.edu/vanderbilt/2-152</t>
+  </si>
+  <si>
+    <t>http://bioimages.vanderbilt.edu/vanderbilt/2-158</t>
+  </si>
+  <si>
+    <t>http://bioimages.vanderbilt.edu/vanderbilt/2-94</t>
+  </si>
+  <si>
+    <t>http://bioimages.vanderbilt.edu/vanderbilt/2-99</t>
+  </si>
+  <si>
+    <t>http://bioimages.vanderbilt.edu/vanderbilt/2-116</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2540,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2563,21 +2578,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2673,10 +2676,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2839,7 +2842,7 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2848,10 +2851,11 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3137,11 +3141,11 @@
   <dimension ref="A1:Q683"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3330" ySplit="600" topLeftCell="A4" activePane="bottomRight"/>
+      <pane xSplit="3330" ySplit="600" topLeftCell="C4" activePane="bottomRight"/>
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="C22" sqref="C22:D22"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD72"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8696,6 +8700,9 @@
       <c r="O110" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="P110" s="130" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -8747,6 +8754,9 @@
       <c r="O111" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="P111" s="130" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -8798,6 +8808,9 @@
       <c r="O112" s="130" t="s">
         <v>439</v>
       </c>
+      <c r="P112" s="175" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -8849,6 +8862,9 @@
       <c r="O113" s="130" t="s">
         <v>439</v>
       </c>
+      <c r="P113" s="130" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -8899,6 +8915,9 @@
       </c>
       <c r="O114" s="130" t="s">
         <v>446</v>
+      </c>
+      <c r="P114" s="129" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
